--- a/Experiments_Divergences_2D.xlsx
+++ b/Experiments_Divergences_2D.xlsx
@@ -1902,7 +1902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2447,10 +2447,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2767,7 +2763,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2778,10 +2774,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.114268665622436"/>
-          <c:y val="0.050921052631579"/>
-          <c:w val="0.842097411799806"/>
-          <c:h val="0.760657894736842"/>
+          <c:x val="0.11430241295817"/>
+          <c:y val="0.0509344564359042"/>
+          <c:w val="0.841947065208316"/>
+          <c:h val="0.760331666227955"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3282,11 +3278,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="8003066"/>
-        <c:axId val="64396234"/>
+        <c:axId val="40503996"/>
+        <c:axId val="40848935"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8003066"/>
+        <c:axId val="40503996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,14 +3366,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64396234"/>
+        <c:crossAx val="40848935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64396234"/>
+        <c:axId val="40848935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3454,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8003066"/>
+        <c:crossAx val="40503996"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
@@ -3508,7 +3504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3519,10 +3515,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.107421439714731"/>
-          <c:y val="0.0509793399517038"/>
-          <c:w val="0.856399970284526"/>
-          <c:h val="0.777434934263483"/>
+          <c:x val="0.10739817123857"/>
+          <c:y val="0.0509930220075148"/>
+          <c:w val="0.85619285120532"/>
+          <c:h val="0.777106816961889"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4023,11 +4019,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47071046"/>
-        <c:axId val="62890560"/>
+        <c:axId val="39440379"/>
+        <c:axId val="62970796"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47071046"/>
+        <c:axId val="39440379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,14 +4107,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62890560"/>
+        <c:crossAx val="62970796"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62890560"/>
+        <c:axId val="62970796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4201,7 +4197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47071046"/>
+        <c:crossAx val="39440379"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4250,7 +4246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4261,10 +4257,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115703703703704"/>
-          <c:y val="0.0510242553726279"/>
-          <c:w val="0.850518518518519"/>
-          <c:h val="0.771019228352394"/>
+          <c:x val="0.115668240947883"/>
+          <c:y val="0.0510370835952231"/>
+          <c:w val="0.850360427541636"/>
+          <c:h val="0.77071024512885"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5293,11 +5289,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83906203"/>
-        <c:axId val="62564803"/>
+        <c:axId val="33944589"/>
+        <c:axId val="18443880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83906203"/>
+        <c:axId val="33944589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,14 +5377,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62564803"/>
+        <c:crossAx val="18443880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62564803"/>
+        <c:axId val="18443880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,8 +5440,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00748148148148148"/>
-              <c:y val="0.322986050018851"/>
+              <c:x val="0.00745712155108128"/>
+              <c:y val="0.322815839094909"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5477,7 +5473,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83906203"/>
+        <c:crossAx val="33944589"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -5527,7 +5523,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5538,10 +5534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115667483842211"/>
-          <c:y val="0.0509599096555618"/>
-          <c:w val="0.850531164103707"/>
-          <c:h val="0.735601355166573"/>
+          <c:x val="0.115627597672485"/>
+          <c:y val="0.0509743010449026"/>
+          <c:w val="0.850374064837905"/>
+          <c:h val="0.735526687376447"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6570,11 +6566,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="37401637"/>
-        <c:axId val="6212968"/>
+        <c:axId val="87098767"/>
+        <c:axId val="46988609"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37401637"/>
+        <c:axId val="87098767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,14 +6654,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6212968"/>
+        <c:crossAx val="46988609"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6212968"/>
+        <c:axId val="46988609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6721,8 +6717,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00750315726914791"/>
-              <c:y val="0.322981366459627"/>
+              <c:x val="0.00748129675810474"/>
+              <c:y val="0.322790172267721"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6754,7 +6750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37401637"/>
+        <c:crossAx val="87098767"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -6804,7 +6800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6815,10 +6811,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115695210682018"/>
-          <c:y val="0.0510531952873974"/>
-          <c:w val="0.854001759014952"/>
-          <c:h val="0.719564441270975"/>
+          <c:x val="0.115735307393699"/>
+          <c:y val="0.0510714285714286"/>
+          <c:w val="0.8538412927688"/>
+          <c:h val="0.719464285714286"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7319,11 +7315,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="89513695"/>
-        <c:axId val="83457271"/>
+        <c:axId val="27571822"/>
+        <c:axId val="38754686"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89513695"/>
+        <c:axId val="27571822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7407,14 +7403,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83457271"/>
+        <c:crossAx val="38754686"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83457271"/>
+        <c:axId val="38754686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7470,8 +7466,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00751579115695211"/>
-              <c:y val="0.32220635487326"/>
+              <c:x val="0.00749300352080888"/>
+              <c:y val="0.321964285714286"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7503,7 +7499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89513695"/>
+        <c:crossAx val="27571822"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7553,7 +7549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7564,10 +7560,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115695210682018"/>
-          <c:y val="0.051043386878847"/>
-          <c:w val="0.850483729111697"/>
-          <c:h val="0.77075514187059"/>
+          <c:x val="0.115735307393699"/>
+          <c:y val="0.0510587175251539"/>
+          <c:w val="0.850320483885529"/>
+          <c:h val="0.770385943835411"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8068,11 +8064,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="17975238"/>
-        <c:axId val="69735866"/>
+        <c:axId val="8432211"/>
+        <c:axId val="7900406"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17975238"/>
+        <c:axId val="8432211"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8156,14 +8152,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69735866"/>
+        <c:crossAx val="7900406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69735866"/>
+        <c:axId val="7900406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8220,8 +8216,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00751579115695211"/>
-              <c:y val="0.322924485812941"/>
+              <c:x val="0.00749300352080888"/>
+              <c:y val="0.322721129298693"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8253,7 +8249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17975238"/>
+        <c:crossAx val="8432211"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8303,7 +8299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8314,10 +8310,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115703703703704"/>
-          <c:y val="0.0510242553726279"/>
-          <c:w val="0.850518518518519"/>
-          <c:h val="0.771019228352394"/>
+          <c:x val="0.115668240947883"/>
+          <c:y val="0.0510370835952231"/>
+          <c:w val="0.850360427541636"/>
+          <c:h val="0.77071024512885"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9346,11 +9342,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74820142"/>
-        <c:axId val="29321949"/>
+        <c:axId val="41811167"/>
+        <c:axId val="72414333"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74820142"/>
+        <c:axId val="41811167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9434,14 +9430,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29321949"/>
+        <c:crossAx val="72414333"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29321949"/>
+        <c:axId val="72414333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -9499,8 +9495,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00748148148148148"/>
-              <c:y val="0.322986050018851"/>
+              <c:x val="0.00745712155108128"/>
+              <c:y val="0.322815839094909"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9532,7 +9528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74820142"/>
+        <c:crossAx val="41811167"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -9582,7 +9578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9593,10 +9589,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115667483842211"/>
-          <c:y val="0.0509599096555618"/>
-          <c:w val="0.850531164103707"/>
-          <c:h val="0.735601355166573"/>
+          <c:x val="0.115627597672485"/>
+          <c:y val="0.0509743010449026"/>
+          <c:w val="0.850374064837905"/>
+          <c:h val="0.735526687376447"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -10625,11 +10621,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="75330387"/>
-        <c:axId val="10183117"/>
+        <c:axId val="49695376"/>
+        <c:axId val="74555893"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75330387"/>
+        <c:axId val="49695376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10713,14 +10709,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10183117"/>
+        <c:crossAx val="74555893"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10183117"/>
+        <c:axId val="74555893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10776,8 +10772,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00750315726914791"/>
-              <c:y val="0.322981366459627"/>
+              <c:x val="0.00748129675810474"/>
+              <c:y val="0.322790172267721"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10809,7 +10805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75330387"/>
+        <c:crossAx val="49695376"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10870,9 +10866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10881,7 +10877,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="95400" y="2814480"/>
-        <a:ext cx="4826160" cy="2735640"/>
+        <a:ext cx="4311360" cy="2734920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10900,9 +10896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
+      <xdr:colOff>625320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10910,8 +10906,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5038560" y="2800440"/>
-        <a:ext cx="4845600" cy="2683080"/>
+        <a:off x="4524480" y="2800440"/>
+        <a:ext cx="4330440" cy="2682360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10930,9 +10926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10940,8 +10936,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7734240" y="7210080"/>
-        <a:ext cx="4859640" cy="2864160"/>
+        <a:off x="6877080" y="7210080"/>
+        <a:ext cx="4344480" cy="2863440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10960,9 +10956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10970,8 +10966,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7753320" y="10105920"/>
-        <a:ext cx="4845600" cy="2549880"/>
+        <a:off x="6896160" y="10105920"/>
+        <a:ext cx="4330440" cy="2549160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10990,9 +10986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11001,7 +10997,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="266760" y="17411400"/>
-        <a:ext cx="4502160" cy="2016360"/>
+        <a:ext cx="3987360" cy="2015640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11020,9 +11016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11031,7 +11027,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="266760" y="19430640"/>
-        <a:ext cx="4502160" cy="2397600"/>
+        <a:ext cx="3987360" cy="2396880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11050,9 +11046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
+      <xdr:colOff>648720</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11060,8 +11056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8134200" y="22326480"/>
-        <a:ext cx="4859640" cy="2864160"/>
+        <a:off x="7277040" y="22326480"/>
+        <a:ext cx="4344480" cy="2863440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11080,9 +11076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
+      <xdr:colOff>644400</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11090,8 +11086,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8143920" y="25221960"/>
-        <a:ext cx="4845600" cy="2549880"/>
+        <a:off x="7286760" y="25221960"/>
+        <a:ext cx="4330440" cy="2549160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11111,16 +11107,16 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,41 +11160,41 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>860.546392404013</v>
+        <v>860.031482021281</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>59.948456614602</v>
+        <v>60.0123617849722</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.438252901146458</v>
+        <v>0.249235359288559</v>
       </c>
       <c r="D2" s="7" t="n">
         <f aca="false">A2-L$2</f>
-        <v>0.546392404012977</v>
+        <v>0.0314820212810218</v>
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">B2-M$2</f>
-        <v>-0.0515433853979985</v>
+        <v>0.0123617849721995</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">C2-N$2</f>
-        <v>0.438252901146458</v>
+        <v>0.249235359288559</v>
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">360-F2</f>
-        <v>359.561747098854</v>
+        <v>359.750764640711</v>
       </c>
       <c r="H2" s="8" t="n">
         <f aca="false">IF(ABS(D2)&lt;10,ABS(D2),"")</f>
-        <v>0.546392404012977</v>
+        <v>0.0314820212810218</v>
       </c>
       <c r="I2" s="9" t="n">
         <f aca="false">IF(ABS(E2)&lt;10,ABS(E2),"")</f>
-        <v>0.0515433853979985</v>
+        <v>0.0123617849721995</v>
       </c>
       <c r="J2" s="10" t="n">
         <f aca="false">ABS(MIN(F2:G2))</f>
-        <v>0.438252901146458</v>
+        <v>0.249235359288559</v>
       </c>
       <c r="L2" s="11" t="n">
         <v>860</v>
@@ -11212,583 +11208,583 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>860.145414566781</v>
+        <v>860.480607309886</v>
       </c>
       <c r="B3" s="12" t="n">
-        <v>60.2634071201275</v>
+        <v>60.0490993797083</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.285448329735666</v>
+        <v>360</v>
       </c>
       <c r="D3" s="7" t="n">
         <f aca="false">A3-L$2</f>
-        <v>0.145414566781028</v>
+        <v>0.480607309885954</v>
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">B3-M$2</f>
-        <v>0.263407120127503</v>
+        <v>0.0490993797083021</v>
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">C3-N$2</f>
-        <v>0.285448329735666</v>
+        <v>360</v>
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">360-F3</f>
-        <v>359.714551670264</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14" t="n">
         <f aca="false">IF(ABS(D3)&lt;10,ABS(D3),"")</f>
-        <v>0.145414566781028</v>
+        <v>0.480607309885954</v>
       </c>
       <c r="I3" s="7" t="n">
         <f aca="false">IF(ABS(E3)&lt;10,ABS(E3),"")</f>
-        <v>0.263407120127503</v>
+        <v>0.0490993797083021</v>
       </c>
       <c r="J3" s="10" t="n">
         <f aca="false">ABS(MIN(F3:G3))</f>
-        <v>0.285448329735666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>860.170850354913</v>
+        <v>860.479953779246</v>
       </c>
       <c r="B4" s="12" t="n">
-        <v>60.3322524539449</v>
+        <v>60.0445656135641</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.342875495780845</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7" t="n">
         <f aca="false">A4-L$2</f>
-        <v>0.170850354913</v>
+        <v>0.479953779245989</v>
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">B4-M$2</f>
-        <v>0.332252453944903</v>
+        <v>0.044565613564103</v>
       </c>
       <c r="F4" s="7" t="n">
         <f aca="false">C4-N$2</f>
-        <v>0.342875495780845</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">360-F4</f>
-        <v>359.657124504219</v>
+        <v>360</v>
       </c>
       <c r="H4" s="14" t="n">
         <f aca="false">IF(ABS(D4)&lt;10,ABS(D4),"")</f>
-        <v>0.170850354913</v>
+        <v>0.479953779245989</v>
       </c>
       <c r="I4" s="7" t="n">
         <f aca="false">IF(ABS(E4)&lt;10,ABS(E4),"")</f>
-        <v>0.332252453944903</v>
+        <v>0.044565613564103</v>
       </c>
       <c r="J4" s="10" t="n">
         <f aca="false">ABS(MIN(F4:G4))</f>
-        <v>0.342875495780845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>860.162818046197</v>
+        <v>860.500467306434</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>60.0445129719679</v>
+        <v>60.0454618112132</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.356959356975929</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7" t="n">
         <f aca="false">A5-L$2</f>
-        <v>0.162818046197003</v>
+        <v>0.500467306433961</v>
       </c>
       <c r="E5" s="7" t="n">
         <f aca="false">B5-M$2</f>
-        <v>0.0445129719678974</v>
+        <v>0.045461811213201</v>
       </c>
       <c r="F5" s="7" t="n">
         <f aca="false">C5-N$2</f>
-        <v>0.356959356975929</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">360-F5</f>
-        <v>359.643040643024</v>
+        <v>360</v>
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">IF(ABS(D5)&lt;10,ABS(D5),"")</f>
-        <v>0.162818046197003</v>
+        <v>0.500467306433961</v>
       </c>
       <c r="I5" s="7" t="n">
         <f aca="false">IF(ABS(E5)&lt;10,ABS(E5),"")</f>
-        <v>0.0445129719678974</v>
+        <v>0.045461811213201</v>
       </c>
       <c r="J5" s="10" t="n">
         <f aca="false">ABS(MIN(F5:G5))</f>
-        <v>0.356959356975929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>860.264964674128</v>
+        <v>860.485849806767</v>
       </c>
       <c r="B6" s="12" t="n">
-        <v>60.0667897525155</v>
+        <v>59.9500231826014</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.676476308684987</v>
+        <v>359.993775287116</v>
       </c>
       <c r="D6" s="7" t="n">
         <f aca="false">A6-L$2</f>
-        <v>0.264964674128009</v>
+        <v>0.485849806766964</v>
       </c>
       <c r="E6" s="7" t="n">
         <f aca="false">B6-M$2</f>
-        <v>0.066789752515497</v>
+        <v>-0.0499768173986013</v>
       </c>
       <c r="F6" s="7" t="n">
         <f aca="false">C6-N$2</f>
-        <v>0.676476308684987</v>
+        <v>359.993775287116</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">360-F6</f>
-        <v>359.323523691315</v>
+        <v>0.00622471288397719</v>
       </c>
       <c r="H6" s="14" t="n">
         <f aca="false">IF(ABS(D6)&lt;10,ABS(D6),"")</f>
-        <v>0.264964674128009</v>
+        <v>0.485849806766964</v>
       </c>
       <c r="I6" s="7" t="n">
         <f aca="false">IF(ABS(E6)&lt;10,ABS(E6),"")</f>
-        <v>0.066789752515497</v>
+        <v>0.0499768173986013</v>
       </c>
       <c r="J6" s="10" t="n">
         <f aca="false">ABS(MIN(F6:G6))</f>
-        <v>0.676476308684987</v>
+        <v>0.00622471288397719</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>860.450490964482</v>
+        <v>860.505399567993</v>
       </c>
       <c r="B7" s="12" t="n">
-        <v>60.2849270208929</v>
+        <v>59.9416317081617</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.36708279091515</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7" t="n">
         <f aca="false">A7-L$2</f>
-        <v>0.450490964482015</v>
+        <v>0.505399567992981</v>
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">B7-M$2</f>
-        <v>0.284927020892901</v>
+        <v>-0.0583682918382991</v>
       </c>
       <c r="F7" s="7" t="n">
         <f aca="false">C7-N$2</f>
-        <v>0.36708279091515</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">360-F7</f>
-        <v>359.632917209085</v>
+        <v>360</v>
       </c>
       <c r="H7" s="14" t="n">
         <f aca="false">IF(ABS(D7)&lt;10,ABS(D7),"")</f>
-        <v>0.450490964482015</v>
+        <v>0.505399567992981</v>
       </c>
       <c r="I7" s="7" t="n">
         <f aca="false">IF(ABS(E7)&lt;10,ABS(E7),"")</f>
-        <v>0.284927020892901</v>
+        <v>0.0583682918382991</v>
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">ABS(MIN(F7:G7))</f>
-        <v>0.36708279091515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>860.21689218549</v>
+        <v>860.435677353332</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>60.0790577488487</v>
+        <v>60.0174053094532</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.773498978389923</v>
+        <v>360</v>
       </c>
       <c r="D8" s="7" t="n">
         <f aca="false">A8-L$2</f>
-        <v>0.216892185489996</v>
+        <v>0.435677353332039</v>
       </c>
       <c r="E8" s="7" t="n">
         <f aca="false">B8-M$2</f>
-        <v>0.0790577488486974</v>
+        <v>0.0174053094532027</v>
       </c>
       <c r="F8" s="7" t="n">
         <f aca="false">C8-N$2</f>
-        <v>0.773498978389923</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">360-F8</f>
-        <v>359.22650102161</v>
+        <v>0</v>
       </c>
       <c r="H8" s="14" t="n">
         <f aca="false">IF(ABS(D8)&lt;10,ABS(D8),"")</f>
-        <v>0.216892185489996</v>
+        <v>0.435677353332039</v>
       </c>
       <c r="I8" s="7" t="n">
         <f aca="false">IF(ABS(E8)&lt;10,ABS(E8),"")</f>
-        <v>0.0790577488486974</v>
+        <v>0.0174053094532027</v>
       </c>
       <c r="J8" s="10" t="n">
         <f aca="false">ABS(MIN(F8:G8))</f>
-        <v>0.773498978389923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>859.790998766203</v>
+        <v>860.24604850651</v>
       </c>
       <c r="B9" s="12" t="n">
-        <v>60.0632975775129</v>
+        <v>60.4628426111265</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.293648415300231</v>
+        <v>359.739556664407</v>
       </c>
       <c r="D9" s="7" t="n">
         <f aca="false">A9-L$2</f>
-        <v>-0.209001233797039</v>
+        <v>0.246048506509965</v>
       </c>
       <c r="E9" s="7" t="n">
         <f aca="false">B9-M$2</f>
-        <v>0.0632975775128983</v>
+        <v>0.462842611126497</v>
       </c>
       <c r="F9" s="7" t="n">
         <f aca="false">C9-N$2</f>
-        <v>0.293648415300231</v>
+        <v>359.739556664407</v>
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">360-F9</f>
-        <v>359.7063515847</v>
+        <v>0.260443335592981</v>
       </c>
       <c r="H9" s="14" t="n">
         <f aca="false">IF(ABS(D9)&lt;10,ABS(D9),"")</f>
-        <v>0.209001233797039</v>
+        <v>0.246048506509965</v>
       </c>
       <c r="I9" s="7" t="n">
         <f aca="false">IF(ABS(E9)&lt;10,ABS(E9),"")</f>
-        <v>0.0632975775128983</v>
+        <v>0.462842611126497</v>
       </c>
       <c r="J9" s="10" t="n">
         <f aca="false">ABS(MIN(F9:G9))</f>
-        <v>0.293648415300231</v>
+        <v>0.260443335592981</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>860.729883744546</v>
+        <v>860.500118479474</v>
       </c>
       <c r="B10" s="12" t="n">
-        <v>59.9398097444641</v>
+        <v>60.0312772728742</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.903752977045241</v>
+        <v>360</v>
       </c>
       <c r="D10" s="7" t="n">
         <f aca="false">A10-L$2</f>
-        <v>0.729883744545987</v>
+        <v>0.500118479474054</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">B10-M$2</f>
-        <v>-0.0601902555359004</v>
+        <v>0.031277272874199</v>
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">C10-N$2</f>
-        <v>0.903752977045241</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">360-F10</f>
-        <v>359.096247022955</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
         <f aca="false">IF(ABS(D10)&lt;10,ABS(D10),"")</f>
-        <v>0.729883744545987</v>
+        <v>0.500118479474054</v>
       </c>
       <c r="I10" s="7" t="n">
         <f aca="false">IF(ABS(E10)&lt;10,ABS(E10),"")</f>
-        <v>0.0601902555359004</v>
+        <v>0.031277272874199</v>
       </c>
       <c r="J10" s="10" t="n">
         <f aca="false">ABS(MIN(F10:G10))</f>
-        <v>0.903752977045241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>860.086082265552</v>
+        <v>860.505006712702</v>
       </c>
       <c r="B11" s="12" t="n">
-        <v>60.2964336845626</v>
+        <v>60.0491532665777</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.256948066254472</v>
+        <v>360</v>
       </c>
       <c r="D11" s="7" t="n">
         <f aca="false">A11-L$2</f>
-        <v>0.0860822655520224</v>
+        <v>0.50500671270197</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">B11-M$2</f>
-        <v>0.296433684562601</v>
+        <v>0.0491532665776973</v>
       </c>
       <c r="F11" s="7" t="n">
         <f aca="false">C11-N$2</f>
-        <v>0.256948066254472</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">360-F11</f>
-        <v>359.743051933745</v>
+        <v>0</v>
       </c>
       <c r="H11" s="14" t="n">
         <f aca="false">IF(ABS(D11)&lt;10,ABS(D11),"")</f>
-        <v>0.0860822655520224</v>
+        <v>0.50500671270197</v>
       </c>
       <c r="I11" s="7" t="n">
         <f aca="false">IF(ABS(E11)&lt;10,ABS(E11),"")</f>
-        <v>0.296433684562601</v>
+        <v>0.0491532665776973</v>
       </c>
       <c r="J11" s="10" t="n">
         <f aca="false">ABS(MIN(F11:G11))</f>
-        <v>0.256948066254472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>860.214222414327</v>
+        <v>860.502352065216</v>
       </c>
       <c r="B12" s="12" t="n">
-        <v>60.1298891920694</v>
+        <v>60.0445491591665</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>0.400381643911087</v>
+        <v>360</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">A12-L$2</f>
-        <v>0.214222414326969</v>
+        <v>0.502352065215973</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">B12-M$2</f>
-        <v>0.129889192069399</v>
+        <v>0.0445491591665004</v>
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">C12-N$2</f>
-        <v>0.400381643911087</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">360-F12</f>
-        <v>359.599618356089</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14" t="n">
         <f aca="false">IF(ABS(D12)&lt;10,ABS(D12),"")</f>
-        <v>0.214222414326969</v>
+        <v>0.502352065215973</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">IF(ABS(E12)&lt;10,ABS(E12),"")</f>
-        <v>0.129889192069399</v>
+        <v>0.0445491591665004</v>
       </c>
       <c r="J12" s="10" t="n">
         <f aca="false">ABS(MIN(F12:G12))</f>
-        <v>0.400381643911087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>860.372915283464</v>
+        <v>860.549658772627</v>
       </c>
       <c r="B13" s="12" t="n">
-        <v>60.3101920089677</v>
+        <v>59.9677771228795</v>
       </c>
       <c r="C13" s="13" t="n">
-        <v>0.0104501840576995</v>
+        <v>1.01415957855252</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">A13-L$2</f>
-        <v>0.372915283463954</v>
+        <v>0.549658772627026</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">B13-M$2</f>
-        <v>0.310192008967697</v>
+        <v>-0.0322228771205033</v>
       </c>
       <c r="F13" s="7" t="n">
         <f aca="false">C13-N$2</f>
-        <v>0.0104501840576995</v>
+        <v>1.01415957855252</v>
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">360-F13</f>
-        <v>359.989549815942</v>
+        <v>358.985840421448</v>
       </c>
       <c r="H13" s="14" t="n">
         <f aca="false">IF(ABS(D13)&lt;10,ABS(D13),"")</f>
-        <v>0.372915283463954</v>
+        <v>0.549658772627026</v>
       </c>
       <c r="I13" s="7" t="n">
         <f aca="false">IF(ABS(E13)&lt;10,ABS(E13),"")</f>
-        <v>0.310192008967697</v>
+        <v>0.0322228771205033</v>
       </c>
       <c r="J13" s="10" t="n">
         <f aca="false">ABS(MIN(F13:G13))</f>
-        <v>0.0104501840576995</v>
+        <v>1.01415957855252</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>860.562820820926</v>
+        <v>860.501537382727</v>
       </c>
       <c r="B14" s="12" t="n">
-        <v>59.9393315019308</v>
+        <v>59.9483487936</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>0.547553846750418</v>
+        <v>360</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">A14-L$2</f>
-        <v>0.562820820926049</v>
+        <v>0.501537382726951</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">B14-M$2</f>
-        <v>-0.0606684980691981</v>
+        <v>-0.0516512064000025</v>
       </c>
       <c r="F14" s="7" t="n">
         <f aca="false">C14-N$2</f>
-        <v>0.547553846750418</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">360-F14</f>
-        <v>359.45244615325</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14" t="n">
         <f aca="false">IF(ABS(D14)&lt;10,ABS(D14),"")</f>
-        <v>0.562820820926049</v>
+        <v>0.501537382726951</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">IF(ABS(E14)&lt;10,ABS(E14),"")</f>
-        <v>0.0606684980691981</v>
+        <v>0.0516512064000025</v>
       </c>
       <c r="J14" s="10" t="n">
         <f aca="false">ABS(MIN(F14:G14))</f>
-        <v>0.547553846750418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>860.185109366198</v>
+        <v>860.504414768283</v>
       </c>
       <c r="B15" s="12" t="n">
-        <v>60.223561243491</v>
+        <v>59.9455385548766</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>0.477604286987207</v>
+        <v>360</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">A15-L$2</f>
-        <v>0.185109366198049</v>
+        <v>0.504414768283027</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">B15-M$2</f>
-        <v>0.223561243490998</v>
+        <v>-0.0544614451234011</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">C15-N$2</f>
-        <v>0.477604286987207</v>
+        <v>360</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">360-F15</f>
-        <v>359.522395713013</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14" t="n">
         <f aca="false">IF(ABS(D15)&lt;10,ABS(D15),"")</f>
-        <v>0.185109366198049</v>
+        <v>0.504414768283027</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">IF(ABS(E15)&lt;10,ABS(E15),"")</f>
-        <v>0.223561243490998</v>
+        <v>0.0544614451234011</v>
       </c>
       <c r="J15" s="10" t="n">
         <f aca="false">ABS(MIN(F15:G15))</f>
-        <v>0.477604286987207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>860.137524221151</v>
+        <v>860.446033973591</v>
       </c>
       <c r="B16" s="12" t="n">
-        <v>60.1853025204019</v>
+        <v>59.9126084828278</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>0.114620959004715</v>
+        <v>360</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">A16-L$2</f>
-        <v>0.137524221151011</v>
+        <v>0.446033973591057</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">B16-M$2</f>
-        <v>0.185302520401898</v>
+        <v>-0.0873915171722004</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">C16-N$2</f>
-        <v>0.114620959004715</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">360-F16</f>
-        <v>359.885379040995</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14" t="n">
         <f aca="false">IF(ABS(D16)&lt;10,ABS(D16),"")</f>
-        <v>0.137524221151011</v>
+        <v>0.446033973591057</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">IF(ABS(E16)&lt;10,ABS(E16),"")</f>
-        <v>0.185302520401898</v>
+        <v>0.0873915171722004</v>
       </c>
       <c r="J16" s="10" t="n">
         <f aca="false">ABS(MIN(F16:G16))</f>
-        <v>0.114620959004715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>860.125148226319</v>
+        <v>860.500245544154</v>
       </c>
       <c r="B17" s="12" t="n">
-        <v>60.256418610167</v>
+        <v>59.9108561613927</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>0.404466486851288</v>
+        <v>360</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">A17-L$2</f>
-        <v>0.12514822631897</v>
+        <v>0.500245544154041</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">B17-M$2</f>
-        <v>0.256418610167003</v>
+        <v>-0.0891438386072991</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">C17-N$2</f>
-        <v>0.404466486851288</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">360-F17</f>
-        <v>359.595533513149</v>
+        <v>0</v>
       </c>
       <c r="H17" s="14" t="n">
         <f aca="false">IF(ABS(D17)&lt;10,ABS(D17),"")</f>
-        <v>0.12514822631897</v>
+        <v>0.500245544154041</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">IF(ABS(E17)&lt;10,ABS(E17),"")</f>
-        <v>0.256418610167003</v>
+        <v>0.0891438386072991</v>
       </c>
       <c r="J17" s="10" t="n">
         <v>0</v>
@@ -11796,37 +11792,37 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>860.463699952292</v>
+        <v>860.505569954643</v>
       </c>
       <c r="B18" s="12" t="n">
-        <v>60.1644461240481</v>
+        <v>60.0432753283799</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>0.710208419231172</v>
+        <v>360</v>
       </c>
       <c r="D18" s="7" t="n">
         <f aca="false">A18-L$2</f>
-        <v>0.463699952292018</v>
+        <v>0.505569954642965</v>
       </c>
       <c r="E18" s="7" t="n">
         <f aca="false">B18-M$2</f>
-        <v>0.164446124048098</v>
+        <v>0.0432753283798988</v>
       </c>
       <c r="F18" s="7" t="n">
         <f aca="false">C18-N$2</f>
-        <v>0.710208419231172</v>
+        <v>360</v>
       </c>
       <c r="G18" s="7" t="n">
         <f aca="false">360-F18</f>
-        <v>359.289791580769</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14" t="n">
         <f aca="false">IF(ABS(D18)&lt;10,ABS(D18),"")</f>
-        <v>0.463699952292018</v>
+        <v>0.505569954642965</v>
       </c>
       <c r="I18" s="7" t="n">
         <f aca="false">IF(ABS(E18)&lt;10,ABS(E18),"")</f>
-        <v>0.164446124048098</v>
+        <v>0.0432753283798988</v>
       </c>
       <c r="J18" s="10" t="n">
         <v>0</v>
@@ -11834,119 +11830,119 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>860.153617640724</v>
+        <v>860.50314799917</v>
       </c>
       <c r="B19" s="12" t="n">
-        <v>59.8079411778567</v>
+        <v>60.0430354502535</v>
       </c>
       <c r="C19" s="13" t="n">
-        <v>0.845390586417489</v>
+        <v>360</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">A19-L$2</f>
-        <v>0.153617640723951</v>
+        <v>0.503147999169983</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">B19-M$2</f>
-        <v>-0.192058822143302</v>
+        <v>0.0430354502534982</v>
       </c>
       <c r="F19" s="7" t="n">
         <f aca="false">C19-N$2</f>
-        <v>0.845390586417489</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">360-F19</f>
-        <v>359.154609413583</v>
+        <v>0</v>
       </c>
       <c r="H19" s="14" t="n">
         <f aca="false">IF(ABS(D19)&lt;10,ABS(D19),"")</f>
-        <v>0.153617640723951</v>
+        <v>0.503147999169983</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">IF(ABS(E19)&lt;10,ABS(E19),"")</f>
-        <v>0.192058822143302</v>
+        <v>0.0430354502534982</v>
       </c>
       <c r="J19" s="10" t="n">
         <f aca="false">ABS(MIN(F19:G19))</f>
-        <v>0.845390586417489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>860.074815414292</v>
+        <v>860.505012520683</v>
       </c>
       <c r="B20" s="12" t="n">
-        <v>60.1236212677276</v>
+        <v>59.9445362577913</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>0.179903976191418</v>
+        <v>360</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">A20-L$2</f>
-        <v>0.0748154142919475</v>
+        <v>0.505012520682953</v>
       </c>
       <c r="E20" s="7" t="n">
         <f aca="false">B20-M$2</f>
-        <v>0.1236212677276</v>
+        <v>-0.0554637422087012</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">C20-N$2</f>
-        <v>0.179903976191418</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">360-F20</f>
-        <v>359.820096023809</v>
+        <v>0</v>
       </c>
       <c r="H20" s="14" t="n">
         <f aca="false">IF(ABS(D20)&lt;10,ABS(D20),"")</f>
-        <v>0.0748154142919475</v>
+        <v>0.505012520682953</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">IF(ABS(E20)&lt;10,ABS(E20),"")</f>
-        <v>0.1236212677276</v>
+        <v>0.0554637422087012</v>
       </c>
       <c r="J20" s="10" t="n">
         <f aca="false">ABS(MIN(F20:G20))</f>
-        <v>0.179903976191418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>860.463993196405</v>
+        <v>860.505310749114</v>
       </c>
       <c r="B21" s="12" t="n">
-        <v>59.3168194351087</v>
+        <v>60.0446029658027</v>
       </c>
       <c r="C21" s="13" t="n">
-        <v>1.5754413194611</v>
+        <v>360</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">A21-L$2</f>
-        <v>0.463993196404999</v>
+        <v>0.50531074911396</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">B21-M$2</f>
-        <v>-0.683180564891302</v>
+        <v>0.044602965802703</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">C21-N$2</f>
-        <v>1.5754413194611</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">360-F21</f>
-        <v>358.424558680539</v>
+        <v>0</v>
       </c>
       <c r="H21" s="14" t="n">
         <f aca="false">IF(ABS(D21)&lt;10,ABS(D21),"")</f>
-        <v>0.463993196404999</v>
+        <v>0.50531074911396</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">IF(ABS(E21)&lt;10,ABS(E21),"")</f>
-        <v>0.683180564891302</v>
+        <v>0.044602965802703</v>
       </c>
       <c r="J21" s="10" t="n">
         <f aca="false">ABS(MIN(F21:G21))</f>
-        <v>1.5754413194611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12263,15 +12259,15 @@
       </c>
       <c r="H52" s="22" t="n">
         <f aca="false">AVERAGEIF(H2:H51,"&lt;10")</f>
-        <v>0.28683284879985</v>
+        <v>0.459694728691642</v>
       </c>
       <c r="I52" s="22" t="n">
         <f aca="false">AVERAGEIF(I2:I21,"&lt;10")</f>
-        <v>0.193587541164165</v>
+        <v>0.0683154844480505</v>
       </c>
       <c r="J52" s="22" t="n">
         <f aca="false">AVERAGEIF(J2:J21,"&lt;10")</f>
-        <v>0.442314521150502</v>
+        <v>0.0765031493159019</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12281,15 +12277,15 @@
       </c>
       <c r="H53" s="24" t="n">
         <f aca="false">STDEV(H2:H21)</f>
-        <v>0.186943330271923</v>
+        <v>0.117468967532143</v>
       </c>
       <c r="I53" s="24" t="n">
         <f aca="false">STDEV(I2:I21)</f>
-        <v>0.151322646315174</v>
+        <v>0.0946274126834402</v>
       </c>
       <c r="J53" s="24" t="n">
         <f aca="false">STDEV(J2:J21)</f>
-        <v>0.376683501938152</v>
+        <v>0.234122410187692</v>
       </c>
     </row>
   </sheetData>
@@ -12319,10 +12315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19864,10 +19860,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27270,10 +27266,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34682,10 +34678,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42079,14 +42075,13 @@
   </sheetPr>
   <dimension ref="A2:R89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O52" activeCellId="0" sqref="O52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O48" activeCellId="0" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -43652,32 +43647,46 @@
       <c r="D45" s="52" t="n">
         <v>300</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="51" t="n">
+        <v>0.105037508020473</v>
+      </c>
       <c r="F45" s="51" t="n">
         <f aca="false">E45*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+        <v>1.27095384704772</v>
+      </c>
+      <c r="G45" s="51" t="n">
+        <v>0.112278891635768</v>
+      </c>
+      <c r="H45" s="51" t="n">
+        <v>0.26233336575425</v>
+      </c>
       <c r="I45" s="51" t="n">
         <f aca="false">H45*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="85"/>
+        <v>3.17423372562642</v>
+      </c>
+      <c r="J45" s="51" t="n">
+        <v>0.161599395843868</v>
+      </c>
+      <c r="K45" s="84" t="n">
+        <v>0.107507686869595</v>
+      </c>
+      <c r="L45" s="85" t="n">
+        <v>0.20710824200252</v>
+      </c>
       <c r="M45" s="63" t="n">
         <f aca="false">SQRT(F45^2+I45^2)</f>
-        <v>0</v>
+        <v>3.41922263478552</v>
       </c>
       <c r="N45" s="64" t="n">
         <f aca="false">SQRT(G45^2+J45^2)*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="86"/>
+        <v>2.38099329156401</v>
+      </c>
+      <c r="O45" s="86" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" s="83" t="n">
         <f aca="false">(20-O45)/20*100</f>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43693,32 +43702,46 @@
       <c r="D46" s="52" t="n">
         <v>300</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="51" t="n">
+        <v>0.380788532360848</v>
+      </c>
       <c r="F46" s="51" t="n">
         <f aca="false">E46*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+        <v>4.60754124156626</v>
+      </c>
+      <c r="G46" s="51" t="n">
+        <v>0.222450177250782</v>
+      </c>
+      <c r="H46" s="51" t="n">
+        <v>0.35652602143742</v>
+      </c>
       <c r="I46" s="51" t="n">
         <f aca="false">H46*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
+        <v>4.31396485939278</v>
+      </c>
+      <c r="J46" s="51" t="n">
+        <v>0.22369603956915</v>
+      </c>
+      <c r="K46" s="84" t="n">
+        <v>0.702836238773992</v>
+      </c>
+      <c r="L46" s="85" t="n">
+        <v>0.546507057079474</v>
+      </c>
       <c r="M46" s="63" t="n">
         <f aca="false">SQRT(F46^2+I46^2)</f>
-        <v>0</v>
+        <v>6.31187207576402</v>
       </c>
       <c r="N46" s="64" t="n">
         <f aca="false">SQRT(G46^2+J46^2)*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="86"/>
+        <v>3.81723836870959</v>
+      </c>
+      <c r="O46" s="86" t="n">
+        <v>6</v>
+      </c>
       <c r="P46" s="83" t="n">
         <f aca="false">(20-O46)/20*100</f>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43734,32 +43757,46 @@
       <c r="D47" s="52" t="n">
         <v>300</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="51" t="n">
+        <v>0.459694728691642</v>
+      </c>
       <c r="F47" s="51" t="n">
         <f aca="false">E47*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+        <v>5.56230621716887</v>
+      </c>
+      <c r="G47" s="51" t="n">
+        <v>0.117468967532143</v>
+      </c>
+      <c r="H47" s="51" t="n">
+        <v>0.0683154844480505</v>
+      </c>
       <c r="I47" s="51" t="n">
         <f aca="false">H47*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="51"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="85"/>
+        <v>0.826617361821411</v>
+      </c>
+      <c r="J47" s="51" t="n">
+        <v>0.0946274126834402</v>
+      </c>
+      <c r="K47" s="84" t="n">
+        <v>0.0765031493159019</v>
+      </c>
+      <c r="L47" s="85" t="n">
+        <v>0.234122410187692</v>
+      </c>
       <c r="M47" s="63" t="n">
         <f aca="false">SQRT(F47^2+I47^2)</f>
-        <v>0</v>
+        <v>5.62339281185478</v>
       </c>
       <c r="N47" s="64" t="n">
         <f aca="false">SQRT(G47^2+J47^2)*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="86"/>
+        <v>1.82518806364135</v>
+      </c>
+      <c r="O47" s="86" t="n">
+        <v>1</v>
+      </c>
       <c r="P47" s="83" t="n">
         <f aca="false">(20-O47)/20*100</f>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43844,8 +43881,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
         <v>66</v>
@@ -45339,19 +45374,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46237,376 +46272,376 @@
         <v>100</v>
       </c>
       <c r="O23" s="110"/>
-      <c r="P23" s="136"/>
+      <c r="P23" s="110"/>
       <c r="Q23" s="112"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="137" t="n">
+      <c r="A24" s="136" t="n">
         <v>0.01</v>
       </c>
       <c r="B24" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="138" t="s">
         <v>135</v>
       </c>
       <c r="E24" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F24" s="140" t="s">
+      <c r="F24" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="G24" s="139" t="s">
+      <c r="G24" s="138" t="s">
         <v>220</v>
       </c>
       <c r="H24" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I24" s="140" t="s">
+      <c r="I24" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="J24" s="139" t="s">
+      <c r="J24" s="138" t="s">
         <v>222</v>
       </c>
       <c r="K24" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="140" t="s">
+      <c r="L24" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="M24" s="139" t="s">
+      <c r="M24" s="138" t="s">
         <v>145</v>
       </c>
       <c r="N24" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O24" s="115"/>
-      <c r="P24" s="141"/>
+      <c r="P24" s="140"/>
       <c r="Q24" s="117"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="137" t="n">
+      <c r="A25" s="136" t="n">
         <v>0.02</v>
       </c>
       <c r="B25" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="138" t="s">
         <v>225</v>
       </c>
       <c r="E25" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="139" t="s">
+      <c r="G25" s="138" t="s">
         <v>227</v>
       </c>
       <c r="H25" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I25" s="140" t="s">
+      <c r="I25" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="139" t="s">
+      <c r="J25" s="138" t="s">
         <v>118</v>
       </c>
       <c r="K25" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L25" s="140" t="s">
+      <c r="L25" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="M25" s="139" t="s">
+      <c r="M25" s="138" t="s">
         <v>230</v>
       </c>
       <c r="N25" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O25" s="115"/>
-      <c r="P25" s="141"/>
+      <c r="P25" s="140"/>
       <c r="Q25" s="117"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="137" t="n">
+      <c r="A26" s="136" t="n">
         <v>0.03</v>
       </c>
       <c r="B26" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C26" s="138" t="s">
+      <c r="C26" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="138" t="s">
         <v>232</v>
       </c>
       <c r="E26" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="138" t="s">
         <v>234</v>
       </c>
       <c r="H26" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I26" s="140" t="s">
+      <c r="I26" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="J26" s="139" t="s">
+      <c r="J26" s="138" t="s">
         <v>236</v>
       </c>
       <c r="K26" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L26" s="140" t="s">
+      <c r="L26" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="M26" s="139" t="s">
+      <c r="M26" s="138" t="s">
         <v>238</v>
       </c>
       <c r="N26" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O26" s="115"/>
-      <c r="P26" s="141"/>
+      <c r="P26" s="140"/>
       <c r="Q26" s="117"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="137" t="n">
+      <c r="A27" s="136" t="n">
         <v>0.04</v>
       </c>
       <c r="B27" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="137" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="138" t="s">
         <v>240</v>
       </c>
       <c r="E27" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="G27" s="138" t="s">
         <v>242</v>
       </c>
       <c r="H27" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I27" s="140" t="s">
+      <c r="I27" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="139" t="s">
+      <c r="J27" s="138" t="s">
         <v>244</v>
       </c>
       <c r="K27" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L27" s="140" t="s">
+      <c r="L27" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="M27" s="139" t="s">
+      <c r="M27" s="138" t="s">
         <v>246</v>
       </c>
       <c r="N27" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O27" s="115"/>
-      <c r="P27" s="141"/>
+      <c r="P27" s="140"/>
       <c r="Q27" s="117"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="137" t="n">
+      <c r="A28" s="136" t="n">
         <v>0.05</v>
       </c>
       <c r="B28" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="138" t="s">
         <v>248</v>
       </c>
       <c r="E28" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F28" s="140" t="s">
+      <c r="F28" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="138" t="s">
         <v>250</v>
       </c>
       <c r="H28" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I28" s="140" t="s">
+      <c r="I28" s="139" t="s">
         <v>251</v>
       </c>
-      <c r="J28" s="139" t="s">
+      <c r="J28" s="138" t="s">
         <v>252</v>
       </c>
       <c r="K28" s="113" t="n">
         <v>95</v>
       </c>
-      <c r="L28" s="140" t="s">
+      <c r="L28" s="139" t="s">
         <v>253</v>
       </c>
-      <c r="M28" s="139" t="s">
+      <c r="M28" s="138" t="s">
         <v>254</v>
       </c>
       <c r="N28" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O28" s="115"/>
-      <c r="P28" s="141"/>
+      <c r="P28" s="140"/>
       <c r="Q28" s="117"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="137" t="n">
+      <c r="A29" s="136" t="n">
         <v>0.06</v>
       </c>
       <c r="B29" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="138" t="s">
         <v>256</v>
       </c>
       <c r="E29" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F29" s="140" t="s">
+      <c r="F29" s="139" t="s">
         <v>257</v>
       </c>
-      <c r="G29" s="139" t="s">
+      <c r="G29" s="138" t="s">
         <v>258</v>
       </c>
       <c r="H29" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I29" s="140" t="s">
+      <c r="I29" s="139" t="s">
         <v>259</v>
       </c>
-      <c r="J29" s="139" t="s">
+      <c r="J29" s="138" t="s">
         <v>260</v>
       </c>
       <c r="K29" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L29" s="140" t="s">
+      <c r="L29" s="139" t="s">
         <v>261</v>
       </c>
-      <c r="M29" s="139" t="s">
+      <c r="M29" s="138" t="s">
         <v>262</v>
       </c>
       <c r="N29" s="113" t="n">
         <v>100</v>
       </c>
       <c r="O29" s="115"/>
-      <c r="P29" s="141"/>
+      <c r="P29" s="140"/>
       <c r="Q29" s="117"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="137" t="n">
+      <c r="A30" s="136" t="n">
         <v>0.07</v>
       </c>
       <c r="B30" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="138" t="s">
         <v>264</v>
       </c>
       <c r="E30" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F30" s="140" t="s">
+      <c r="F30" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="138" t="s">
         <v>266</v>
       </c>
       <c r="H30" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I30" s="140" t="s">
+      <c r="I30" s="139" t="s">
         <v>267</v>
       </c>
-      <c r="J30" s="139" t="s">
+      <c r="J30" s="138" t="s">
         <v>268</v>
       </c>
       <c r="K30" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="140" t="s">
+      <c r="L30" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="M30" s="139" t="s">
+      <c r="M30" s="138" t="s">
         <v>270</v>
       </c>
       <c r="N30" s="113" t="n">
         <v>95</v>
       </c>
       <c r="O30" s="115"/>
-      <c r="P30" s="141"/>
+      <c r="P30" s="140"/>
       <c r="Q30" s="117"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="137" t="n">
+      <c r="A31" s="136" t="n">
         <v>0.08</v>
       </c>
       <c r="B31" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="138" t="s">
         <v>272</v>
       </c>
       <c r="E31" s="113" t="n">
         <v>95</v>
       </c>
-      <c r="F31" s="140" t="s">
+      <c r="F31" s="139" t="s">
         <v>273</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="138" t="s">
         <v>274</v>
       </c>
       <c r="H31" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I31" s="140" t="s">
+      <c r="I31" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="139" t="s">
+      <c r="J31" s="138" t="s">
         <v>276</v>
       </c>
       <c r="K31" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="140" t="s">
+      <c r="L31" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="M31" s="139" t="s">
+      <c r="M31" s="138" t="s">
         <v>278</v>
       </c>
       <c r="N31" s="113" t="n">
@@ -46614,46 +46649,46 @@
       </c>
       <c r="O31" s="119"/>
       <c r="P31" s="119"/>
-      <c r="Q31" s="142"/>
+      <c r="Q31" s="141"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="137" t="n">
+      <c r="A32" s="136" t="n">
         <v>0.09</v>
       </c>
       <c r="B32" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="138" t="s">
         <v>280</v>
       </c>
       <c r="E32" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F32" s="140" t="s">
+      <c r="F32" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="138" t="s">
         <v>282</v>
       </c>
       <c r="H32" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I32" s="140" t="s">
+      <c r="I32" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="J32" s="139" t="s">
+      <c r="J32" s="138" t="s">
         <v>284</v>
       </c>
       <c r="K32" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="140" t="s">
+      <c r="L32" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="M32" s="139" t="s">
+      <c r="M32" s="138" t="s">
         <v>286</v>
       </c>
       <c r="N32" s="113" t="n">
@@ -46664,46 +46699,46 @@
       <c r="Q32" s="115"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="143" t="n">
+      <c r="A33" s="142" t="n">
         <v>0.1</v>
       </c>
-      <c r="B33" s="144" t="n">
+      <c r="B33" s="143" t="n">
         <v>250</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="144" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="146" t="s">
+      <c r="D33" s="145" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="144" t="n">
+      <c r="E33" s="143" t="n">
         <v>95</v>
       </c>
-      <c r="F33" s="147" t="s">
+      <c r="F33" s="146" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="146" t="s">
+      <c r="G33" s="145" t="s">
         <v>290</v>
       </c>
-      <c r="H33" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" s="147" t="s">
+      <c r="H33" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" s="146" t="s">
         <v>291</v>
       </c>
-      <c r="J33" s="146" t="s">
+      <c r="J33" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="K33" s="144" t="n">
+      <c r="K33" s="143" t="n">
         <v>95</v>
       </c>
-      <c r="L33" s="147" t="s">
+      <c r="L33" s="146" t="s">
         <v>292</v>
       </c>
-      <c r="M33" s="146" t="s">
+      <c r="M33" s="145" t="s">
         <v>293</v>
       </c>
-      <c r="N33" s="144" t="n">
+      <c r="N33" s="143" t="n">
         <v>100</v>
       </c>
       <c r="O33" s="125"/>
@@ -46725,9 +46760,9 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="148"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
@@ -46744,9 +46779,9 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="148"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="147"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
@@ -46763,12 +46798,12 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="148" t="s">
         <v>294</v>
       </c>
       <c r="B37" s="7"/>
@@ -46878,1386 +46913,1386 @@
       <c r="A40" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="B40" s="150" t="n">
+      <c r="B40" s="149" t="n">
         <v>250</v>
       </c>
-      <c r="C40" s="151" t="n">
+      <c r="C40" s="150" t="n">
         <v>1.24123177607033</v>
       </c>
-      <c r="D40" s="152" t="n">
+      <c r="D40" s="151" t="n">
         <v>0.0535009367583268</v>
       </c>
       <c r="E40" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="153" t="n">
+      <c r="F40" s="152" t="n">
         <v>2.53190399120335</v>
       </c>
-      <c r="G40" s="152" t="n">
+      <c r="G40" s="151" t="n">
         <v>0.0942752216929466</v>
       </c>
       <c r="H40" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="I40" s="153" t="n">
+      <c r="I40" s="152" t="n">
         <v>2.27873349876921</v>
       </c>
-      <c r="J40" s="152" t="n">
+      <c r="J40" s="151" t="n">
         <v>0.066968456301485</v>
       </c>
       <c r="K40" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="153" t="n">
+      <c r="L40" s="152" t="n">
         <v>1.11512230132965</v>
       </c>
-      <c r="M40" s="152" t="n">
+      <c r="M40" s="151" t="n">
         <v>0.0721653086721205</v>
       </c>
       <c r="N40" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="O40" s="153"/>
-      <c r="P40" s="152"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="151"/>
       <c r="Q40" s="108"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="137" t="n">
+      <c r="A41" s="136" t="n">
         <v>0.02</v>
       </c>
       <c r="B41" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C41" s="154" t="n">
+      <c r="C41" s="153" t="n">
         <v>0.856652176787023</v>
       </c>
-      <c r="D41" s="155" t="n">
+      <c r="D41" s="154" t="n">
         <v>0.0543682388045821</v>
       </c>
       <c r="E41" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F41" s="156" t="n">
+      <c r="F41" s="155" t="n">
         <v>1.46793166018096</v>
       </c>
-      <c r="G41" s="155" t="n">
+      <c r="G41" s="154" t="n">
         <v>0.0799345073993422</v>
       </c>
       <c r="H41" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I41" s="156" t="n">
+      <c r="I41" s="155" t="n">
         <v>1.62069230415307</v>
       </c>
-      <c r="J41" s="155" t="n">
+      <c r="J41" s="154" t="n">
         <v>0.0115758996992747</v>
       </c>
       <c r="K41" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L41" s="156" t="n">
+      <c r="L41" s="155" t="n">
         <v>0.776069784246827</v>
       </c>
-      <c r="M41" s="155" t="n">
+      <c r="M41" s="154" t="n">
         <v>0.0617675724082488</v>
       </c>
       <c r="N41" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O41" s="156"/>
-      <c r="P41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="154"/>
       <c r="Q41" s="113"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="137" t="n">
+      <c r="A42" s="136" t="n">
         <v>0.04</v>
       </c>
       <c r="B42" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C42" s="154" t="n">
+      <c r="C42" s="153" t="n">
         <v>1.17424976206636</v>
       </c>
-      <c r="D42" s="155" t="n">
+      <c r="D42" s="154" t="n">
         <v>0.0360055027171118</v>
       </c>
       <c r="E42" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F42" s="156" t="n">
+      <c r="F42" s="155" t="n">
         <v>2.26563955770745</v>
       </c>
-      <c r="G42" s="155" t="n">
+      <c r="G42" s="154" t="n">
         <v>0.113257736336577</v>
       </c>
       <c r="H42" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I42" s="156" t="n">
+      <c r="I42" s="155" t="n">
         <v>0.750915141380986</v>
       </c>
-      <c r="J42" s="155" t="n">
+      <c r="J42" s="154" t="n">
         <v>0.0328673757367614</v>
       </c>
       <c r="K42" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L42" s="156" t="n">
+      <c r="L42" s="155" t="n">
         <v>1.32235232508236</v>
       </c>
-      <c r="M42" s="155" t="n">
+      <c r="M42" s="154" t="n">
         <v>0.0831048494886517</v>
       </c>
       <c r="N42" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O42" s="156"/>
-      <c r="P42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="154"/>
       <c r="Q42" s="113"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="137" t="n">
+      <c r="A43" s="136" t="n">
         <v>0.06</v>
       </c>
       <c r="B43" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C43" s="154" t="n">
+      <c r="C43" s="153" t="n">
         <v>0.93270442674063</v>
       </c>
-      <c r="D43" s="155" t="n">
+      <c r="D43" s="154" t="n">
         <v>0.035860804347073</v>
       </c>
       <c r="E43" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F43" s="156" t="n">
+      <c r="F43" s="155" t="n">
         <v>1.75926614355051</v>
       </c>
-      <c r="G43" s="155" t="n">
+      <c r="G43" s="154" t="n">
         <v>0.0562489648553272</v>
       </c>
       <c r="H43" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I43" s="156" t="n">
+      <c r="I43" s="155" t="n">
         <v>1.07308651887224</v>
       </c>
-      <c r="J43" s="155" t="n">
+      <c r="J43" s="154" t="n">
         <v>0.08883366408825</v>
       </c>
       <c r="K43" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L43" s="156" t="n">
+      <c r="L43" s="155" t="n">
         <v>0.883725487632032</v>
       </c>
-      <c r="M43" s="155" t="n">
+      <c r="M43" s="154" t="n">
         <v>0.0245859247140588</v>
       </c>
       <c r="N43" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O43" s="156"/>
-      <c r="P43" s="155"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="154"/>
       <c r="Q43" s="113"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="137" t="n">
+      <c r="A44" s="136" t="n">
         <v>0.08</v>
       </c>
       <c r="B44" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C44" s="154" t="n">
+      <c r="C44" s="153" t="n">
         <v>1.81296946460613</v>
       </c>
-      <c r="D44" s="155" t="n">
+      <c r="D44" s="154" t="n">
         <v>0.0747550014412042</v>
       </c>
       <c r="E44" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F44" s="156" t="n">
+      <c r="F44" s="155" t="n">
         <v>2.34233401144843</v>
       </c>
-      <c r="G44" s="155" t="n">
+      <c r="G44" s="154" t="n">
         <v>0.111879316235303</v>
       </c>
       <c r="H44" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I44" s="156" t="n">
+      <c r="I44" s="155" t="n">
         <v>1.60639487560812</v>
       </c>
-      <c r="J44" s="155" t="n">
+      <c r="J44" s="154" t="n">
         <v>0.0622642028444729</v>
       </c>
       <c r="K44" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="156" t="n">
+      <c r="L44" s="155" t="n">
         <v>1.32520073275787</v>
       </c>
-      <c r="M44" s="155" t="n">
+      <c r="M44" s="154" t="n">
         <v>0.0647630183937491</v>
       </c>
       <c r="N44" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O44" s="156"/>
-      <c r="P44" s="155"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="154"/>
       <c r="Q44" s="113"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="137" t="n">
+      <c r="A45" s="136" t="n">
         <v>0.1</v>
       </c>
       <c r="B45" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C45" s="154" t="n">
+      <c r="C45" s="153" t="n">
         <v>1.11030829246012</v>
       </c>
-      <c r="D45" s="155" t="n">
+      <c r="D45" s="154" t="n">
         <v>0.0358333318712027</v>
       </c>
       <c r="E45" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F45" s="156" t="n">
+      <c r="F45" s="155" t="n">
         <v>1.82729432880116</v>
       </c>
-      <c r="G45" s="155" t="n">
+      <c r="G45" s="154" t="n">
         <v>0.116950537985548</v>
       </c>
       <c r="H45" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I45" s="156" t="n">
+      <c r="I45" s="155" t="n">
         <v>1.47653500546341</v>
       </c>
-      <c r="J45" s="155" t="n">
+      <c r="J45" s="154" t="n">
         <v>0.0508587033492982</v>
       </c>
       <c r="K45" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="156" t="n">
+      <c r="L45" s="155" t="n">
         <v>2.3702470219032</v>
       </c>
-      <c r="M45" s="155" t="n">
+      <c r="M45" s="154" t="n">
         <v>0.113851871976836</v>
       </c>
       <c r="N45" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O45" s="156"/>
-      <c r="P45" s="155"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="154"/>
       <c r="Q45" s="113"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="137" t="n">
+      <c r="A46" s="136" t="n">
         <v>0.12</v>
       </c>
       <c r="B46" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C46" s="154" t="n">
+      <c r="C46" s="153" t="n">
         <v>1.05501732044857</v>
       </c>
-      <c r="D46" s="155" t="n">
+      <c r="D46" s="154" t="n">
         <v>0.0760988199849072</v>
       </c>
       <c r="E46" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F46" s="156" t="n">
+      <c r="F46" s="155" t="n">
         <v>4.16479134357359</v>
       </c>
-      <c r="G46" s="155" t="n">
+      <c r="G46" s="154" t="n">
         <v>0.0883387706876854</v>
       </c>
       <c r="H46" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I46" s="156" t="n">
+      <c r="I46" s="155" t="n">
         <v>3.49738182132822</v>
       </c>
-      <c r="J46" s="155" t="n">
+      <c r="J46" s="154" t="n">
         <v>0.101939666084544</v>
       </c>
       <c r="K46" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L46" s="156" t="n">
+      <c r="L46" s="155" t="n">
         <v>1.50631971867504</v>
       </c>
-      <c r="M46" s="155" t="n">
+      <c r="M46" s="154" t="n">
         <v>0.0786768862640218</v>
       </c>
       <c r="N46" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O46" s="156"/>
-      <c r="P46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="154"/>
       <c r="Q46" s="113"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="137" t="n">
+      <c r="A47" s="136" t="n">
         <v>0.14</v>
       </c>
       <c r="B47" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C47" s="154" t="n">
+      <c r="C47" s="153" t="n">
         <v>1.58547259216884</v>
       </c>
-      <c r="D47" s="155" t="n">
+      <c r="D47" s="154" t="n">
         <v>0.0618346861475849</v>
       </c>
       <c r="E47" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F47" s="156" t="n">
+      <c r="F47" s="155" t="n">
         <v>4.57469513615568</v>
       </c>
-      <c r="G47" s="155" t="n">
+      <c r="G47" s="154" t="n">
         <v>0.0171078661593009</v>
       </c>
       <c r="H47" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I47" s="156" t="n">
+      <c r="I47" s="155" t="n">
         <v>5.42132924959426</v>
       </c>
-      <c r="J47" s="155" t="n">
+      <c r="J47" s="154" t="n">
         <v>0.0199111262320516</v>
       </c>
       <c r="K47" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L47" s="156" t="n">
+      <c r="L47" s="155" t="n">
         <v>4.58541647613158</v>
       </c>
-      <c r="M47" s="155" t="n">
+      <c r="M47" s="154" t="n">
         <v>0.428990275307292</v>
       </c>
       <c r="N47" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O47" s="156"/>
-      <c r="P47" s="155"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="154"/>
       <c r="Q47" s="113"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="137" t="n">
+      <c r="A48" s="136" t="n">
         <v>0.16</v>
       </c>
       <c r="B48" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C48" s="154" t="n">
+      <c r="C48" s="153" t="n">
         <v>3.51815173141029</v>
       </c>
-      <c r="D48" s="155" t="n">
+      <c r="D48" s="154" t="n">
         <v>0.0681958738539493</v>
       </c>
       <c r="E48" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F48" s="156" t="n">
+      <c r="F48" s="155" t="n">
         <v>2.40059974635258</v>
       </c>
-      <c r="G48" s="155" t="n">
+      <c r="G48" s="154" t="n">
         <v>0.0843489753817011</v>
       </c>
       <c r="H48" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I48" s="156" t="n">
+      <c r="I48" s="155" t="n">
         <v>4.36308838657947</v>
       </c>
-      <c r="J48" s="155" t="n">
+      <c r="J48" s="154" t="n">
         <v>0.0233078346526077</v>
       </c>
       <c r="K48" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="156" t="n">
+      <c r="L48" s="155" t="n">
         <v>4.84584691113654</v>
       </c>
-      <c r="M48" s="155" t="n">
+      <c r="M48" s="154" t="n">
         <v>0.0297356002508996</v>
       </c>
       <c r="N48" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O48" s="156"/>
-      <c r="P48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="154"/>
       <c r="Q48" s="113"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="137" t="n">
+      <c r="A49" s="136" t="n">
         <v>0.18</v>
       </c>
       <c r="B49" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C49" s="154" t="n">
+      <c r="C49" s="153" t="n">
         <v>3.25690718134552</v>
       </c>
-      <c r="D49" s="155" t="n">
+      <c r="D49" s="154" t="n">
         <v>0.0335303871380601</v>
       </c>
       <c r="E49" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F49" s="156" t="n">
+      <c r="F49" s="155" t="n">
         <v>1.9093053679026</v>
       </c>
-      <c r="G49" s="155" t="n">
+      <c r="G49" s="154" t="n">
         <v>0.0707741481945423</v>
       </c>
       <c r="H49" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I49" s="156" t="n">
+      <c r="I49" s="155" t="n">
         <v>1.16580673418607</v>
       </c>
-      <c r="J49" s="155" t="n">
+      <c r="J49" s="154" t="n">
         <v>0.0493632155845474</v>
       </c>
       <c r="K49" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L49" s="156" t="n">
+      <c r="L49" s="155" t="n">
         <v>3.58591208929075</v>
       </c>
-      <c r="M49" s="155" t="n">
+      <c r="M49" s="154" t="n">
         <v>0.0563603122717524</v>
       </c>
       <c r="N49" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O49" s="156"/>
-      <c r="P49" s="155"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="154"/>
       <c r="Q49" s="113"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="137" t="n">
+      <c r="A50" s="136" t="n">
         <v>0.2</v>
       </c>
       <c r="B50" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C50" s="154" t="n">
+      <c r="C50" s="153" t="n">
         <v>2.05157490454503</v>
       </c>
-      <c r="D50" s="155" t="n">
+      <c r="D50" s="154" t="n">
         <v>0.0872017599105573</v>
       </c>
       <c r="E50" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F50" s="156" t="n">
+      <c r="F50" s="155" t="n">
         <v>3.91382692271633</v>
       </c>
-      <c r="G50" s="155" t="n">
+      <c r="G50" s="154" t="n">
         <v>0.134005609749752</v>
       </c>
       <c r="H50" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I50" s="156" t="n">
+      <c r="I50" s="155" t="n">
         <v>1.71599190562442</v>
       </c>
-      <c r="J50" s="155" t="n">
+      <c r="J50" s="154" t="n">
         <v>0.0965017987093518</v>
       </c>
       <c r="K50" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L50" s="156" t="n">
+      <c r="L50" s="155" t="n">
         <v>3.80374773278546</v>
       </c>
-      <c r="M50" s="155" t="n">
+      <c r="M50" s="154" t="n">
         <v>0.101303593463197</v>
       </c>
       <c r="N50" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O50" s="156"/>
-      <c r="P50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="154"/>
       <c r="Q50" s="113"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="137" t="n">
+      <c r="A51" s="136" t="n">
         <v>0.22</v>
       </c>
       <c r="B51" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C51" s="154" t="n">
+      <c r="C51" s="153" t="n">
         <v>2.26255816733792</v>
       </c>
-      <c r="D51" s="155" t="n">
+      <c r="D51" s="154" t="n">
         <v>0.054251946033592</v>
       </c>
       <c r="E51" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F51" s="156" t="n">
+      <c r="F51" s="155" t="n">
         <v>6.94969986644561</v>
       </c>
-      <c r="G51" s="155" t="n">
+      <c r="G51" s="154" t="n">
         <v>0.657502957672699</v>
       </c>
       <c r="H51" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I51" s="156" t="n">
+      <c r="I51" s="155" t="n">
         <v>4.49877565001806</v>
       </c>
-      <c r="J51" s="155" t="n">
+      <c r="J51" s="154" t="n">
         <v>0.0256911504250051</v>
       </c>
       <c r="K51" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L51" s="156" t="n">
+      <c r="L51" s="155" t="n">
         <v>3.77542421271286</v>
       </c>
-      <c r="M51" s="155" t="n">
+      <c r="M51" s="154" t="n">
         <v>0.361279283608579</v>
       </c>
       <c r="N51" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O51" s="156"/>
-      <c r="P51" s="155"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="154"/>
       <c r="Q51" s="113"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="137" t="n">
+      <c r="A52" s="136" t="n">
         <v>0.24</v>
       </c>
       <c r="B52" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C52" s="154" t="n">
+      <c r="C52" s="153" t="n">
         <v>5.00208490059608</v>
       </c>
-      <c r="D52" s="155" t="n">
+      <c r="D52" s="154" t="n">
         <v>0.0662707720914151</v>
       </c>
       <c r="E52" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F52" s="156" t="n">
+      <c r="F52" s="155" t="n">
         <v>3.36864430386503</v>
       </c>
-      <c r="G52" s="155" t="n">
+      <c r="G52" s="154" t="n">
         <v>0.0538048880150512</v>
       </c>
       <c r="H52" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I52" s="156" t="n">
+      <c r="I52" s="155" t="n">
         <v>4.24420453766104</v>
       </c>
-      <c r="J52" s="155" t="n">
+      <c r="J52" s="154" t="n">
         <v>0.139748307861043</v>
       </c>
       <c r="K52" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L52" s="156" t="n">
+      <c r="L52" s="155" t="n">
         <v>2.43545113236845</v>
       </c>
-      <c r="M52" s="155" t="n">
+      <c r="M52" s="154" t="n">
         <v>0.20407547541168</v>
       </c>
       <c r="N52" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O52" s="156"/>
-      <c r="P52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="154"/>
       <c r="Q52" s="113"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="137" t="n">
+      <c r="A53" s="136" t="n">
         <v>0.26</v>
       </c>
       <c r="B53" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C53" s="154" t="n">
+      <c r="C53" s="153" t="n">
         <v>5.03387702770846</v>
       </c>
-      <c r="D53" s="155" t="n">
+      <c r="D53" s="154" t="n">
         <v>0.0297612693479405</v>
       </c>
       <c r="E53" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F53" s="156" t="n">
+      <c r="F53" s="155" t="n">
         <v>3.24903218143474</v>
       </c>
-      <c r="G53" s="155" t="n">
+      <c r="G53" s="154" t="n">
         <v>0.0420071739415104</v>
       </c>
       <c r="H53" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I53" s="156" t="n">
+      <c r="I53" s="155" t="n">
         <v>2.7934310031529</v>
       </c>
-      <c r="J53" s="155" t="n">
+      <c r="J53" s="154" t="n">
         <v>0.0155720916422253</v>
       </c>
       <c r="K53" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L53" s="156" t="n">
+      <c r="L53" s="155" t="n">
         <v>3.14902966193861</v>
       </c>
-      <c r="M53" s="155" t="n">
+      <c r="M53" s="154" t="n">
         <v>0.0669748548762339</v>
       </c>
       <c r="N53" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O53" s="156"/>
-      <c r="P53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="154"/>
       <c r="Q53" s="113"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="137" t="n">
+      <c r="A54" s="136" t="n">
         <v>0.28</v>
       </c>
       <c r="B54" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C54" s="154" t="n">
+      <c r="C54" s="153" t="n">
         <v>3.52292105195165</v>
       </c>
-      <c r="D54" s="155" t="n">
+      <c r="D54" s="154" t="n">
         <v>0.0372087531697848</v>
       </c>
       <c r="E54" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F54" s="156" t="n">
+      <c r="F54" s="155" t="n">
         <v>4.22505019679725</v>
       </c>
-      <c r="G54" s="155" t="n">
+      <c r="G54" s="154" t="n">
         <v>0.160999956611556</v>
       </c>
       <c r="H54" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I54" s="156" t="n">
+      <c r="I54" s="155" t="n">
         <v>5.11061442533373</v>
       </c>
-      <c r="J54" s="155" t="n">
+      <c r="J54" s="154" t="n">
         <v>0.0564469427848508</v>
       </c>
       <c r="K54" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L54" s="156" t="n">
+      <c r="L54" s="155" t="n">
         <v>5.94773825233369</v>
       </c>
-      <c r="M54" s="155" t="n">
+      <c r="M54" s="154" t="n">
         <v>0.0479585905282012</v>
       </c>
       <c r="N54" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O54" s="156"/>
-      <c r="P54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="154"/>
       <c r="Q54" s="113"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="137" t="n">
+      <c r="A55" s="136" t="n">
         <v>0.3</v>
       </c>
       <c r="B55" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C55" s="154" t="n">
+      <c r="C55" s="153" t="n">
         <v>3.89361373095044</v>
       </c>
-      <c r="D55" s="155" t="n">
+      <c r="D55" s="154" t="n">
         <v>0.0469612648599508</v>
       </c>
       <c r="E55" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F55" s="156" t="n">
+      <c r="F55" s="155" t="n">
         <v>5.01504251042456</v>
       </c>
-      <c r="G55" s="155" t="n">
+      <c r="G55" s="154" t="n">
         <v>0.0427798726384808</v>
       </c>
       <c r="H55" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I55" s="156" t="n">
+      <c r="I55" s="155" t="n">
         <v>2.33032759374248</v>
       </c>
-      <c r="J55" s="155" t="n">
+      <c r="J55" s="154" t="n">
         <v>0.356257815105346</v>
       </c>
       <c r="K55" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L55" s="156" t="n">
+      <c r="L55" s="155" t="n">
         <v>5.50382867558803</v>
       </c>
-      <c r="M55" s="155" t="n">
+      <c r="M55" s="154" t="n">
         <v>0.149987442628752</v>
       </c>
       <c r="N55" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O55" s="156"/>
-      <c r="P55" s="155"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="154"/>
       <c r="Q55" s="113"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="137" t="n">
+      <c r="A56" s="136" t="n">
         <v>0.32</v>
       </c>
       <c r="B56" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C56" s="154"/>
-      <c r="D56" s="155"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="113"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="154"/>
       <c r="H56" s="113"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="154"/>
       <c r="K56" s="113"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="154"/>
       <c r="N56" s="113"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="154"/>
       <c r="Q56" s="113"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="137" t="n">
+      <c r="A57" s="136" t="n">
         <v>0.34</v>
       </c>
       <c r="B57" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="155"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="113"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="154"/>
       <c r="H57" s="113"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="154"/>
       <c r="K57" s="113"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="154"/>
       <c r="N57" s="113"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="155"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="154"/>
       <c r="Q57" s="113"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="137" t="n">
+      <c r="A58" s="136" t="n">
         <v>0.36</v>
       </c>
       <c r="B58" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C58" s="154" t="n">
+      <c r="C58" s="153" t="n">
         <v>3.06614229304124</v>
       </c>
-      <c r="D58" s="155" t="n">
+      <c r="D58" s="154" t="n">
         <v>0.276531603455967</v>
       </c>
       <c r="E58" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F58" s="156" t="n">
+      <c r="F58" s="155" t="n">
         <v>2.96666566848266</v>
       </c>
-      <c r="G58" s="155" t="n">
+      <c r="G58" s="154" t="n">
         <v>0.0398048667883441</v>
       </c>
       <c r="H58" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I58" s="156" t="n">
+      <c r="I58" s="155" t="n">
         <v>2.82941160286417</v>
       </c>
-      <c r="J58" s="155" t="n">
+      <c r="J58" s="154" t="n">
         <v>0.0385018575824813</v>
       </c>
       <c r="K58" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L58" s="156" t="n">
+      <c r="L58" s="155" t="n">
         <v>4.92550413370208</v>
       </c>
-      <c r="M58" s="155" t="n">
+      <c r="M58" s="154" t="n">
         <v>0.0435567418420361</v>
       </c>
       <c r="N58" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O58" s="156"/>
-      <c r="P58" s="155"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="154"/>
       <c r="Q58" s="113"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="137" t="n">
+      <c r="A59" s="136" t="n">
         <v>0.38</v>
       </c>
       <c r="B59" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="155"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="113"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="154"/>
       <c r="H59" s="113"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="154"/>
       <c r="K59" s="113"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="154"/>
       <c r="N59" s="113"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="154"/>
       <c r="Q59" s="113"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="137" t="n">
+      <c r="A60" s="136" t="n">
         <v>0.4</v>
       </c>
       <c r="B60" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C60" s="154" t="n">
+      <c r="C60" s="153" t="n">
         <v>5.51297575989727</v>
       </c>
-      <c r="D60" s="155" t="n">
+      <c r="D60" s="154" t="n">
         <v>0.109786008075871</v>
       </c>
       <c r="E60" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F60" s="156" t="n">
+      <c r="F60" s="155" t="n">
         <v>3.84542833684215</v>
       </c>
-      <c r="G60" s="155" t="n">
+      <c r="G60" s="154" t="n">
         <v>0.07666050136367</v>
       </c>
       <c r="H60" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I60" s="156" t="n">
+      <c r="I60" s="155" t="n">
         <v>5.80203156229256</v>
       </c>
-      <c r="J60" s="155" t="n">
+      <c r="J60" s="154" t="n">
         <v>0.0128559871893003</v>
       </c>
       <c r="K60" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L60" s="156" t="n">
+      <c r="L60" s="155" t="n">
         <v>4.27985641118505</v>
       </c>
-      <c r="M60" s="155" t="n">
+      <c r="M60" s="154" t="n">
         <v>0.0174217938888997</v>
       </c>
       <c r="N60" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O60" s="156"/>
-      <c r="P60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="154"/>
       <c r="Q60" s="113"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="137" t="n">
+      <c r="A61" s="136" t="n">
         <v>0.42</v>
       </c>
       <c r="B61" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="154"/>
       <c r="E61" s="113"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="154"/>
       <c r="H61" s="113"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="154"/>
       <c r="K61" s="113"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="154"/>
       <c r="N61" s="113"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="154"/>
       <c r="Q61" s="113"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="137" t="n">
+      <c r="A62" s="136" t="n">
         <v>0.44</v>
       </c>
       <c r="B62" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C62" s="154" t="n">
+      <c r="C62" s="153" t="n">
         <v>2.16007032378995</v>
       </c>
-      <c r="D62" s="155" t="n">
+      <c r="D62" s="154" t="n">
         <v>0.240546205523898</v>
       </c>
       <c r="E62" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F62" s="156" t="n">
+      <c r="F62" s="155" t="n">
         <v>6.32035938579183</v>
       </c>
-      <c r="G62" s="155" t="n">
+      <c r="G62" s="154" t="n">
         <v>0.432501892835895</v>
       </c>
       <c r="H62" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I62" s="156" t="n">
+      <c r="I62" s="155" t="n">
         <v>6.36641152011788</v>
       </c>
-      <c r="J62" s="155" t="n">
+      <c r="J62" s="154" t="n">
         <v>0.0152062260199472</v>
       </c>
       <c r="K62" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L62" s="156" t="n">
+      <c r="L62" s="155" t="n">
         <v>3.38244691771288</v>
       </c>
-      <c r="M62" s="155" t="n">
+      <c r="M62" s="154" t="n">
         <v>0.346051243930538</v>
       </c>
       <c r="N62" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O62" s="156"/>
-      <c r="P62" s="155"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="154"/>
       <c r="Q62" s="113"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="137" t="n">
+      <c r="A63" s="136" t="n">
         <v>0.46</v>
       </c>
       <c r="B63" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="154"/>
       <c r="E63" s="113"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="154"/>
       <c r="H63" s="113"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="154"/>
       <c r="K63" s="113"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="155"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="154"/>
       <c r="N63" s="113"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="155"/>
+      <c r="O63" s="155"/>
+      <c r="P63" s="154"/>
       <c r="Q63" s="113"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="137" t="n">
+      <c r="A64" s="136" t="n">
         <v>0.48</v>
       </c>
       <c r="B64" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C64" s="154"/>
-      <c r="D64" s="155"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="154"/>
       <c r="E64" s="113"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="154"/>
       <c r="H64" s="113"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="154"/>
       <c r="K64" s="113"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="154"/>
       <c r="N64" s="113"/>
-      <c r="O64" s="156"/>
-      <c r="P64" s="155"/>
+      <c r="O64" s="155"/>
+      <c r="P64" s="154"/>
       <c r="Q64" s="113"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="137" t="n">
+      <c r="A65" s="136" t="n">
         <v>0.5</v>
       </c>
       <c r="B65" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C65" s="154" t="n">
+      <c r="C65" s="153" t="n">
         <v>2.9319675769389</v>
       </c>
-      <c r="D65" s="155" t="n">
+      <c r="D65" s="154" t="n">
         <v>0.0126772728854244</v>
       </c>
       <c r="E65" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F65" s="156" t="n">
+      <c r="F65" s="155" t="n">
         <v>4.1087822254037</v>
       </c>
-      <c r="G65" s="155" t="n">
+      <c r="G65" s="154" t="n">
         <v>0.0386788512231376</v>
       </c>
       <c r="H65" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I65" s="156" t="n">
+      <c r="I65" s="155" t="n">
         <v>3.98279530408992</v>
       </c>
-      <c r="J65" s="155" t="n">
+      <c r="J65" s="154" t="n">
         <v>0.0604861327937016</v>
       </c>
       <c r="K65" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L65" s="156" t="n">
+      <c r="L65" s="155" t="n">
         <v>2.77649207662778</v>
       </c>
-      <c r="M65" s="155" t="n">
+      <c r="M65" s="154" t="n">
         <v>0.0406559932489017</v>
       </c>
       <c r="N65" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O65" s="156"/>
-      <c r="P65" s="155"/>
+      <c r="O65" s="155"/>
+      <c r="P65" s="154"/>
       <c r="Q65" s="113"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="137" t="n">
+      <c r="A66" s="136" t="n">
         <v>0.52</v>
       </c>
       <c r="B66" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C66" s="154"/>
-      <c r="D66" s="155"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="113"/>
-      <c r="F66" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="155"/>
+      <c r="F66" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="154"/>
       <c r="H66" s="113"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="154"/>
       <c r="K66" s="113"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="154"/>
       <c r="N66" s="113"/>
-      <c r="O66" s="156"/>
-      <c r="P66" s="155"/>
+      <c r="O66" s="155"/>
+      <c r="P66" s="154"/>
       <c r="Q66" s="113"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="137" t="n">
+      <c r="A67" s="136" t="n">
         <v>0.55</v>
       </c>
       <c r="B67" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C67" s="154" t="n">
+      <c r="C67" s="153" t="n">
         <v>2.65862023859917</v>
       </c>
-      <c r="D67" s="155" t="n">
+      <c r="D67" s="154" t="n">
         <v>0.110163689122294</v>
       </c>
       <c r="E67" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F67" s="156" t="n">
+      <c r="F67" s="155" t="n">
         <v>4.23788254869312</v>
       </c>
-      <c r="G67" s="155" t="n">
+      <c r="G67" s="154" t="n">
         <v>0.0237112352715549</v>
       </c>
       <c r="H67" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I67" s="156" t="n">
+      <c r="I67" s="155" t="n">
         <v>3.35587316877004</v>
       </c>
-      <c r="J67" s="155" t="n">
+      <c r="J67" s="154" t="n">
         <v>0.0989303255227226</v>
       </c>
       <c r="K67" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L67" s="156" t="n">
+      <c r="L67" s="155" t="n">
         <v>7.34185258900371</v>
       </c>
-      <c r="M67" s="155" t="n">
+      <c r="M67" s="154" t="n">
         <v>0.118273107313198</v>
       </c>
       <c r="N67" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O67" s="156"/>
-      <c r="P67" s="155"/>
+      <c r="O67" s="155"/>
+      <c r="P67" s="154"/>
       <c r="Q67" s="113"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="137" t="n">
+      <c r="A68" s="136" t="n">
         <v>0.6</v>
       </c>
       <c r="B68" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C68" s="154" t="n">
+      <c r="C68" s="153" t="n">
         <v>5.50452771721805</v>
       </c>
-      <c r="D68" s="155" t="n">
+      <c r="D68" s="154" t="n">
         <v>0.049947034385191</v>
       </c>
       <c r="E68" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F68" s="156" t="n">
+      <c r="F68" s="155" t="n">
         <v>2.8675108833776</v>
       </c>
-      <c r="G68" s="155" t="n">
+      <c r="G68" s="154" t="n">
         <v>0.0206999132155005</v>
       </c>
       <c r="H68" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I68" s="156" t="n">
+      <c r="I68" s="155" t="n">
         <v>12.5574812785046</v>
       </c>
-      <c r="J68" s="155" t="n">
+      <c r="J68" s="154" t="n">
         <v>0.0904907658313062</v>
       </c>
       <c r="K68" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="156" t="n">
+      <c r="L68" s="155" t="n">
         <v>5.83659239148593</v>
       </c>
-      <c r="M68" s="155" t="n">
+      <c r="M68" s="154" t="n">
         <v>0.0364618257687965</v>
       </c>
       <c r="N68" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O68" s="156"/>
-      <c r="P68" s="155"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="154"/>
       <c r="Q68" s="113"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="137" t="n">
+      <c r="A69" s="136" t="n">
         <v>0.65</v>
       </c>
       <c r="B69" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C69" s="154" t="n">
+      <c r="C69" s="153" t="n">
         <v>5.12244858494743</v>
       </c>
-      <c r="D69" s="155" t="n">
+      <c r="D69" s="154" t="n">
         <v>0.409041626715014</v>
       </c>
       <c r="E69" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F69" s="156" t="n">
+      <c r="F69" s="155" t="n">
         <v>5.1294912927517</v>
       </c>
-      <c r="G69" s="155" t="n">
+      <c r="G69" s="154" t="n">
         <v>0.00806393254184741</v>
       </c>
       <c r="H69" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I69" s="156" t="n">
+      <c r="I69" s="155" t="n">
         <v>9.85627708554484</v>
       </c>
-      <c r="J69" s="155" t="n">
+      <c r="J69" s="154" t="n">
         <v>0.774203304775039</v>
       </c>
       <c r="K69" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L69" s="156" t="n">
+      <c r="L69" s="155" t="n">
         <v>24.8934064162239</v>
       </c>
-      <c r="M69" s="155" t="n">
+      <c r="M69" s="154" t="n">
         <v>1.13164898852403</v>
       </c>
       <c r="N69" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O69" s="156"/>
-      <c r="P69" s="155"/>
+      <c r="O69" s="155"/>
+      <c r="P69" s="154"/>
       <c r="Q69" s="113"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="137" t="n">
+      <c r="A70" s="136" t="n">
         <v>0.7</v>
       </c>
       <c r="B70" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C70" s="154" t="n">
+      <c r="C70" s="153" t="n">
         <v>4.16609156818454</v>
       </c>
-      <c r="D70" s="155" t="n">
+      <c r="D70" s="154" t="n">
         <v>0.0473669264287822</v>
       </c>
       <c r="E70" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F70" s="156" t="n">
+      <c r="F70" s="155" t="n">
         <v>22.8007242351979</v>
       </c>
-      <c r="G70" s="155" t="n">
+      <c r="G70" s="154" t="n">
         <v>0.734917882940401</v>
       </c>
       <c r="H70" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I70" s="156" t="n">
+      <c r="I70" s="155" t="n">
         <v>9.54566951806927</v>
       </c>
-      <c r="J70" s="155" t="n">
+      <c r="J70" s="154" t="n">
         <v>1.56843186198121</v>
       </c>
       <c r="K70" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L70" s="156" t="n">
+      <c r="L70" s="155" t="n">
         <v>26.0285912018039</v>
       </c>
-      <c r="M70" s="155" t="n">
+      <c r="M70" s="154" t="n">
         <v>2.25385220858348</v>
       </c>
       <c r="N70" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="O70" s="156"/>
-      <c r="P70" s="155"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="154"/>
       <c r="Q70" s="113"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="137" t="n">
+      <c r="A71" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="B71" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C71" s="154" t="n">
+      <c r="C71" s="153" t="n">
         <v>24.81524461543</v>
       </c>
-      <c r="D71" s="155" t="n">
+      <c r="D71" s="154" t="n">
         <v>0.611848425497303</v>
       </c>
       <c r="E71" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F71" s="156" t="n">
+      <c r="F71" s="155" t="n">
         <v>33.089649255258</v>
       </c>
-      <c r="G71" s="155" t="n">
+      <c r="G71" s="154" t="n">
         <v>2.14428347794483</v>
       </c>
       <c r="H71" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I71" s="156" t="n">
+      <c r="I71" s="155" t="n">
         <v>11.4938965985462</v>
       </c>
-      <c r="J71" s="155" t="n">
+      <c r="J71" s="154" t="n">
         <v>0.696564967915801</v>
       </c>
       <c r="K71" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L71" s="156" t="n">
+      <c r="L71" s="155" t="n">
         <v>20.571621507408</v>
       </c>
-      <c r="M71" s="155" t="n">
+      <c r="M71" s="154" t="n">
         <v>0.84380206695808</v>
       </c>
       <c r="N71" s="113" t="n">
         <v>95</v>
       </c>
-      <c r="O71" s="156"/>
-      <c r="P71" s="155"/>
+      <c r="O71" s="155"/>
+      <c r="P71" s="154"/>
       <c r="Q71" s="113"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="143" t="n">
+      <c r="A72" s="142" t="n">
         <v>0.8</v>
       </c>
-      <c r="B72" s="157" t="n">
+      <c r="B72" s="156" t="n">
         <v>250</v>
       </c>
-      <c r="C72" s="158" t="n">
+      <c r="C72" s="157" t="n">
         <v>19.9872159953515</v>
       </c>
-      <c r="D72" s="159" t="n">
+      <c r="D72" s="158" t="n">
         <v>2.81907115034465</v>
       </c>
-      <c r="E72" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="F72" s="160" t="n">
+      <c r="E72" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" s="159" t="n">
         <v>43.1408952113252</v>
       </c>
-      <c r="G72" s="159" t="n">
+      <c r="G72" s="158" t="n">
         <v>3.16263315093929</v>
       </c>
-      <c r="H72" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="I72" s="160" t="n">
+      <c r="H72" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="I72" s="159" t="n">
         <v>12.7878147942976</v>
       </c>
-      <c r="J72" s="159" t="n">
+      <c r="J72" s="158" t="n">
         <v>0.651272494834245</v>
       </c>
-      <c r="K72" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="160" t="n">
+      <c r="K72" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" s="159" t="n">
         <v>28.801094290023</v>
       </c>
-      <c r="M72" s="159" t="n">
+      <c r="M72" s="158" t="n">
         <v>1.91022291885081</v>
       </c>
-      <c r="N72" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="O72" s="160"/>
-      <c r="P72" s="159"/>
-      <c r="Q72" s="144"/>
+      <c r="N72" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="O72" s="159"/>
+      <c r="P72" s="158"/>
+      <c r="Q72" s="143"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="96" t="s">
@@ -48340,652 +48375,652 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="161" t="n">
+      <c r="A79" s="160" t="n">
         <v>70</v>
       </c>
       <c r="B79" s="108" t="n">
         <v>250</v>
       </c>
       <c r="C79" s="133"/>
-      <c r="D79" s="162"/>
-      <c r="E79" s="150"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="149"/>
       <c r="F79" s="133"/>
-      <c r="G79" s="162"/>
+      <c r="G79" s="161"/>
       <c r="H79" s="108"/>
       <c r="I79" s="133"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="150"/>
+      <c r="J79" s="161"/>
+      <c r="K79" s="149"/>
       <c r="L79" s="133"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
+      <c r="M79" s="161"/>
+      <c r="N79" s="161"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="163" t="n">
+      <c r="A80" s="162" t="n">
         <v>67</v>
       </c>
       <c r="B80" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C80" s="138"/>
-      <c r="D80" s="164"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="163"/>
       <c r="E80" s="100"/>
-      <c r="F80" s="138"/>
-      <c r="G80" s="164"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="163"/>
       <c r="H80" s="113"/>
-      <c r="I80" s="138"/>
-      <c r="J80" s="164"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="163"/>
       <c r="K80" s="100"/>
-      <c r="L80" s="138"/>
-      <c r="M80" s="164"/>
-      <c r="N80" s="164"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="163"/>
+      <c r="N80" s="163"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="163" t="n">
+      <c r="A81" s="162" t="n">
         <v>64</v>
       </c>
       <c r="B81" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C81" s="138"/>
-      <c r="D81" s="164"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="163"/>
       <c r="E81" s="100"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="164"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="163"/>
       <c r="H81" s="113"/>
-      <c r="I81" s="138"/>
-      <c r="J81" s="164"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="163"/>
       <c r="K81" s="100"/>
-      <c r="L81" s="138"/>
-      <c r="M81" s="164"/>
-      <c r="N81" s="164"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="163"/>
+      <c r="N81" s="163"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="163" t="n">
+      <c r="A82" s="162" t="n">
         <v>61</v>
       </c>
       <c r="B82" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C82" s="138"/>
-      <c r="D82" s="164"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="163"/>
       <c r="E82" s="100"/>
-      <c r="F82" s="138"/>
-      <c r="G82" s="164"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="163"/>
       <c r="H82" s="113"/>
-      <c r="I82" s="138"/>
-      <c r="J82" s="164"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="163"/>
       <c r="K82" s="100"/>
-      <c r="L82" s="138"/>
-      <c r="M82" s="164"/>
-      <c r="N82" s="164"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="163"/>
+      <c r="N82" s="163"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="163" t="n">
+      <c r="A83" s="162" t="n">
         <v>58</v>
       </c>
       <c r="B83" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C83" s="138"/>
-      <c r="D83" s="164"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="163"/>
       <c r="E83" s="100"/>
-      <c r="F83" s="138"/>
-      <c r="G83" s="164"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="163"/>
       <c r="H83" s="113"/>
-      <c r="I83" s="138"/>
-      <c r="J83" s="164"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="163"/>
       <c r="K83" s="100"/>
-      <c r="L83" s="138"/>
-      <c r="M83" s="164"/>
-      <c r="N83" s="164"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="163"/>
+      <c r="N83" s="163"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="163" t="n">
+      <c r="A84" s="162" t="n">
         <v>55</v>
       </c>
       <c r="B84" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C84" s="138"/>
-      <c r="D84" s="164"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="163"/>
       <c r="E84" s="100"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="164"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="163"/>
       <c r="H84" s="113"/>
-      <c r="I84" s="138"/>
-      <c r="J84" s="164"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="163"/>
       <c r="K84" s="100"/>
-      <c r="L84" s="138"/>
-      <c r="M84" s="164"/>
-      <c r="N84" s="164"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="163"/>
+      <c r="N84" s="163"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="163" t="n">
+      <c r="A85" s="162" t="n">
         <v>52</v>
       </c>
       <c r="B85" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C85" s="138"/>
-      <c r="D85" s="164"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="163"/>
       <c r="E85" s="100"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="164"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="163"/>
       <c r="H85" s="113"/>
-      <c r="I85" s="138"/>
-      <c r="J85" s="164"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="163"/>
       <c r="K85" s="100"/>
-      <c r="L85" s="138"/>
-      <c r="M85" s="164"/>
-      <c r="N85" s="164"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="163"/>
+      <c r="N85" s="163"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="163" t="n">
+      <c r="A86" s="162" t="n">
         <v>49</v>
       </c>
       <c r="B86" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C86" s="154" t="n">
+      <c r="C86" s="153" t="n">
         <v>1.07164198826699</v>
       </c>
-      <c r="D86" s="165" t="n">
+      <c r="D86" s="164" t="n">
         <v>0.0772555692271524</v>
       </c>
       <c r="E86" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F86" s="138"/>
-      <c r="G86" s="164"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="163"/>
       <c r="H86" s="45"/>
-      <c r="I86" s="138"/>
-      <c r="J86" s="164"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="163"/>
       <c r="K86" s="100"/>
-      <c r="L86" s="138"/>
-      <c r="M86" s="164"/>
-      <c r="N86" s="164"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="163" t="n">
+      <c r="A87" s="162" t="n">
         <v>46</v>
       </c>
       <c r="B87" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C87" s="154" t="n">
+      <c r="C87" s="153" t="n">
         <v>0.722773157357141</v>
       </c>
-      <c r="D87" s="165" t="n">
+      <c r="D87" s="164" t="n">
         <v>0.13688690531717</v>
       </c>
       <c r="E87" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F87" s="154" t="n">
+      <c r="F87" s="153" t="n">
         <v>1.06972159792697</v>
       </c>
-      <c r="G87" s="165" t="n">
+      <c r="G87" s="164" t="n">
         <v>0.134789146805239</v>
       </c>
       <c r="H87" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I87" s="154" t="n">
+      <c r="I87" s="153" t="n">
         <v>2.57738453761131</v>
       </c>
-      <c r="J87" s="165" t="n">
+      <c r="J87" s="164" t="n">
         <v>0.120738973343561</v>
       </c>
       <c r="K87" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="L87" s="154" t="n">
+      <c r="L87" s="153" t="n">
         <v>1.33797608840117</v>
       </c>
-      <c r="M87" s="165" t="n">
+      <c r="M87" s="164" t="n">
         <v>0.112042220117875</v>
       </c>
-      <c r="N87" s="164" t="n">
+      <c r="N87" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="163" t="n">
+      <c r="A88" s="162" t="n">
         <v>43</v>
       </c>
       <c r="B88" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C88" s="154" t="n">
+      <c r="C88" s="153" t="n">
         <v>2.50119398167311</v>
       </c>
-      <c r="D88" s="165" t="n">
+      <c r="D88" s="164" t="n">
         <v>0.0693094703431252</v>
       </c>
       <c r="E88" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F88" s="154" t="n">
+      <c r="F88" s="153" t="n">
         <v>2.37131979740572</v>
       </c>
-      <c r="G88" s="165" t="n">
+      <c r="G88" s="164" t="n">
         <v>0.0690978753932147</v>
       </c>
       <c r="H88" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I88" s="154" t="n">
+      <c r="I88" s="153" t="n">
         <v>3.02505249525236</v>
       </c>
-      <c r="J88" s="165" t="n">
+      <c r="J88" s="164" t="n">
         <v>0.0866471527574785</v>
       </c>
       <c r="K88" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="L88" s="154" t="n">
+      <c r="L88" s="153" t="n">
         <v>3.26618795474787</v>
       </c>
-      <c r="M88" s="165" t="n">
+      <c r="M88" s="164" t="n">
         <v>0.0442790348874843</v>
       </c>
-      <c r="N88" s="164" t="n">
+      <c r="N88" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="163" t="n">
+      <c r="A89" s="162" t="n">
         <v>40</v>
       </c>
       <c r="B89" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C89" s="154" t="n">
+      <c r="C89" s="153" t="n">
         <v>1.29044132192516</v>
       </c>
-      <c r="D89" s="165" t="n">
+      <c r="D89" s="164" t="n">
         <v>0.0533165153340829</v>
       </c>
       <c r="E89" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F89" s="154" t="n">
+      <c r="F89" s="153" t="n">
         <v>0.32160187324067</v>
       </c>
-      <c r="G89" s="165" t="n">
+      <c r="G89" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H89" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I89" s="154" t="n">
+      <c r="I89" s="153" t="n">
         <v>0.819935182043439</v>
       </c>
-      <c r="J89" s="165" t="n">
+      <c r="J89" s="164" t="n">
         <v>0.0590641232550805</v>
       </c>
       <c r="K89" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="L89" s="154" t="n">
+      <c r="L89" s="153" t="n">
         <v>0.552165198594843</v>
       </c>
-      <c r="M89" s="165" t="n">
+      <c r="M89" s="164" t="n">
         <v>0.0285363393655998</v>
       </c>
-      <c r="N89" s="164" t="n">
+      <c r="N89" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="163" t="n">
+      <c r="A90" s="162" t="n">
         <v>37</v>
       </c>
       <c r="B90" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C90" s="154" t="n">
+      <c r="C90" s="153" t="n">
         <v>2.22359958013417</v>
       </c>
-      <c r="D90" s="165" t="n">
+      <c r="D90" s="164" t="n">
         <v>0.120371715252012</v>
       </c>
       <c r="E90" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F90" s="154" t="n">
+      <c r="F90" s="153" t="n">
         <v>2.01772082840625</v>
       </c>
-      <c r="G90" s="165" t="n">
+      <c r="G90" s="164" t="n">
         <v>0.130934161457073</v>
       </c>
       <c r="H90" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I90" s="154" t="n">
+      <c r="I90" s="153" t="n">
         <v>2.40736224680438</v>
       </c>
-      <c r="J90" s="165" t="n">
+      <c r="J90" s="164" t="n">
         <v>0.0898492564149904</v>
       </c>
       <c r="K90" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="L90" s="154" t="n">
+      <c r="L90" s="153" t="n">
         <v>1.82508446226261</v>
       </c>
-      <c r="M90" s="165" t="n">
+      <c r="M90" s="164" t="n">
         <v>0.0577917597757022</v>
       </c>
-      <c r="N90" s="164" t="n">
+      <c r="N90" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="163" t="n">
+      <c r="A91" s="162" t="n">
         <v>34</v>
       </c>
       <c r="B91" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C91" s="154" t="n">
+      <c r="C91" s="153" t="n">
         <v>2.97653351487465</v>
       </c>
-      <c r="D91" s="165" t="n">
+      <c r="D91" s="164" t="n">
         <v>0.16772776784679</v>
       </c>
       <c r="E91" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F91" s="154" t="n">
+      <c r="F91" s="153" t="n">
         <v>2.21590730536925</v>
       </c>
-      <c r="G91" s="165" t="n">
+      <c r="G91" s="164" t="n">
         <v>0.124558785181754</v>
       </c>
       <c r="H91" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I91" s="154" t="n">
+      <c r="I91" s="153" t="n">
         <v>3.1140655800698</v>
       </c>
-      <c r="J91" s="165" t="n">
+      <c r="J91" s="164" t="n">
         <v>0.13667727459087</v>
       </c>
       <c r="K91" s="100" t="n">
         <v>85</v>
       </c>
-      <c r="L91" s="154" t="n">
+      <c r="L91" s="153" t="n">
         <v>2.24399181793726</v>
       </c>
-      <c r="M91" s="165" t="n">
+      <c r="M91" s="164" t="n">
         <v>0.090236433635406</v>
       </c>
-      <c r="N91" s="164" t="n">
+      <c r="N91" s="163" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="163" t="n">
+      <c r="A92" s="162" t="n">
         <v>31</v>
       </c>
       <c r="B92" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C92" s="154" t="n">
+      <c r="C92" s="153" t="n">
         <v>2.35009542353319</v>
       </c>
-      <c r="D92" s="165" t="n">
+      <c r="D92" s="164" t="n">
         <v>0.132243297036914</v>
       </c>
       <c r="E92" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="F92" s="154" t="n">
+      <c r="F92" s="153" t="n">
         <v>3.56192952163899</v>
       </c>
-      <c r="G92" s="165" t="n">
+      <c r="G92" s="164" t="n">
         <v>0.131856578049494</v>
       </c>
       <c r="H92" s="113" t="n">
         <v>90</v>
       </c>
-      <c r="I92" s="154" t="n">
+      <c r="I92" s="153" t="n">
         <v>1.82870509807205</v>
       </c>
-      <c r="J92" s="165" t="n">
+      <c r="J92" s="164" t="n">
         <v>0.10712219037614</v>
       </c>
       <c r="K92" s="100" t="n">
         <v>85</v>
       </c>
-      <c r="L92" s="154" t="n">
+      <c r="L92" s="153" t="n">
         <v>1.76111801412022</v>
       </c>
-      <c r="M92" s="165" t="n">
+      <c r="M92" s="164" t="n">
         <v>0.140383499568522</v>
       </c>
-      <c r="N92" s="164" t="n">
+      <c r="N92" s="163" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="163" t="n">
+      <c r="A93" s="162" t="n">
         <v>28</v>
       </c>
       <c r="B93" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C93" s="154" t="n">
+      <c r="C93" s="153" t="n">
         <v>2.78259696013344</v>
       </c>
-      <c r="D93" s="165" t="n">
+      <c r="D93" s="164" t="n">
         <v>0.19325693526129</v>
       </c>
       <c r="E93" s="100" t="n">
         <v>80</v>
       </c>
-      <c r="F93" s="154" t="n">
+      <c r="F93" s="153" t="n">
         <v>4.62207429400002</v>
       </c>
-      <c r="G93" s="165" t="n">
+      <c r="G93" s="164" t="n">
         <v>0.636435567815191</v>
       </c>
       <c r="H93" s="113" t="n">
         <v>80</v>
       </c>
-      <c r="I93" s="154" t="n">
+      <c r="I93" s="153" t="n">
         <v>2.19724840059011</v>
       </c>
-      <c r="J93" s="165" t="n">
+      <c r="J93" s="164" t="n">
         <v>0.133280725887517</v>
       </c>
       <c r="K93" s="100" t="n">
         <v>80</v>
       </c>
-      <c r="L93" s="154" t="n">
+      <c r="L93" s="153" t="n">
         <v>4.18521755542732</v>
       </c>
-      <c r="M93" s="165" t="n">
+      <c r="M93" s="164" t="n">
         <v>0.451140711796131</v>
       </c>
-      <c r="N93" s="164" t="n">
+      <c r="N93" s="163" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="163" t="n">
+      <c r="A94" s="162" t="n">
         <v>25</v>
       </c>
       <c r="B94" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C94" s="154" t="n">
+      <c r="C94" s="153" t="n">
         <v>6.86534975086044</v>
       </c>
-      <c r="D94" s="165" t="n">
+      <c r="D94" s="164" t="n">
         <v>0.23792474226372</v>
       </c>
       <c r="E94" s="100" t="n">
         <v>60</v>
       </c>
-      <c r="F94" s="154" t="n">
+      <c r="F94" s="153" t="n">
         <v>3.5159793380444</v>
       </c>
-      <c r="G94" s="165" t="n">
+      <c r="G94" s="164" t="n">
         <v>0.126409703016872</v>
       </c>
       <c r="H94" s="113" t="n">
         <v>70</v>
       </c>
-      <c r="I94" s="154" t="n">
+      <c r="I94" s="153" t="n">
         <v>4.65638970688323</v>
       </c>
-      <c r="J94" s="165" t="n">
+      <c r="J94" s="164" t="n">
         <v>0.26581784239402</v>
       </c>
       <c r="K94" s="100" t="n">
         <v>60</v>
       </c>
-      <c r="L94" s="154" t="n">
+      <c r="L94" s="153" t="n">
         <v>5.12796759272546</v>
       </c>
-      <c r="M94" s="165" t="n">
+      <c r="M94" s="164" t="n">
         <v>0.246829510728239</v>
       </c>
-      <c r="N94" s="164" t="n">
+      <c r="N94" s="163" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="163" t="n">
+      <c r="A95" s="162" t="n">
         <v>22</v>
       </c>
       <c r="B95" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C95" s="154" t="n">
+      <c r="C95" s="153" t="n">
         <v>3.18341887695295</v>
       </c>
-      <c r="D95" s="165" t="n">
+      <c r="D95" s="164" t="n">
         <v>0.174902109909002</v>
       </c>
       <c r="E95" s="100" t="n">
         <v>70</v>
       </c>
-      <c r="F95" s="154" t="n">
+      <c r="F95" s="153" t="n">
         <v>1.86192878644619</v>
       </c>
-      <c r="G95" s="165" t="n">
+      <c r="G95" s="164" t="n">
         <v>0.502658343425482</v>
       </c>
       <c r="H95" s="113" t="n">
         <v>65</v>
       </c>
-      <c r="I95" s="154" t="n">
+      <c r="I95" s="153" t="n">
         <v>3.33028223563603</v>
       </c>
-      <c r="J95" s="165" t="n">
+      <c r="J95" s="164" t="n">
         <v>0.321796037178432</v>
       </c>
       <c r="K95" s="100" t="n">
         <v>55</v>
       </c>
-      <c r="L95" s="154" t="n">
+      <c r="L95" s="153" t="n">
         <v>1.87134052553457</v>
       </c>
-      <c r="M95" s="165" t="n">
+      <c r="M95" s="164" t="n">
         <v>0.182786831037224</v>
       </c>
-      <c r="N95" s="164" t="n">
+      <c r="N95" s="163" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="163" t="n">
+      <c r="A96" s="162" t="n">
         <v>19</v>
       </c>
       <c r="B96" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C96" s="154" t="n">
+      <c r="C96" s="153" t="n">
         <v>2.50964546679635</v>
       </c>
-      <c r="D96" s="165" t="n">
+      <c r="D96" s="164" t="n">
         <v>0.795054445197757</v>
       </c>
       <c r="E96" s="100" t="n">
         <v>10</v>
       </c>
-      <c r="F96" s="154" t="n">
+      <c r="F96" s="153" t="n">
         <v>2.94730715789325</v>
       </c>
-      <c r="G96" s="165" t="n">
+      <c r="G96" s="164" t="n">
         <v>0.048878856883851</v>
       </c>
       <c r="H96" s="113" t="n">
         <v>10</v>
       </c>
-      <c r="I96" s="154" t="n">
+      <c r="I96" s="153" t="n">
         <v>5.35754903585601</v>
       </c>
-      <c r="J96" s="165" t="n">
+      <c r="J96" s="164" t="n">
         <v>1.69734069888237</v>
       </c>
       <c r="K96" s="100" t="n">
         <v>40</v>
       </c>
-      <c r="L96" s="154" t="n">
+      <c r="L96" s="153" t="n">
         <v>6.14152898944795</v>
       </c>
-      <c r="M96" s="165" t="n">
+      <c r="M96" s="164" t="n">
         <v>0.963753968017922</v>
       </c>
-      <c r="N96" s="164" t="n">
+      <c r="N96" s="163" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="166" t="n">
+      <c r="A97" s="165" t="n">
         <v>16</v>
       </c>
-      <c r="B97" s="144" t="n">
+      <c r="B97" s="143" t="n">
         <v>250</v>
       </c>
-      <c r="C97" s="158" t="n">
+      <c r="C97" s="157" t="n">
         <v>3.50972455287539</v>
       </c>
-      <c r="D97" s="167" t="n">
+      <c r="D97" s="166" t="n">
         <v>2.17069842834051</v>
       </c>
-      <c r="E97" s="157" t="n">
+      <c r="E97" s="156" t="n">
         <v>5</v>
       </c>
-      <c r="F97" s="158" t="n">
+      <c r="F97" s="157" t="n">
         <v>2.25800415084953</v>
       </c>
-      <c r="G97" s="167" t="n">
+      <c r="G97" s="166" t="n">
         <v>0.361372698674001</v>
       </c>
-      <c r="H97" s="144" t="n">
+      <c r="H97" s="143" t="n">
         <v>25</v>
       </c>
-      <c r="I97" s="158" t="n">
+      <c r="I97" s="157" t="n">
         <v>3.70676695774956</v>
       </c>
-      <c r="J97" s="167" t="n">
+      <c r="J97" s="166" t="n">
         <v>1.17069842834051</v>
       </c>
-      <c r="K97" s="157" t="n">
+      <c r="K97" s="156" t="n">
         <v>5</v>
       </c>
-      <c r="L97" s="158" t="n">
+      <c r="L97" s="157" t="n">
         <v>1.82175889448626</v>
       </c>
-      <c r="M97" s="167" t="n">
+      <c r="M97" s="166" t="n">
         <v>0.49385708586526</v>
       </c>
-      <c r="N97" s="168" t="n">
+      <c r="N97" s="167" t="n">
         <v>10</v>
       </c>
     </row>
@@ -49070,13 +49105,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="169" t="n">
+      <c r="A104" s="168" t="n">
         <v>0</v>
       </c>
       <c r="B104" s="108" t="n">
         <v>250</v>
       </c>
-      <c r="C104" s="162" t="s">
+      <c r="C104" s="161" t="s">
         <v>300</v>
       </c>
       <c r="D104" s="108" t="s">
@@ -49114,13 +49149,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="170" t="n">
+      <c r="A105" s="169" t="n">
         <v>5</v>
       </c>
       <c r="B105" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C105" s="164" t="s">
+      <c r="C105" s="163" t="s">
         <v>306</v>
       </c>
       <c r="D105" s="113" t="s">
@@ -49158,13 +49193,13 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="170" t="n">
+      <c r="A106" s="169" t="n">
         <v>8</v>
       </c>
       <c r="B106" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C106" s="164" t="s">
+      <c r="C106" s="163" t="s">
         <v>313</v>
       </c>
       <c r="D106" s="113" t="s">
@@ -49202,13 +49237,13 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="170" t="n">
+      <c r="A107" s="169" t="n">
         <v>17</v>
       </c>
       <c r="B107" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C107" s="164" t="s">
+      <c r="C107" s="163" t="s">
         <v>319</v>
       </c>
       <c r="D107" s="113" t="s">
@@ -49246,13 +49281,13 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="171" t="n">
+      <c r="A108" s="170" t="n">
         <v>37</v>
       </c>
       <c r="B108" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C108" s="164" t="s">
+      <c r="C108" s="163" t="s">
         <v>325</v>
       </c>
       <c r="D108" s="113" t="s">
@@ -49290,13 +49325,13 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="171" t="n">
+      <c r="A109" s="170" t="n">
         <v>43</v>
       </c>
       <c r="B109" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C109" s="164" t="s">
+      <c r="C109" s="163" t="s">
         <v>333</v>
       </c>
       <c r="D109" s="113" t="s">
@@ -49334,13 +49369,13 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="171" t="n">
+      <c r="A110" s="170" t="n">
         <v>45</v>
       </c>
       <c r="B110" s="113" t="n">
         <v>250</v>
       </c>
-      <c r="C110" s="164" t="s">
+      <c r="C110" s="163" t="s">
         <v>341</v>
       </c>
       <c r="D110" s="113" t="s">
@@ -49378,50 +49413,49 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="172" t="n">
+      <c r="A111" s="171" t="n">
         <v>50</v>
       </c>
-      <c r="B111" s="144" t="n">
+      <c r="B111" s="143" t="n">
         <v>250</v>
       </c>
-      <c r="C111" s="168" t="s">
+      <c r="C111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="D111" s="168" t="s">
+      <c r="D111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" s="168" t="s">
+      <c r="E111" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="G111" s="168" t="s">
+      <c r="G111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="H111" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="168" t="s">
+      <c r="H111" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="J111" s="168" t="s">
+      <c r="J111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="K111" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="168" t="s">
+      <c r="K111" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="M111" s="168" t="s">
+      <c r="M111" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="N111" s="144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="N111" s="143" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I113" s="7"/>
     </row>
@@ -49522,7 +49556,7 @@
       <c r="A119" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B119" s="162" t="n">
+      <c r="B119" s="161" t="n">
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
@@ -49537,37 +49571,37 @@
       <c r="F119" s="135" t="s">
         <v>354</v>
       </c>
-      <c r="G119" s="173" t="s">
+      <c r="G119" s="172" t="s">
         <v>355</v>
       </c>
-      <c r="H119" s="150" t="n">
+      <c r="H119" s="149" t="n">
         <v>100</v>
       </c>
       <c r="I119" s="133" t="s">
         <v>356</v>
       </c>
-      <c r="J119" s="173" t="s">
+      <c r="J119" s="172" t="s">
         <v>357</v>
       </c>
-      <c r="K119" s="174" t="n">
+      <c r="K119" s="173" t="n">
         <v>100</v>
       </c>
       <c r="L119" s="133" t="s">
         <v>358</v>
       </c>
-      <c r="M119" s="173" t="s">
+      <c r="M119" s="172" t="s">
         <v>359</v>
       </c>
-      <c r="N119" s="162" t="n">
+      <c r="N119" s="161" t="n">
         <v>100</v>
       </c>
       <c r="O119" s="133" t="s">
         <v>360</v>
       </c>
-      <c r="P119" s="173" t="s">
+      <c r="P119" s="172" t="s">
         <v>361</v>
       </c>
-      <c r="Q119" s="162" t="n">
+      <c r="Q119" s="161" t="n">
         <v>100</v>
       </c>
     </row>
@@ -49575,52 +49609,52 @@
       <c r="A120" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="164" t="n">
+      <c r="B120" s="163" t="n">
         <v>350</v>
       </c>
-      <c r="C120" s="175" t="s">
+      <c r="C120" s="174" t="s">
         <v>362</v>
       </c>
-      <c r="D120" s="175" t="s">
+      <c r="D120" s="174" t="s">
         <v>363</v>
       </c>
       <c r="E120" s="113" t="n">
         <v>95</v>
       </c>
-      <c r="F120" s="140" t="s">
+      <c r="F120" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="G120" s="176" t="s">
+      <c r="G120" s="175" t="s">
         <v>365</v>
       </c>
       <c r="H120" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I120" s="138" t="s">
+      <c r="I120" s="137" t="s">
         <v>366</v>
       </c>
-      <c r="J120" s="176" t="s">
+      <c r="J120" s="175" t="s">
         <v>367</v>
       </c>
       <c r="K120" s="38" t="n">
         <v>90</v>
       </c>
-      <c r="L120" s="138" t="s">
+      <c r="L120" s="137" t="s">
         <v>368</v>
       </c>
-      <c r="M120" s="176" t="s">
+      <c r="M120" s="175" t="s">
         <v>369</v>
       </c>
-      <c r="N120" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O120" s="138" t="s">
+      <c r="N120" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O120" s="137" t="s">
         <v>370</v>
       </c>
-      <c r="P120" s="176" t="s">
+      <c r="P120" s="175" t="s">
         <v>371</v>
       </c>
-      <c r="Q120" s="164" t="n">
+      <c r="Q120" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -49628,52 +49662,52 @@
       <c r="A121" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B121" s="164" t="n">
+      <c r="B121" s="163" t="n">
         <v>200</v>
       </c>
-      <c r="C121" s="175" t="s">
+      <c r="C121" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="D121" s="175" t="s">
+      <c r="D121" s="174" t="s">
         <v>373</v>
       </c>
       <c r="E121" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F121" s="140" t="s">
+      <c r="F121" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="G121" s="176" t="s">
+      <c r="G121" s="175" t="s">
         <v>375</v>
       </c>
       <c r="H121" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I121" s="138" t="s">
+      <c r="I121" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="J121" s="176" t="s">
+      <c r="J121" s="175" t="s">
         <v>377</v>
       </c>
       <c r="K121" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="L121" s="138" t="s">
+      <c r="L121" s="137" t="s">
         <v>378</v>
       </c>
-      <c r="M121" s="176" t="s">
+      <c r="M121" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="N121" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O121" s="138" t="s">
+      <c r="N121" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O121" s="137" t="s">
         <v>379</v>
       </c>
-      <c r="P121" s="176" t="s">
+      <c r="P121" s="175" t="s">
         <v>380</v>
       </c>
-      <c r="Q121" s="164" t="n">
+      <c r="Q121" s="163" t="n">
         <v>95</v>
       </c>
     </row>
@@ -49681,52 +49715,52 @@
       <c r="A122" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="C122" s="175" t="s">
+      <c r="B122" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" s="174" t="s">
         <v>381</v>
       </c>
-      <c r="D122" s="175" t="s">
+      <c r="D122" s="174" t="s">
         <v>382</v>
       </c>
       <c r="E122" s="113" t="n">
         <v>90</v>
       </c>
-      <c r="F122" s="140" t="s">
+      <c r="F122" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="G122" s="176" t="s">
+      <c r="G122" s="175" t="s">
         <v>384</v>
       </c>
       <c r="H122" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I122" s="138" t="s">
+      <c r="I122" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="J122" s="177" t="s">
+      <c r="J122" s="176" t="s">
         <v>386</v>
       </c>
       <c r="K122" s="38" t="n">
         <v>95</v>
       </c>
-      <c r="L122" s="138" t="s">
+      <c r="L122" s="137" t="s">
         <v>387</v>
       </c>
-      <c r="M122" s="176" t="s">
+      <c r="M122" s="175" t="s">
         <v>384</v>
       </c>
-      <c r="N122" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O122" s="138" t="s">
+      <c r="N122" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O122" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="P122" s="176" t="s">
+      <c r="P122" s="175" t="s">
         <v>305</v>
       </c>
-      <c r="Q122" s="164" t="n">
+      <c r="Q122" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -49734,52 +49768,52 @@
       <c r="A123" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B123" s="164" t="n">
+      <c r="B123" s="163" t="n">
         <v>300</v>
       </c>
-      <c r="C123" s="175" t="s">
+      <c r="C123" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="D123" s="175" t="s">
+      <c r="D123" s="174" t="s">
         <v>390</v>
       </c>
       <c r="E123" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F123" s="140" t="s">
+      <c r="F123" s="139" t="s">
         <v>391</v>
       </c>
-      <c r="G123" s="176" t="s">
+      <c r="G123" s="175" t="s">
         <v>392</v>
       </c>
       <c r="H123" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I123" s="138" t="s">
+      <c r="I123" s="137" t="s">
         <v>393</v>
       </c>
-      <c r="J123" s="177" t="s">
+      <c r="J123" s="176" t="s">
         <v>394</v>
       </c>
       <c r="K123" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="L123" s="138" t="s">
+      <c r="L123" s="137" t="s">
         <v>395</v>
       </c>
-      <c r="M123" s="176" t="s">
+      <c r="M123" s="175" t="s">
         <v>396</v>
       </c>
-      <c r="N123" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O123" s="138" t="s">
+      <c r="N123" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O123" s="137" t="s">
         <v>397</v>
       </c>
-      <c r="P123" s="176" t="s">
+      <c r="P123" s="175" t="s">
         <v>398</v>
       </c>
-      <c r="Q123" s="164" t="n">
+      <c r="Q123" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -49787,52 +49821,52 @@
       <c r="A124" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="B124" s="164" t="n">
+      <c r="B124" s="163" t="n">
         <v>200</v>
       </c>
-      <c r="C124" s="175" t="s">
+      <c r="C124" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="D124" s="175" t="s">
+      <c r="D124" s="174" t="s">
         <v>137</v>
       </c>
       <c r="E124" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F124" s="140" t="s">
+      <c r="F124" s="139" t="s">
         <v>400</v>
       </c>
-      <c r="G124" s="176" t="s">
+      <c r="G124" s="175" t="s">
         <v>135</v>
       </c>
       <c r="H124" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I124" s="138" t="s">
+      <c r="I124" s="137" t="s">
         <v>401</v>
       </c>
-      <c r="J124" s="176" t="s">
+      <c r="J124" s="175" t="s">
         <v>118</v>
       </c>
       <c r="K124" s="38" t="n">
         <v>95</v>
       </c>
-      <c r="L124" s="138" t="s">
+      <c r="L124" s="137" t="s">
         <v>402</v>
       </c>
-      <c r="M124" s="176" t="s">
+      <c r="M124" s="175" t="s">
         <v>359</v>
       </c>
-      <c r="N124" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O124" s="138" t="s">
+      <c r="N124" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O124" s="137" t="s">
         <v>403</v>
       </c>
-      <c r="P124" s="176" t="s">
+      <c r="P124" s="175" t="s">
         <v>404</v>
       </c>
-      <c r="Q124" s="164" t="n">
+      <c r="Q124" s="163" t="n">
         <v>95</v>
       </c>
     </row>
@@ -49840,111 +49874,111 @@
       <c r="A125" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="164" t="n">
+      <c r="B125" s="163" t="n">
         <v>150</v>
       </c>
-      <c r="C125" s="175" t="s">
+      <c r="C125" s="174" t="s">
         <v>405</v>
       </c>
-      <c r="D125" s="175" t="s">
+      <c r="D125" s="174" t="s">
         <v>406</v>
       </c>
       <c r="E125" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F125" s="140" t="s">
+      <c r="F125" s="139" t="s">
         <v>407</v>
       </c>
-      <c r="G125" s="176" t="s">
+      <c r="G125" s="175" t="s">
         <v>408</v>
       </c>
       <c r="H125" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I125" s="138" t="s">
+      <c r="I125" s="137" t="s">
         <v>409</v>
       </c>
-      <c r="J125" s="176" t="s">
+      <c r="J125" s="175" t="s">
         <v>311</v>
       </c>
       <c r="K125" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="L125" s="138" t="s">
+      <c r="L125" s="137" t="s">
         <v>410</v>
       </c>
-      <c r="M125" s="176" t="s">
+      <c r="M125" s="175" t="s">
         <v>411</v>
       </c>
-      <c r="N125" s="164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O125" s="138" t="s">
+      <c r="N125" s="163" t="n">
+        <v>100</v>
+      </c>
+      <c r="O125" s="137" t="s">
         <v>412</v>
       </c>
-      <c r="P125" s="176" t="s">
+      <c r="P125" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="Q125" s="164" t="n">
+      <c r="Q125" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="113"/>
-      <c r="B126" s="164"/>
-      <c r="C126" s="175"/>
-      <c r="D126" s="175"/>
+      <c r="B126" s="163"/>
+      <c r="C126" s="174"/>
+      <c r="D126" s="174"/>
       <c r="E126" s="113"/>
-      <c r="F126" s="140"/>
-      <c r="G126" s="176"/>
+      <c r="F126" s="139"/>
+      <c r="G126" s="175"/>
       <c r="H126" s="100"/>
-      <c r="I126" s="138"/>
-      <c r="J126" s="176"/>
+      <c r="I126" s="137"/>
+      <c r="J126" s="175"/>
       <c r="K126" s="100"/>
-      <c r="L126" s="138"/>
-      <c r="M126" s="176"/>
-      <c r="N126" s="164"/>
-      <c r="O126" s="138"/>
-      <c r="P126" s="176"/>
-      <c r="Q126" s="164"/>
+      <c r="L126" s="137"/>
+      <c r="M126" s="175"/>
+      <c r="N126" s="163"/>
+      <c r="O126" s="137"/>
+      <c r="P126" s="175"/>
+      <c r="Q126" s="163"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="113"/>
-      <c r="B127" s="164"/>
-      <c r="C127" s="175"/>
-      <c r="D127" s="175"/>
+      <c r="B127" s="163"/>
+      <c r="C127" s="174"/>
+      <c r="D127" s="174"/>
       <c r="E127" s="113"/>
-      <c r="F127" s="140"/>
-      <c r="G127" s="176"/>
+      <c r="F127" s="139"/>
+      <c r="G127" s="175"/>
       <c r="H127" s="100"/>
-      <c r="I127" s="138"/>
-      <c r="J127" s="176"/>
+      <c r="I127" s="137"/>
+      <c r="J127" s="175"/>
       <c r="K127" s="100"/>
-      <c r="L127" s="138"/>
-      <c r="M127" s="176"/>
-      <c r="N127" s="164"/>
-      <c r="O127" s="138"/>
-      <c r="P127" s="176"/>
-      <c r="Q127" s="164"/>
+      <c r="L127" s="137"/>
+      <c r="M127" s="175"/>
+      <c r="N127" s="163"/>
+      <c r="O127" s="137"/>
+      <c r="P127" s="175"/>
+      <c r="Q127" s="163"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="144"/>
-      <c r="B128" s="168"/>
-      <c r="C128" s="178"/>
-      <c r="D128" s="178"/>
-      <c r="E128" s="144"/>
-      <c r="F128" s="147"/>
-      <c r="G128" s="179"/>
-      <c r="H128" s="157"/>
-      <c r="I128" s="145"/>
-      <c r="J128" s="179"/>
-      <c r="K128" s="157"/>
-      <c r="L128" s="145"/>
-      <c r="M128" s="179"/>
-      <c r="N128" s="168"/>
-      <c r="O128" s="145"/>
-      <c r="P128" s="179"/>
-      <c r="Q128" s="168"/>
+      <c r="A128" s="143"/>
+      <c r="B128" s="167"/>
+      <c r="C128" s="177"/>
+      <c r="D128" s="177"/>
+      <c r="E128" s="143"/>
+      <c r="F128" s="146"/>
+      <c r="G128" s="178"/>
+      <c r="H128" s="156"/>
+      <c r="I128" s="144"/>
+      <c r="J128" s="178"/>
+      <c r="K128" s="156"/>
+      <c r="L128" s="144"/>
+      <c r="M128" s="178"/>
+      <c r="N128" s="167"/>
+      <c r="O128" s="144"/>
+      <c r="P128" s="178"/>
+      <c r="Q128" s="167"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="96" t="s">
@@ -49963,23 +49997,23 @@
       <c r="C132" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="180"/>
-      <c r="E132" s="181"/>
+      <c r="D132" s="179"/>
+      <c r="E132" s="180"/>
       <c r="F132" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="G132" s="180"/>
-      <c r="H132" s="180"/>
+      <c r="G132" s="179"/>
+      <c r="H132" s="179"/>
       <c r="I132" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="J132" s="180"/>
-      <c r="K132" s="181"/>
+      <c r="J132" s="179"/>
+      <c r="K132" s="180"/>
       <c r="L132" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="M132" s="180"/>
-      <c r="N132" s="181"/>
+      <c r="M132" s="179"/>
+      <c r="N132" s="180"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="101" t="s">
@@ -50032,7 +50066,7 @@
       <c r="B134" s="108" t="n">
         <v>200</v>
       </c>
-      <c r="C134" s="150" t="s">
+      <c r="C134" s="149" t="s">
         <v>396</v>
       </c>
       <c r="D134" s="126" t="s">
@@ -50044,10 +50078,10 @@
       <c r="F134" s="135" t="s">
         <v>416</v>
       </c>
-      <c r="G134" s="173" t="s">
+      <c r="G134" s="172" t="s">
         <v>417</v>
       </c>
-      <c r="H134" s="150" t="n">
+      <c r="H134" s="149" t="n">
         <v>100</v>
       </c>
       <c r="I134" s="133" t="s">
@@ -50062,10 +50096,10 @@
       <c r="L134" s="133" t="s">
         <v>420</v>
       </c>
-      <c r="M134" s="173" t="s">
+      <c r="M134" s="172" t="s">
         <v>421</v>
       </c>
-      <c r="N134" s="162" t="n">
+      <c r="N134" s="161" t="n">
         <v>100</v>
       </c>
     </row>
@@ -50079,37 +50113,37 @@
       <c r="C135" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="D135" s="175" t="s">
+      <c r="D135" s="174" t="s">
         <v>423</v>
       </c>
       <c r="E135" s="113" t="n">
         <v>95</v>
       </c>
-      <c r="F135" s="140" t="s">
+      <c r="F135" s="139" t="s">
         <v>424</v>
       </c>
-      <c r="G135" s="176" t="s">
+      <c r="G135" s="175" t="s">
         <v>425</v>
       </c>
       <c r="H135" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I135" s="138" t="s">
+      <c r="I135" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="J135" s="139" t="s">
+      <c r="J135" s="138" t="s">
         <v>427</v>
       </c>
       <c r="K135" s="114" t="n">
         <v>100</v>
       </c>
-      <c r="L135" s="138" t="s">
+      <c r="L135" s="137" t="s">
         <v>428</v>
       </c>
-      <c r="M135" s="176" t="s">
+      <c r="M135" s="175" t="s">
         <v>429</v>
       </c>
-      <c r="N135" s="164" t="n">
+      <c r="N135" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -50123,37 +50157,37 @@
       <c r="C136" s="100" t="s">
         <v>430</v>
       </c>
-      <c r="D136" s="175" t="s">
+      <c r="D136" s="174" t="s">
         <v>431</v>
       </c>
       <c r="E136" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F136" s="140" t="s">
+      <c r="F136" s="139" t="s">
         <v>432</v>
       </c>
-      <c r="G136" s="176" t="s">
+      <c r="G136" s="175" t="s">
         <v>433</v>
       </c>
       <c r="H136" s="100" t="n">
         <v>95</v>
       </c>
-      <c r="I136" s="138" t="s">
+      <c r="I136" s="137" t="s">
         <v>434</v>
       </c>
-      <c r="J136" s="139" t="s">
+      <c r="J136" s="138" t="s">
         <v>435</v>
       </c>
       <c r="K136" s="114" t="n">
         <v>100</v>
       </c>
-      <c r="L136" s="138" t="s">
+      <c r="L136" s="137" t="s">
         <v>436</v>
       </c>
-      <c r="M136" s="176" t="s">
+      <c r="M136" s="175" t="s">
         <v>437</v>
       </c>
-      <c r="N136" s="164" t="n">
+      <c r="N136" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -50167,37 +50201,37 @@
       <c r="C137" s="100" t="s">
         <v>438</v>
       </c>
-      <c r="D137" s="175" t="s">
+      <c r="D137" s="174" t="s">
         <v>400</v>
       </c>
       <c r="E137" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F137" s="140" t="s">
+      <c r="F137" s="139" t="s">
         <v>439</v>
       </c>
-      <c r="G137" s="176" t="s">
+      <c r="G137" s="175" t="s">
         <v>440</v>
       </c>
       <c r="H137" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I137" s="138" t="s">
+      <c r="I137" s="137" t="s">
         <v>441</v>
       </c>
-      <c r="J137" s="182" t="s">
+      <c r="J137" s="181" t="s">
         <v>442</v>
       </c>
       <c r="K137" s="114" t="n">
         <v>100</v>
       </c>
-      <c r="L137" s="138" t="s">
+      <c r="L137" s="137" t="s">
         <v>443</v>
       </c>
-      <c r="M137" s="176" t="s">
+      <c r="M137" s="175" t="s">
         <v>444</v>
       </c>
-      <c r="N137" s="164" t="n">
+      <c r="N137" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -50211,37 +50245,37 @@
       <c r="C138" s="100" t="s">
         <v>445</v>
       </c>
-      <c r="D138" s="175" t="s">
+      <c r="D138" s="174" t="s">
         <v>446</v>
       </c>
       <c r="E138" s="113" t="n">
         <v>74</v>
       </c>
-      <c r="F138" s="140" t="s">
+      <c r="F138" s="139" t="s">
         <v>447</v>
       </c>
-      <c r="G138" s="176" t="s">
+      <c r="G138" s="175" t="s">
         <v>448</v>
       </c>
       <c r="H138" s="100" t="n">
         <v>84</v>
       </c>
-      <c r="I138" s="138" t="s">
+      <c r="I138" s="137" t="s">
         <v>449</v>
       </c>
-      <c r="J138" s="182" t="s">
+      <c r="J138" s="181" t="s">
         <v>450</v>
       </c>
       <c r="K138" s="114" t="n">
         <v>62</v>
       </c>
-      <c r="L138" s="138" t="s">
+      <c r="L138" s="137" t="s">
         <v>451</v>
       </c>
-      <c r="M138" s="176" t="s">
+      <c r="M138" s="175" t="s">
         <v>452</v>
       </c>
-      <c r="N138" s="164" t="n">
+      <c r="N138" s="163" t="n">
         <v>74</v>
       </c>
     </row>
@@ -50255,37 +50289,37 @@
       <c r="C139" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="D139" s="175" t="s">
+      <c r="D139" s="174" t="s">
         <v>454</v>
       </c>
       <c r="E139" s="113" t="n">
         <v>98</v>
       </c>
-      <c r="F139" s="140" t="s">
+      <c r="F139" s="139" t="s">
         <v>455</v>
       </c>
-      <c r="G139" s="176" t="s">
+      <c r="G139" s="175" t="s">
         <v>456</v>
       </c>
       <c r="H139" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I139" s="138" t="s">
+      <c r="I139" s="137" t="s">
         <v>457</v>
       </c>
-      <c r="J139" s="139" t="s">
+      <c r="J139" s="138" t="s">
         <v>458</v>
       </c>
       <c r="K139" s="114" t="n">
         <v>100</v>
       </c>
-      <c r="L139" s="138" t="s">
+      <c r="L139" s="137" t="s">
         <v>459</v>
       </c>
-      <c r="M139" s="176" t="s">
+      <c r="M139" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="N139" s="164" t="n">
+      <c r="N139" s="163" t="n">
         <v>100</v>
       </c>
     </row>
@@ -50299,89 +50333,89 @@
       <c r="C140" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="D140" s="175" t="s">
+      <c r="D140" s="174" t="s">
         <v>305</v>
       </c>
       <c r="E140" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F140" s="140" t="s">
+      <c r="F140" s="139" t="s">
         <v>462</v>
       </c>
-      <c r="G140" s="176" t="s">
+      <c r="G140" s="175" t="s">
         <v>463</v>
       </c>
       <c r="H140" s="100" t="n">
         <v>100</v>
       </c>
-      <c r="I140" s="138" t="s">
+      <c r="I140" s="137" t="s">
         <v>464</v>
       </c>
-      <c r="J140" s="139" t="s">
+      <c r="J140" s="138" t="s">
         <v>305</v>
       </c>
       <c r="K140" s="114" t="n">
         <v>100</v>
       </c>
-      <c r="L140" s="138" t="s">
+      <c r="L140" s="137" t="s">
         <v>465</v>
       </c>
-      <c r="M140" s="176" t="s">
+      <c r="M140" s="175" t="s">
         <v>301</v>
       </c>
-      <c r="N140" s="164" t="n">
+      <c r="N140" s="163" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="175"/>
+      <c r="A141" s="174"/>
       <c r="B141" s="113"/>
       <c r="C141" s="100"/>
-      <c r="D141" s="175"/>
+      <c r="D141" s="174"/>
       <c r="E141" s="113"/>
-      <c r="F141" s="140"/>
-      <c r="G141" s="176"/>
+      <c r="F141" s="139"/>
+      <c r="G141" s="175"/>
       <c r="H141" s="100"/>
-      <c r="I141" s="138"/>
-      <c r="K141" s="183"/>
-      <c r="L141" s="138"/>
-      <c r="M141" s="176"/>
-      <c r="N141" s="164"/>
+      <c r="I141" s="137"/>
+      <c r="K141" s="182"/>
+      <c r="L141" s="137"/>
+      <c r="M141" s="175"/>
+      <c r="N141" s="163"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="175"/>
+      <c r="A142" s="174"/>
       <c r="B142" s="113"/>
       <c r="C142" s="100"/>
-      <c r="D142" s="175"/>
+      <c r="D142" s="174"/>
       <c r="E142" s="113"/>
-      <c r="F142" s="140"/>
-      <c r="G142" s="176"/>
+      <c r="F142" s="139"/>
+      <c r="G142" s="175"/>
       <c r="H142" s="100"/>
-      <c r="I142" s="138"/>
-      <c r="J142" s="139"/>
+      <c r="I142" s="137"/>
+      <c r="J142" s="138"/>
       <c r="K142" s="114"/>
-      <c r="L142" s="138"/>
-      <c r="M142" s="176"/>
-      <c r="N142" s="164"/>
+      <c r="L142" s="137"/>
+      <c r="M142" s="175"/>
+      <c r="N142" s="163"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="178"/>
-      <c r="B143" s="144"/>
-      <c r="C143" s="157"/>
-      <c r="D143" s="178"/>
-      <c r="E143" s="144"/>
-      <c r="F143" s="147"/>
-      <c r="G143" s="179"/>
-      <c r="H143" s="157"/>
-      <c r="I143" s="145"/>
-      <c r="J143" s="146"/>
-      <c r="K143" s="184"/>
-      <c r="L143" s="145"/>
-      <c r="M143" s="179"/>
-      <c r="N143" s="168"/>
+      <c r="A143" s="177"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="156"/>
+      <c r="D143" s="177"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="146"/>
+      <c r="G143" s="178"/>
+      <c r="H143" s="156"/>
+      <c r="I143" s="144"/>
+      <c r="J143" s="145"/>
+      <c r="K143" s="183"/>
+      <c r="L143" s="144"/>
+      <c r="M143" s="178"/>
+      <c r="N143" s="167"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="149" t="s">
+      <c r="A147" s="148" t="s">
         <v>294</v>
       </c>
       <c r="B147" s="7"/>
@@ -50410,23 +50444,23 @@
       <c r="C148" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="D148" s="150"/>
-      <c r="E148" s="181"/>
+      <c r="D148" s="149"/>
+      <c r="E148" s="180"/>
       <c r="F148" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="G148" s="150"/>
-      <c r="H148" s="180"/>
+      <c r="G148" s="149"/>
+      <c r="H148" s="179"/>
       <c r="I148" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="J148" s="150"/>
-      <c r="K148" s="181"/>
+      <c r="J148" s="149"/>
+      <c r="K148" s="180"/>
       <c r="L148" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="M148" s="180"/>
-      <c r="N148" s="181"/>
+      <c r="M148" s="179"/>
+      <c r="N148" s="180"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="43" t="s">
@@ -50476,40 +50510,40 @@
       <c r="A150" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="B150" s="150" t="n">
+      <c r="B150" s="149" t="n">
         <v>250</v>
       </c>
-      <c r="C150" s="185" t="n">
+      <c r="C150" s="184" t="n">
         <v>0.388352110908682</v>
       </c>
-      <c r="D150" s="152" t="n">
+      <c r="D150" s="151" t="n">
         <v>0.0211575447986606</v>
       </c>
       <c r="E150" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="F150" s="186" t="n">
+      <c r="F150" s="185" t="n">
         <v>1.27377140233634</v>
       </c>
-      <c r="G150" s="152" t="n">
+      <c r="G150" s="151" t="n">
         <v>0.220844207861992</v>
       </c>
       <c r="H150" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="I150" s="187" t="n">
+      <c r="I150" s="186" t="n">
         <v>0.733274727694985</v>
       </c>
-      <c r="J150" s="152" t="n">
+      <c r="J150" s="151" t="n">
         <v>0.0226453152322127</v>
       </c>
       <c r="K150" s="108" t="n">
         <v>100</v>
       </c>
-      <c r="L150" s="188" t="n">
+      <c r="L150" s="187" t="n">
         <v>0.821923159391699</v>
       </c>
-      <c r="M150" s="152" t="n">
+      <c r="M150" s="151" t="n">
         <v>0.0646108456103284</v>
       </c>
       <c r="N150" s="108" t="n">
@@ -50517,43 +50551,43 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="137" t="n">
+      <c r="A151" s="136" t="n">
         <v>0.02</v>
       </c>
       <c r="B151" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C151" s="189" t="n">
+      <c r="C151" s="188" t="n">
         <v>0.917306958904853</v>
       </c>
-      <c r="D151" s="155" t="n">
+      <c r="D151" s="154" t="n">
         <v>0.0625440464810464</v>
       </c>
       <c r="E151" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F151" s="190" t="n">
+      <c r="F151" s="189" t="n">
         <v>0.834422752254752</v>
       </c>
-      <c r="G151" s="155" t="n">
+      <c r="G151" s="154" t="n">
         <v>0.195831387743499</v>
       </c>
       <c r="H151" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I151" s="191" t="n">
+      <c r="I151" s="190" t="n">
         <v>0.525831898627212</v>
       </c>
-      <c r="J151" s="155" t="n">
+      <c r="J151" s="154" t="n">
         <v>0.0230646105772513</v>
       </c>
       <c r="K151" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L151" s="192" t="n">
+      <c r="L151" s="191" t="n">
         <v>0.595017760239026</v>
       </c>
-      <c r="M151" s="155" t="n">
+      <c r="M151" s="154" t="n">
         <v>0.0349808064537774</v>
       </c>
       <c r="N151" s="113" t="n">
@@ -50561,43 +50595,43 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="137" t="n">
+      <c r="A152" s="136" t="n">
         <v>0.04</v>
       </c>
       <c r="B152" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C152" s="189" t="n">
+      <c r="C152" s="188" t="n">
         <v>1.36002451484817</v>
       </c>
-      <c r="D152" s="155" t="n">
+      <c r="D152" s="154" t="n">
         <v>0.226104659751252</v>
       </c>
       <c r="E152" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F152" s="190" t="n">
+      <c r="F152" s="189" t="n">
         <v>0.762162264636062</v>
       </c>
-      <c r="G152" s="155" t="n">
+      <c r="G152" s="154" t="n">
         <v>0.0346592330547265</v>
       </c>
       <c r="H152" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I152" s="191" t="n">
+      <c r="I152" s="190" t="n">
         <v>0.841503864452977</v>
       </c>
-      <c r="J152" s="155" t="n">
+      <c r="J152" s="154" t="n">
         <v>0.0274411248297745</v>
       </c>
       <c r="K152" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L152" s="192" t="n">
+      <c r="L152" s="191" t="n">
         <v>1.09490449232998</v>
       </c>
-      <c r="M152" s="155" t="n">
+      <c r="M152" s="154" t="n">
         <v>0.112478424221605</v>
       </c>
       <c r="N152" s="113" t="n">
@@ -50605,83 +50639,83 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="137" t="n">
+      <c r="A153" s="136" t="n">
         <v>0.06</v>
       </c>
       <c r="B153" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C153" s="189"/>
-      <c r="D153" s="155"/>
+      <c r="C153" s="188"/>
+      <c r="D153" s="154"/>
       <c r="E153" s="113"/>
-      <c r="F153" s="190"/>
-      <c r="G153" s="155"/>
+      <c r="F153" s="189"/>
+      <c r="G153" s="154"/>
       <c r="H153" s="113"/>
-      <c r="I153" s="191"/>
-      <c r="J153" s="155"/>
+      <c r="I153" s="190"/>
+      <c r="J153" s="154"/>
       <c r="K153" s="113"/>
-      <c r="L153" s="192"/>
-      <c r="M153" s="155"/>
+      <c r="L153" s="191"/>
+      <c r="M153" s="154"/>
       <c r="N153" s="113"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="137" t="n">
+      <c r="A154" s="136" t="n">
         <v>0.08</v>
       </c>
       <c r="B154" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C154" s="189"/>
-      <c r="D154" s="155"/>
+      <c r="C154" s="188"/>
+      <c r="D154" s="154"/>
       <c r="E154" s="113"/>
-      <c r="F154" s="190"/>
-      <c r="G154" s="155"/>
+      <c r="F154" s="189"/>
+      <c r="G154" s="154"/>
       <c r="H154" s="113"/>
-      <c r="I154" s="191"/>
-      <c r="J154" s="155"/>
+      <c r="I154" s="190"/>
+      <c r="J154" s="154"/>
       <c r="K154" s="113"/>
-      <c r="L154" s="192"/>
-      <c r="M154" s="155"/>
+      <c r="L154" s="191"/>
+      <c r="M154" s="154"/>
       <c r="N154" s="113"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="137" t="n">
+      <c r="A155" s="136" t="n">
         <v>0.1</v>
       </c>
       <c r="B155" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C155" s="189" t="n">
+      <c r="C155" s="188" t="n">
         <v>0.887901319256081</v>
       </c>
-      <c r="D155" s="155" t="n">
+      <c r="D155" s="154" t="n">
         <v>0.0627751650360731</v>
       </c>
       <c r="E155" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F155" s="190" t="n">
+      <c r="F155" s="189" t="n">
         <v>0.835901922367724</v>
       </c>
-      <c r="G155" s="155" t="n">
+      <c r="G155" s="154" t="n">
         <v>0.112501610904606</v>
       </c>
       <c r="H155" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I155" s="191" t="n">
+      <c r="I155" s="190" t="n">
         <v>1.0211819188859</v>
       </c>
-      <c r="J155" s="155" t="n">
+      <c r="J155" s="154" t="n">
         <v>0.149591300740726</v>
       </c>
       <c r="K155" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L155" s="192" t="n">
+      <c r="L155" s="191" t="n">
         <v>1.09656346674882</v>
       </c>
-      <c r="M155" s="155" t="n">
+      <c r="M155" s="154" t="n">
         <v>0.219790898152604</v>
       </c>
       <c r="N155" s="113" t="n">
@@ -50689,83 +50723,83 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="137" t="n">
+      <c r="A156" s="136" t="n">
         <v>0.12</v>
       </c>
       <c r="B156" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C156" s="189"/>
-      <c r="D156" s="155"/>
+      <c r="C156" s="188"/>
+      <c r="D156" s="154"/>
       <c r="E156" s="113"/>
-      <c r="F156" s="190"/>
-      <c r="G156" s="155"/>
+      <c r="F156" s="189"/>
+      <c r="G156" s="154"/>
       <c r="H156" s="113"/>
-      <c r="I156" s="191"/>
-      <c r="J156" s="155"/>
+      <c r="I156" s="190"/>
+      <c r="J156" s="154"/>
       <c r="K156" s="113"/>
-      <c r="L156" s="192"/>
-      <c r="M156" s="155"/>
+      <c r="L156" s="191"/>
+      <c r="M156" s="154"/>
       <c r="N156" s="113"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="137" t="n">
+      <c r="A157" s="136" t="n">
         <v>0.14</v>
       </c>
       <c r="B157" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C157" s="189"/>
-      <c r="D157" s="155"/>
+      <c r="C157" s="188"/>
+      <c r="D157" s="154"/>
       <c r="E157" s="113"/>
-      <c r="F157" s="190"/>
-      <c r="G157" s="155"/>
+      <c r="F157" s="189"/>
+      <c r="G157" s="154"/>
       <c r="H157" s="113"/>
-      <c r="I157" s="191"/>
-      <c r="J157" s="155"/>
+      <c r="I157" s="190"/>
+      <c r="J157" s="154"/>
       <c r="K157" s="113"/>
-      <c r="L157" s="192"/>
-      <c r="M157" s="155"/>
+      <c r="L157" s="191"/>
+      <c r="M157" s="154"/>
       <c r="N157" s="113"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="137" t="n">
+      <c r="A158" s="136" t="n">
         <v>0.16</v>
       </c>
       <c r="B158" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C158" s="189" t="n">
+      <c r="C158" s="188" t="n">
         <v>0.584287917977644</v>
       </c>
-      <c r="D158" s="155" t="n">
+      <c r="D158" s="154" t="n">
         <v>0.0653719072772059</v>
       </c>
       <c r="E158" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F158" s="190" t="n">
+      <c r="F158" s="189" t="n">
         <v>1.90507700322048</v>
       </c>
-      <c r="G158" s="155" t="n">
+      <c r="G158" s="154" t="n">
         <v>0.082878364826887</v>
       </c>
       <c r="H158" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I158" s="191" t="n">
+      <c r="I158" s="190" t="n">
         <v>1.88489287665855</v>
       </c>
-      <c r="J158" s="155" t="n">
+      <c r="J158" s="154" t="n">
         <v>0.129831572389836</v>
       </c>
       <c r="K158" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L158" s="192" t="n">
+      <c r="L158" s="191" t="n">
         <v>1.04821122139444</v>
       </c>
-      <c r="M158" s="155" t="n">
+      <c r="M158" s="154" t="n">
         <v>0.0790289247148714</v>
       </c>
       <c r="N158" s="113" t="n">
@@ -50773,63 +50807,63 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="137" t="n">
+      <c r="A159" s="136" t="n">
         <v>0.18</v>
       </c>
       <c r="B159" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C159" s="189"/>
-      <c r="D159" s="155"/>
+      <c r="C159" s="188"/>
+      <c r="D159" s="154"/>
       <c r="E159" s="113"/>
-      <c r="F159" s="190"/>
-      <c r="G159" s="155"/>
+      <c r="F159" s="189"/>
+      <c r="G159" s="154"/>
       <c r="H159" s="113"/>
-      <c r="I159" s="191"/>
-      <c r="J159" s="155"/>
+      <c r="I159" s="190"/>
+      <c r="J159" s="154"/>
       <c r="K159" s="113"/>
-      <c r="L159" s="192"/>
-      <c r="M159" s="155"/>
+      <c r="L159" s="191"/>
+      <c r="M159" s="154"/>
       <c r="N159" s="113"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="137" t="n">
+      <c r="A160" s="136" t="n">
         <v>0.2</v>
       </c>
       <c r="B160" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C160" s="189" t="n">
+      <c r="C160" s="188" t="n">
         <v>1.11053076668088</v>
       </c>
-      <c r="D160" s="155" t="n">
+      <c r="D160" s="154" t="n">
         <v>0.1383483614439</v>
       </c>
       <c r="E160" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F160" s="190" t="n">
+      <c r="F160" s="189" t="n">
         <v>0.62346190710833</v>
       </c>
-      <c r="G160" s="155" t="n">
+      <c r="G160" s="154" t="n">
         <v>0.0691964259098617</v>
       </c>
       <c r="H160" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I160" s="191" t="n">
+      <c r="I160" s="190" t="n">
         <v>0.356730196657184</v>
       </c>
-      <c r="J160" s="155" t="n">
+      <c r="J160" s="154" t="n">
         <v>0.0701778530299288</v>
       </c>
       <c r="K160" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L160" s="192" t="n">
+      <c r="L160" s="191" t="n">
         <v>0.830726385653396</v>
       </c>
-      <c r="M160" s="155" t="n">
+      <c r="M160" s="154" t="n">
         <v>0.121696866519616</v>
       </c>
       <c r="N160" s="113" t="n">
@@ -50837,83 +50871,83 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="137" t="n">
+      <c r="A161" s="136" t="n">
         <v>0.22</v>
       </c>
       <c r="B161" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C161" s="189"/>
-      <c r="D161" s="155"/>
+      <c r="C161" s="188"/>
+      <c r="D161" s="154"/>
       <c r="E161" s="113"/>
-      <c r="F161" s="190"/>
-      <c r="G161" s="155"/>
+      <c r="F161" s="189"/>
+      <c r="G161" s="154"/>
       <c r="H161" s="113"/>
-      <c r="I161" s="191"/>
-      <c r="J161" s="155"/>
+      <c r="I161" s="190"/>
+      <c r="J161" s="154"/>
       <c r="K161" s="113"/>
-      <c r="L161" s="192"/>
-      <c r="M161" s="155"/>
+      <c r="L161" s="191"/>
+      <c r="M161" s="154"/>
       <c r="N161" s="113"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="137" t="n">
+      <c r="A162" s="136" t="n">
         <v>0.24</v>
       </c>
       <c r="B162" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C162" s="189"/>
-      <c r="D162" s="155"/>
+      <c r="C162" s="188"/>
+      <c r="D162" s="154"/>
       <c r="E162" s="113"/>
-      <c r="F162" s="190"/>
-      <c r="G162" s="155"/>
+      <c r="F162" s="189"/>
+      <c r="G162" s="154"/>
       <c r="H162" s="113"/>
-      <c r="I162" s="191"/>
-      <c r="J162" s="155"/>
+      <c r="I162" s="190"/>
+      <c r="J162" s="154"/>
       <c r="K162" s="113"/>
-      <c r="L162" s="192"/>
-      <c r="M162" s="155"/>
+      <c r="L162" s="191"/>
+      <c r="M162" s="154"/>
       <c r="N162" s="113"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="137" t="n">
+      <c r="A163" s="136" t="n">
         <v>0.26</v>
       </c>
       <c r="B163" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C163" s="189" t="n">
+      <c r="C163" s="188" t="n">
         <v>0.835676775750587</v>
       </c>
-      <c r="D163" s="155" t="n">
+      <c r="D163" s="154" t="n">
         <v>0.0460671315438134</v>
       </c>
       <c r="E163" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F163" s="190" t="n">
+      <c r="F163" s="189" t="n">
         <v>0.984863050034462</v>
       </c>
-      <c r="G163" s="155" t="n">
+      <c r="G163" s="154" t="n">
         <v>0.00902722193077116</v>
       </c>
       <c r="H163" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I163" s="191" t="n">
+      <c r="I163" s="190" t="n">
         <v>0.479286972635613</v>
       </c>
-      <c r="J163" s="155" t="n">
+      <c r="J163" s="154" t="n">
         <v>0.0743964918045066</v>
       </c>
       <c r="K163" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L163" s="192" t="n">
+      <c r="L163" s="191" t="n">
         <v>1.31036242941548</v>
       </c>
-      <c r="M163" s="155" t="n">
+      <c r="M163" s="154" t="n">
         <v>0.0279392031644335</v>
       </c>
       <c r="N163" s="113" t="n">
@@ -50921,63 +50955,63 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="137" t="n">
+      <c r="A164" s="136" t="n">
         <v>0.28</v>
       </c>
       <c r="B164" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C164" s="189"/>
-      <c r="D164" s="155"/>
+      <c r="C164" s="188"/>
+      <c r="D164" s="154"/>
       <c r="E164" s="113"/>
-      <c r="F164" s="190"/>
-      <c r="G164" s="155"/>
+      <c r="F164" s="189"/>
+      <c r="G164" s="154"/>
       <c r="H164" s="113"/>
-      <c r="I164" s="191"/>
-      <c r="J164" s="155"/>
+      <c r="I164" s="190"/>
+      <c r="J164" s="154"/>
       <c r="K164" s="113"/>
-      <c r="L164" s="192"/>
-      <c r="M164" s="155"/>
+      <c r="L164" s="191"/>
+      <c r="M164" s="154"/>
       <c r="N164" s="113"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="137" t="n">
+      <c r="A165" s="136" t="n">
         <v>0.3</v>
       </c>
       <c r="B165" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C165" s="189" t="n">
+      <c r="C165" s="188" t="n">
         <v>0.577357639896919</v>
       </c>
-      <c r="D165" s="155" t="n">
+      <c r="D165" s="154" t="n">
         <v>0.0475856524156531</v>
       </c>
       <c r="E165" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F165" s="190" t="n">
+      <c r="F165" s="189" t="n">
         <v>0.433023516277513</v>
       </c>
-      <c r="G165" s="155" t="n">
+      <c r="G165" s="154" t="n">
         <v>0.0516589652697779</v>
       </c>
       <c r="H165" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I165" s="191" t="n">
+      <c r="I165" s="190" t="n">
         <v>0.255780666629183</v>
       </c>
-      <c r="J165" s="155" t="n">
+      <c r="J165" s="154" t="n">
         <v>0.136898659894115</v>
       </c>
       <c r="K165" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L165" s="192" t="n">
+      <c r="L165" s="191" t="n">
         <v>1.20271374267154</v>
       </c>
-      <c r="M165" s="155" t="n">
+      <c r="M165" s="154" t="n">
         <v>0.0517617283554729</v>
       </c>
       <c r="N165" s="113" t="n">
@@ -50985,83 +51019,83 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="137" t="n">
+      <c r="A166" s="136" t="n">
         <v>0.32</v>
       </c>
       <c r="B166" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C166" s="189"/>
-      <c r="D166" s="155"/>
+      <c r="C166" s="188"/>
+      <c r="D166" s="154"/>
       <c r="E166" s="113"/>
-      <c r="F166" s="190"/>
-      <c r="G166" s="155"/>
+      <c r="F166" s="189"/>
+      <c r="G166" s="154"/>
       <c r="H166" s="113"/>
-      <c r="I166" s="191"/>
-      <c r="J166" s="155"/>
+      <c r="I166" s="190"/>
+      <c r="J166" s="154"/>
       <c r="K166" s="113"/>
-      <c r="L166" s="192"/>
-      <c r="M166" s="155"/>
+      <c r="L166" s="191"/>
+      <c r="M166" s="154"/>
       <c r="N166" s="113"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="137" t="n">
+      <c r="A167" s="136" t="n">
         <v>0.34</v>
       </c>
       <c r="B167" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C167" s="189"/>
-      <c r="D167" s="155"/>
+      <c r="C167" s="188"/>
+      <c r="D167" s="154"/>
       <c r="E167" s="113"/>
-      <c r="F167" s="190"/>
-      <c r="G167" s="155"/>
+      <c r="F167" s="189"/>
+      <c r="G167" s="154"/>
       <c r="H167" s="113"/>
-      <c r="I167" s="191"/>
-      <c r="J167" s="155"/>
+      <c r="I167" s="190"/>
+      <c r="J167" s="154"/>
       <c r="K167" s="113"/>
-      <c r="L167" s="192"/>
-      <c r="M167" s="155"/>
+      <c r="L167" s="191"/>
+      <c r="M167" s="154"/>
       <c r="N167" s="113"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="137" t="n">
+      <c r="A168" s="136" t="n">
         <v>0.36</v>
       </c>
       <c r="B168" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C168" s="189" t="n">
+      <c r="C168" s="188" t="n">
         <v>3.08363932551821</v>
       </c>
-      <c r="D168" s="155" t="n">
+      <c r="D168" s="154" t="n">
         <v>0.131525944389518</v>
       </c>
       <c r="E168" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F168" s="190" t="n">
+      <c r="F168" s="189" t="n">
         <v>0.293342565083109</v>
       </c>
-      <c r="G168" s="155" t="n">
+      <c r="G168" s="154" t="n">
         <v>0.0470456315949093</v>
       </c>
       <c r="H168" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I168" s="191" t="n">
+      <c r="I168" s="190" t="n">
         <v>3.02581478533242</v>
       </c>
-      <c r="J168" s="155" t="n">
+      <c r="J168" s="154" t="n">
         <v>0.133694980073666</v>
       </c>
       <c r="K168" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L168" s="192" t="n">
+      <c r="L168" s="191" t="n">
         <v>1.7585433477949</v>
       </c>
-      <c r="M168" s="155" t="n">
+      <c r="M168" s="154" t="n">
         <v>0.289374045624604</v>
       </c>
       <c r="N168" s="113" t="n">
@@ -51069,145 +51103,145 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="137" t="n">
+      <c r="A169" s="136" t="n">
         <v>0.38</v>
       </c>
       <c r="B169" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C169" s="189"/>
-      <c r="D169" s="155"/>
+      <c r="C169" s="188"/>
+      <c r="D169" s="154"/>
       <c r="E169" s="113"/>
-      <c r="F169" s="190"/>
-      <c r="G169" s="155"/>
+      <c r="F169" s="189"/>
+      <c r="G169" s="154"/>
       <c r="H169" s="113"/>
-      <c r="I169" s="191"/>
-      <c r="J169" s="155"/>
+      <c r="I169" s="190"/>
+      <c r="J169" s="154"/>
       <c r="K169" s="113"/>
-      <c r="L169" s="192"/>
-      <c r="M169" s="155"/>
+      <c r="L169" s="191"/>
+      <c r="M169" s="154"/>
       <c r="N169" s="113"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="137" t="n">
+      <c r="A170" s="136" t="n">
         <v>0.4</v>
       </c>
       <c r="B170" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C170" s="189" t="n">
+      <c r="C170" s="188" t="n">
         <v>1.88624454959326</v>
       </c>
-      <c r="D170" s="155" t="n">
+      <c r="D170" s="154" t="n">
         <v>0.139223742041452</v>
       </c>
       <c r="E170" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F170" s="190" t="n">
+      <c r="F170" s="189" t="n">
         <v>0.817674186763079</v>
       </c>
-      <c r="G170" s="155" t="n">
+      <c r="G170" s="154" t="n">
         <v>0.0590334361902478</v>
       </c>
       <c r="H170" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I170" s="191" t="n">
+      <c r="I170" s="190" t="n">
         <v>0.452297717117389</v>
       </c>
-      <c r="J170" s="155" t="n">
+      <c r="J170" s="154" t="n">
         <v>0.109497301004402</v>
       </c>
       <c r="K170" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L170" s="192" t="n">
-        <v>0</v>
-      </c>
-      <c r="M170" s="155"/>
+      <c r="L170" s="191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" s="154"/>
       <c r="N170" s="113" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="137" t="n">
+      <c r="A171" s="136" t="n">
         <v>0.42</v>
       </c>
       <c r="B171" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C171" s="189"/>
-      <c r="D171" s="155"/>
+      <c r="C171" s="188"/>
+      <c r="D171" s="154"/>
       <c r="E171" s="113"/>
-      <c r="F171" s="190"/>
-      <c r="G171" s="155"/>
+      <c r="F171" s="189"/>
+      <c r="G171" s="154"/>
       <c r="H171" s="113"/>
-      <c r="I171" s="191"/>
-      <c r="J171" s="155"/>
+      <c r="I171" s="190"/>
+      <c r="J171" s="154"/>
       <c r="K171" s="113"/>
-      <c r="L171" s="192"/>
-      <c r="M171" s="155"/>
+      <c r="L171" s="191"/>
+      <c r="M171" s="154"/>
       <c r="N171" s="113"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="137" t="n">
+      <c r="A172" s="136" t="n">
         <v>0.44</v>
       </c>
       <c r="B172" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C172" s="189"/>
-      <c r="D172" s="155"/>
+      <c r="C172" s="188"/>
+      <c r="D172" s="154"/>
       <c r="E172" s="113"/>
-      <c r="F172" s="190"/>
-      <c r="G172" s="155"/>
+      <c r="F172" s="189"/>
+      <c r="G172" s="154"/>
       <c r="H172" s="113"/>
-      <c r="I172" s="191"/>
-      <c r="J172" s="155"/>
+      <c r="I172" s="190"/>
+      <c r="J172" s="154"/>
       <c r="K172" s="113"/>
-      <c r="L172" s="192"/>
-      <c r="M172" s="155"/>
+      <c r="L172" s="191"/>
+      <c r="M172" s="154"/>
       <c r="N172" s="113"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="137" t="n">
+      <c r="A173" s="136" t="n">
         <v>0.46</v>
       </c>
       <c r="B173" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C173" s="189" t="n">
+      <c r="C173" s="188" t="n">
         <v>1.12963491723881</v>
       </c>
-      <c r="D173" s="155" t="n">
+      <c r="D173" s="154" t="n">
         <v>0.206756731754294</v>
       </c>
       <c r="E173" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F173" s="190" t="n">
+      <c r="F173" s="189" t="n">
         <v>1.0070331413663</v>
       </c>
-      <c r="G173" s="155" t="n">
+      <c r="G173" s="154" t="n">
         <v>0.0688489356566521</v>
       </c>
       <c r="H173" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I173" s="191" t="n">
+      <c r="I173" s="190" t="n">
         <v>0.869969773763628</v>
       </c>
-      <c r="J173" s="155" t="n">
+      <c r="J173" s="154" t="n">
         <v>0.198193059822201</v>
       </c>
       <c r="K173" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L173" s="192" t="n">
+      <c r="L173" s="191" t="n">
         <v>1.31580612255441</v>
       </c>
-      <c r="M173" s="155" t="n">
+      <c r="M173" s="154" t="n">
         <v>0.127810035127366</v>
       </c>
       <c r="N173" s="113" t="n">
@@ -51215,63 +51249,63 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="137" t="n">
+      <c r="A174" s="136" t="n">
         <v>0.48</v>
       </c>
       <c r="B174" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C174" s="189"/>
-      <c r="D174" s="155"/>
+      <c r="C174" s="188"/>
+      <c r="D174" s="154"/>
       <c r="E174" s="113"/>
-      <c r="F174" s="190"/>
-      <c r="G174" s="155"/>
+      <c r="F174" s="189"/>
+      <c r="G174" s="154"/>
       <c r="H174" s="113"/>
-      <c r="I174" s="191"/>
-      <c r="J174" s="155"/>
+      <c r="I174" s="190"/>
+      <c r="J174" s="154"/>
       <c r="K174" s="113"/>
-      <c r="L174" s="192"/>
-      <c r="M174" s="155"/>
+      <c r="L174" s="191"/>
+      <c r="M174" s="154"/>
       <c r="N174" s="113"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="137" t="n">
+      <c r="A175" s="136" t="n">
         <v>0.5</v>
       </c>
       <c r="B175" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C175" s="189" t="n">
+      <c r="C175" s="188" t="n">
         <v>0.525947938753597</v>
       </c>
-      <c r="D175" s="155" t="n">
+      <c r="D175" s="154" t="n">
         <v>0.0639785028523505</v>
       </c>
       <c r="E175" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F175" s="190" t="n">
+      <c r="F175" s="189" t="n">
         <v>0.452014129212761</v>
       </c>
-      <c r="G175" s="155" t="n">
+      <c r="G175" s="154" t="n">
         <v>0.0522737153417083</v>
       </c>
       <c r="H175" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I175" s="191" t="n">
+      <c r="I175" s="190" t="n">
         <v>1.01101361939968</v>
       </c>
-      <c r="J175" s="155" t="n">
+      <c r="J175" s="154" t="n">
         <v>0.191855485932225</v>
       </c>
       <c r="K175" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L175" s="192" t="n">
+      <c r="L175" s="191" t="n">
         <v>0.561831503939895</v>
       </c>
-      <c r="M175" s="155" t="n">
+      <c r="M175" s="154" t="n">
         <v>0.199022903588039</v>
       </c>
       <c r="N175" s="113" t="n">
@@ -51279,57 +51313,57 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="137" t="n">
+      <c r="A176" s="136" t="n">
         <v>0.52</v>
       </c>
       <c r="B176" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C176" s="189"/>
-      <c r="D176" s="155"/>
+      <c r="C176" s="188"/>
+      <c r="D176" s="154"/>
       <c r="E176" s="113"/>
-      <c r="F176" s="190"/>
-      <c r="G176" s="155"/>
+      <c r="F176" s="189"/>
+      <c r="G176" s="154"/>
       <c r="H176" s="113"/>
-      <c r="I176" s="191"/>
-      <c r="J176" s="155"/>
+      <c r="I176" s="190"/>
+      <c r="J176" s="154"/>
       <c r="K176" s="113"/>
-      <c r="L176" s="192"/>
-      <c r="M176" s="155"/>
+      <c r="L176" s="191"/>
+      <c r="M176" s="154"/>
       <c r="N176" s="113"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="137" t="n">
+      <c r="A177" s="136" t="n">
         <v>0.55</v>
       </c>
       <c r="B177" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C177" s="189"/>
-      <c r="D177" s="155"/>
+      <c r="C177" s="188"/>
+      <c r="D177" s="154"/>
       <c r="E177" s="113"/>
-      <c r="F177" s="190" t="n">
+      <c r="F177" s="189" t="n">
         <v>0.501500511519095</v>
       </c>
-      <c r="G177" s="155" t="n">
+      <c r="G177" s="154" t="n">
         <v>0.0660892425304163</v>
       </c>
       <c r="H177" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I177" s="191" t="n">
+      <c r="I177" s="190" t="n">
         <v>3.00603725993049</v>
       </c>
-      <c r="J177" s="155" t="n">
+      <c r="J177" s="154" t="n">
         <v>0.140814951865826</v>
       </c>
       <c r="K177" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L177" s="192" t="n">
+      <c r="L177" s="191" t="n">
         <v>5.21423284579615</v>
       </c>
-      <c r="M177" s="155" t="n">
+      <c r="M177" s="154" t="n">
         <v>0.0827770227559486</v>
       </c>
       <c r="N177" s="113" t="n">
@@ -51337,43 +51371,43 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="137" t="n">
+      <c r="A178" s="136" t="n">
         <v>0.6</v>
       </c>
       <c r="B178" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C178" s="189" t="n">
+      <c r="C178" s="188" t="n">
         <v>0.964560484409378</v>
       </c>
-      <c r="D178" s="155" t="n">
+      <c r="D178" s="154" t="n">
         <v>0.104081989295846</v>
       </c>
       <c r="E178" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F178" s="190" t="n">
+      <c r="F178" s="189" t="n">
         <v>2.56231496671189</v>
       </c>
-      <c r="G178" s="155" t="n">
+      <c r="G178" s="154" t="n">
         <v>0.288446354525256</v>
       </c>
       <c r="H178" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I178" s="191" t="n">
+      <c r="I178" s="190" t="n">
         <v>0.961318770918386</v>
       </c>
-      <c r="J178" s="155" t="n">
+      <c r="J178" s="154" t="n">
         <v>0.0493994187621979</v>
       </c>
       <c r="K178" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L178" s="192" t="n">
+      <c r="L178" s="191" t="n">
         <v>1.79287663126314</v>
       </c>
-      <c r="M178" s="155" t="n">
+      <c r="M178" s="154" t="n">
         <v>0.136424923987144</v>
       </c>
       <c r="N178" s="113" t="n">
@@ -51381,43 +51415,43 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="137" t="n">
+      <c r="A179" s="136" t="n">
         <v>0.65</v>
       </c>
       <c r="B179" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C179" s="189" t="n">
+      <c r="C179" s="188" t="n">
         <v>2.39373469581046</v>
       </c>
-      <c r="D179" s="155" t="n">
+      <c r="D179" s="154" t="n">
         <v>0.076831701556458</v>
       </c>
       <c r="E179" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F179" s="190" t="n">
+      <c r="F179" s="189" t="n">
         <v>0.573152069660461</v>
       </c>
-      <c r="G179" s="155" t="n">
+      <c r="G179" s="154" t="n">
         <v>0.102872021227301</v>
       </c>
       <c r="H179" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I179" s="191" t="n">
+      <c r="I179" s="190" t="n">
         <v>2.31383548418377</v>
       </c>
-      <c r="J179" s="155" t="n">
+      <c r="J179" s="154" t="n">
         <v>0.167223230834082</v>
       </c>
       <c r="K179" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L179" s="192" t="n">
+      <c r="L179" s="191" t="n">
         <v>0.568808568399305</v>
       </c>
-      <c r="M179" s="155" t="n">
+      <c r="M179" s="154" t="n">
         <v>0.168742119734253</v>
       </c>
       <c r="N179" s="113" t="n">
@@ -51425,43 +51459,43 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="137" t="n">
+      <c r="A180" s="136" t="n">
         <v>0.7</v>
       </c>
       <c r="B180" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C180" s="189" t="n">
+      <c r="C180" s="188" t="n">
         <v>2.33124583934902</v>
       </c>
-      <c r="D180" s="155" t="n">
+      <c r="D180" s="154" t="n">
         <v>0.146844399646807</v>
       </c>
       <c r="E180" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F180" s="190" t="n">
+      <c r="F180" s="189" t="n">
         <v>0.68443951139559</v>
       </c>
-      <c r="G180" s="155" t="n">
+      <c r="G180" s="154" t="n">
         <v>0.0174074201272452</v>
       </c>
       <c r="H180" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I180" s="191" t="n">
+      <c r="I180" s="190" t="n">
         <v>1.01516295498394</v>
       </c>
-      <c r="J180" s="155" t="n">
+      <c r="J180" s="154" t="n">
         <v>0.0392469447898536</v>
       </c>
       <c r="K180" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L180" s="192" t="n">
+      <c r="L180" s="191" t="n">
         <v>3.07835727591371</v>
       </c>
-      <c r="M180" s="155" t="n">
+      <c r="M180" s="154" t="n">
         <v>0.124551868876908</v>
       </c>
       <c r="N180" s="113" t="n">
@@ -51469,43 +51503,43 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="137" t="n">
+      <c r="A181" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="B181" s="100" t="n">
         <v>250</v>
       </c>
-      <c r="C181" s="189" t="n">
+      <c r="C181" s="188" t="n">
         <v>2.66221545051278</v>
       </c>
-      <c r="D181" s="155" t="n">
+      <c r="D181" s="154" t="n">
         <v>0.0943740951471455</v>
       </c>
       <c r="E181" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="F181" s="190" t="n">
+      <c r="F181" s="189" t="n">
         <v>19.0121154896086</v>
       </c>
-      <c r="G181" s="155" t="n">
+      <c r="G181" s="154" t="n">
         <v>1.34339342900195</v>
       </c>
       <c r="H181" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="I181" s="191" t="n">
+      <c r="I181" s="190" t="n">
         <v>7.84327153427033</v>
       </c>
-      <c r="J181" s="155" t="n">
+      <c r="J181" s="154" t="n">
         <v>1.78987907353846</v>
       </c>
       <c r="K181" s="113" t="n">
         <v>100</v>
       </c>
-      <c r="L181" s="192" t="n">
+      <c r="L181" s="191" t="n">
         <v>0.72110871593819</v>
       </c>
-      <c r="M181" s="155" t="n">
+      <c r="M181" s="154" t="n">
         <v>0.0922315886905523</v>
       </c>
       <c r="N181" s="113" t="n">
@@ -51513,46 +51547,46 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="143" t="n">
+      <c r="A182" s="142" t="n">
         <v>0.8</v>
       </c>
-      <c r="B182" s="157" t="n">
+      <c r="B182" s="156" t="n">
         <v>250</v>
       </c>
-      <c r="C182" s="193" t="n">
+      <c r="C182" s="192" t="n">
         <v>2.50002788351559</v>
       </c>
-      <c r="D182" s="159" t="n">
+      <c r="D182" s="158" t="n">
         <v>0.20513701127945</v>
       </c>
-      <c r="E182" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="F182" s="194" t="n">
+      <c r="E182" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="F182" s="193" t="n">
         <v>6.47346528165016</v>
       </c>
-      <c r="G182" s="159" t="n">
+      <c r="G182" s="158" t="n">
         <v>0.384829433373373</v>
       </c>
-      <c r="H182" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="I182" s="195" t="n">
+      <c r="H182" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="I182" s="194" t="n">
         <v>3.36620709984808</v>
       </c>
-      <c r="J182" s="159" t="n">
+      <c r="J182" s="158" t="n">
         <v>0.908348063844294</v>
       </c>
-      <c r="K182" s="144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L182" s="196" t="n">
+      <c r="K182" s="143" t="n">
+        <v>100</v>
+      </c>
+      <c r="L182" s="195" t="n">
         <v>3.13793338014192</v>
       </c>
-      <c r="M182" s="159" t="n">
+      <c r="M182" s="158" t="n">
         <v>0.461835808535816</v>
       </c>
-      <c r="N182" s="144" t="n">
+      <c r="N182" s="143" t="n">
         <v>100</v>
       </c>
     </row>
@@ -51974,22 +52008,22 @@
       <c r="A37" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="197" t="s">
+      <c r="B37" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197" t="s">
+      <c r="C37" s="196"/>
+      <c r="D37" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197" t="s">
+      <c r="E37" s="196"/>
+      <c r="F37" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197" t="s">
+      <c r="G37" s="196"/>
+      <c r="H37" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="196"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -52971,22 +53005,22 @@
       <c r="A75" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B75" s="197" t="s">
+      <c r="B75" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197" t="s">
+      <c r="C75" s="196"/>
+      <c r="D75" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="197"/>
-      <c r="F75" s="197" t="s">
+      <c r="E75" s="196"/>
+      <c r="F75" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="197"/>
-      <c r="H75" s="197" t="s">
+      <c r="G75" s="196"/>
+      <c r="H75" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="I75" s="197"/>
+      <c r="I75" s="196"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="n">
@@ -53311,22 +53345,22 @@
       <c r="A112" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="197" t="s">
+      <c r="B112" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="197"/>
-      <c r="D112" s="197" t="s">
+      <c r="C112" s="196"/>
+      <c r="D112" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="E112" s="197"/>
-      <c r="F112" s="197" t="s">
+      <c r="E112" s="196"/>
+      <c r="F112" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="G112" s="197"/>
-      <c r="H112" s="197" t="s">
+      <c r="G112" s="196"/>
+      <c r="H112" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="I112" s="197"/>
+      <c r="I112" s="196"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">

--- a/Experiments_Divergences_2D.xlsx
+++ b/Experiments_Divergences_2D.xlsx
@@ -2763,7 +2763,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2774,10 +2774,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11430241295817"/>
-          <c:y val="0.0509344564359042"/>
-          <c:w val="0.841947065208316"/>
-          <c:h val="0.760331666227955"/>
+          <c:x val="0.114311957247829"/>
+          <c:y val="0.0509411609845992"/>
+          <c:w val="0.84185036740147"/>
+          <c:h val="0.760168487560879"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3278,11 +3278,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="40503996"/>
-        <c:axId val="40848935"/>
+        <c:axId val="8652215"/>
+        <c:axId val="25172022"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40503996"/>
+        <c:axId val="8652215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,14 +3366,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40848935"/>
+        <c:crossAx val="25172022"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40848935"/>
+        <c:axId val="25172022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3454,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40503996"/>
+        <c:crossAx val="8652215"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
@@ -3504,7 +3504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3515,10 +3515,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10739817123857"/>
-          <c:y val="0.0509930220075148"/>
-          <c:w val="0.85619285120532"/>
-          <c:h val="0.777106816961889"/>
+          <c:x val="0.107407099509519"/>
+          <c:y val="0.0509998657898269"/>
+          <c:w val="0.856097763737634"/>
+          <c:h val="0.776942692256073"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4019,11 +4019,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39440379"/>
-        <c:axId val="62970796"/>
+        <c:axId val="9443551"/>
+        <c:axId val="15562402"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39440379"/>
+        <c:axId val="9443551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,14 +4107,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62970796"/>
+        <c:crossAx val="15562402"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62970796"/>
+        <c:axId val="15562402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4197,7 +4197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39440379"/>
+        <c:crossAx val="9443551"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4246,7 +4246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4257,10 +4257,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115668240947883"/>
-          <c:y val="0.0510370835952231"/>
-          <c:w val="0.850360427541636"/>
-          <c:h val="0.77071024512885"/>
+          <c:x val="0.115677825654624"/>
+          <c:y val="0.0510435001257229"/>
+          <c:w val="0.850265164070268"/>
+          <c:h val="0.770555695247674"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5289,11 +5289,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33944589"/>
-        <c:axId val="18443880"/>
+        <c:axId val="48999283"/>
+        <c:axId val="57008922"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33944589"/>
+        <c:axId val="48999283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5377,14 +5377,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18443880"/>
+        <c:crossAx val="57008922"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18443880"/>
+        <c:axId val="57008922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5440,8 +5440,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00745712155108128"/>
-              <c:y val="0.322815839094909"/>
+              <c:x val="0.00745773947630096"/>
+              <c:y val="0.322730701533819"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5473,7 +5473,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33944589"/>
+        <c:crossAx val="48999283"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -5523,7 +5523,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5534,10 +5534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115627597672485"/>
-          <c:y val="0.0509743010449026"/>
-          <c:w val="0.850374064837905"/>
-          <c:h val="0.735526687376447"/>
+          <c:x val="0.115637210075651"/>
+          <c:y val="0.0509814997881655"/>
+          <c:w val="0.850278493640369"/>
+          <c:h val="0.735489337664172"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6566,11 +6566,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87098767"/>
-        <c:axId val="46988609"/>
+        <c:axId val="95999886"/>
+        <c:axId val="2140179"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87098767"/>
+        <c:axId val="95999886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6654,14 +6654,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46988609"/>
+        <c:crossAx val="2140179"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46988609"/>
+        <c:axId val="2140179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6717,8 +6717,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00748129675810474"/>
-              <c:y val="0.322790172267721"/>
+              <c:x val="0.0074819186964835"/>
+              <c:y val="0.322694534670244"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6750,7 +6750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87098767"/>
+        <c:crossAx val="95999886"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -6800,7 +6800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6811,10 +6811,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115735307393699"/>
-          <c:y val="0.0510714285714286"/>
-          <c:w val="0.8538412927688"/>
-          <c:h val="0.719464285714286"/>
+          <c:x val="0.115745756590827"/>
+          <c:y val="0.0510805500982318"/>
+          <c:w val="0.85373781148429"/>
+          <c:h val="0.719414181103769"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7315,11 +7315,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="27571822"/>
-        <c:axId val="38754686"/>
+        <c:axId val="26849081"/>
+        <c:axId val="30183452"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27571822"/>
+        <c:axId val="26849081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7403,14 +7403,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38754686"/>
+        <c:crossAx val="30183452"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38754686"/>
+        <c:axId val="30183452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7466,8 +7466,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00749300352080888"/>
-              <c:y val="0.321964285714286"/>
+              <c:x val="0.0074936800288913"/>
+              <c:y val="0.321843186283265"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7499,7 +7499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27571822"/>
+        <c:crossAx val="26849081"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7549,7 +7549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7560,10 +7560,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115735307393699"/>
-          <c:y val="0.0510587175251539"/>
-          <c:w val="0.850320483885529"/>
-          <c:h val="0.770385943835411"/>
+          <c:x val="0.115745756590827"/>
+          <c:y val="0.0510663863021929"/>
+          <c:w val="0.850216684723727"/>
+          <c:h val="0.770201261640132"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8064,11 +8064,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="8432211"/>
-        <c:axId val="7900406"/>
+        <c:axId val="19196142"/>
+        <c:axId val="29720563"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8432211"/>
+        <c:axId val="19196142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8152,14 +8152,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7900406"/>
+        <c:crossAx val="29720563"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7900406"/>
+        <c:axId val="29720563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8216,8 +8216,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00749300352080888"/>
-              <c:y val="0.322721129298693"/>
+              <c:x val="0.0074936800288913"/>
+              <c:y val="0.322619405226795"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8249,7 +8249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8432211"/>
+        <c:crossAx val="19196142"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8299,7 +8299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8310,10 +8310,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115668240947883"/>
-          <c:y val="0.0510370835952231"/>
-          <c:w val="0.850360427541636"/>
-          <c:h val="0.77071024512885"/>
+          <c:x val="0.115677825654624"/>
+          <c:y val="0.0510435001257229"/>
+          <c:w val="0.850265164070268"/>
+          <c:h val="0.770555695247674"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9342,11 +9342,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41811167"/>
-        <c:axId val="72414333"/>
+        <c:axId val="96672255"/>
+        <c:axId val="88724415"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41811167"/>
+        <c:axId val="96672255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9430,14 +9430,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72414333"/>
+        <c:crossAx val="88724415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72414333"/>
+        <c:axId val="88724415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -9495,8 +9495,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00745712155108128"/>
-              <c:y val="0.322815839094909"/>
+              <c:x val="0.00745773947630096"/>
+              <c:y val="0.322730701533819"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9528,7 +9528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41811167"/>
+        <c:crossAx val="96672255"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -9578,7 +9578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9589,10 +9589,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115627597672485"/>
-          <c:y val="0.0509743010449026"/>
-          <c:w val="0.850374064837905"/>
-          <c:h val="0.735526687376447"/>
+          <c:x val="0.115637210075651"/>
+          <c:y val="0.0509814997881655"/>
+          <c:w val="0.850278493640369"/>
+          <c:h val="0.735489337664172"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -10621,11 +10621,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49695376"/>
-        <c:axId val="74555893"/>
+        <c:axId val="81168593"/>
+        <c:axId val="77695671"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49695376"/>
+        <c:axId val="81168593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10709,14 +10709,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74555893"/>
+        <c:crossAx val="77695671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74555893"/>
+        <c:axId val="77695671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,8 +10772,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00748129675810474"/>
-              <c:y val="0.322790172267721"/>
+              <c:x val="0.0074819186964835"/>
+              <c:y val="0.322694534670244"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10805,7 +10805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49695376"/>
+        <c:crossAx val="81168593"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10866,9 +10866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10877,7 +10877,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="95400" y="2814480"/>
-        <a:ext cx="4311360" cy="2734920"/>
+        <a:ext cx="4311000" cy="2734560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10896,9 +10896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
+      <xdr:colOff>624960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10907,7 +10907,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4524480" y="2800440"/>
-        <a:ext cx="4330440" cy="2682360"/>
+        <a:ext cx="4330080" cy="2682000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10926,9 +10926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10937,7 +10937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6877080" y="7210080"/>
-        <a:ext cx="4344480" cy="2863440"/>
+        <a:ext cx="4344120" cy="2863080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10956,9 +10956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10967,7 +10967,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6896160" y="10105920"/>
-        <a:ext cx="4330440" cy="2549160"/>
+        <a:ext cx="4330080" cy="2548800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10986,9 +10986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10997,7 +10997,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="266760" y="17411400"/>
-        <a:ext cx="3987360" cy="2015640"/>
+        <a:ext cx="3987000" cy="2015280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11016,9 +11016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11027,7 +11027,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="266760" y="19430640"/>
-        <a:ext cx="3987360" cy="2396880"/>
+        <a:ext cx="3987000" cy="2396520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11046,9 +11046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>648720</xdr:colOff>
+      <xdr:colOff>648360</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11057,7 +11057,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7277040" y="22326480"/>
-        <a:ext cx="4344480" cy="2863440"/>
+        <a:ext cx="4344120" cy="2863080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11076,9 +11076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11087,7 +11087,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7286760" y="25221960"/>
-        <a:ext cx="4330440" cy="2549160"/>
+        <a:ext cx="4330080" cy="2548800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11107,16 +11107,16 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11160,41 +11160,41 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>860.031482021281</v>
+        <v>54.5626017297022</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>60.0123617849722</v>
+        <v>59.9018723019162</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.249235359288559</v>
+        <v>1.04415851134054</v>
       </c>
       <c r="D2" s="7" t="n">
         <f aca="false">A2-L$2</f>
-        <v>0.0314820212810218</v>
+        <v>-805.437398270298</v>
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">B2-M$2</f>
-        <v>0.0123617849721995</v>
+        <v>-0.0981276980838004</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">C2-N$2</f>
-        <v>0.249235359288559</v>
+        <v>1.04415851134054</v>
       </c>
       <c r="G2" s="7" t="n">
         <f aca="false">360-F2</f>
-        <v>359.750764640711</v>
-      </c>
-      <c r="H2" s="8" t="n">
+        <v>358.955841488659</v>
+      </c>
+      <c r="H2" s="8" t="str">
         <f aca="false">IF(ABS(D2)&lt;10,ABS(D2),"")</f>
-        <v>0.0314820212810218</v>
+        <v/>
       </c>
       <c r="I2" s="9" t="n">
         <f aca="false">IF(ABS(E2)&lt;10,ABS(E2),"")</f>
-        <v>0.0123617849721995</v>
+        <v>0.0981276980838004</v>
       </c>
       <c r="J2" s="10" t="n">
         <f aca="false">ABS(MIN(F2:G2))</f>
-        <v>0.249235359288559</v>
+        <v>1.04415851134054</v>
       </c>
       <c r="L2" s="11" t="n">
         <v>860</v>
@@ -11208,193 +11208,193 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>860.480607309886</v>
+        <v>54.1863924499461</v>
       </c>
       <c r="B3" s="12" t="n">
-        <v>60.0490993797083</v>
+        <v>59.7699839572514</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>360</v>
+        <v>1.14506024200045</v>
       </c>
       <c r="D3" s="7" t="n">
         <f aca="false">A3-L$2</f>
-        <v>0.480607309885954</v>
+        <v>-805.813607550054</v>
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">B3-M$2</f>
-        <v>0.0490993797083021</v>
+        <v>-0.230016042748602</v>
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">C3-N$2</f>
-        <v>360</v>
+        <v>1.14506024200045</v>
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">360-F3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="n">
+        <v>358.854939758</v>
+      </c>
+      <c r="H3" s="14" t="str">
         <f aca="false">IF(ABS(D3)&lt;10,ABS(D3),"")</f>
-        <v>0.480607309885954</v>
+        <v/>
       </c>
       <c r="I3" s="7" t="n">
         <f aca="false">IF(ABS(E3)&lt;10,ABS(E3),"")</f>
-        <v>0.0490993797083021</v>
+        <v>0.230016042748602</v>
       </c>
       <c r="J3" s="10" t="n">
         <f aca="false">ABS(MIN(F3:G3))</f>
-        <v>0</v>
+        <v>1.14506024200045</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>860.479953779246</v>
+        <v>54.917731129289</v>
       </c>
       <c r="B4" s="12" t="n">
-        <v>60.0445656135641</v>
+        <v>59.641470886124</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0</v>
+        <v>1.33442477995487</v>
       </c>
       <c r="D4" s="7" t="n">
         <f aca="false">A4-L$2</f>
-        <v>0.479953779245989</v>
+        <v>-805.082268870711</v>
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">B4-M$2</f>
-        <v>0.044565613564103</v>
+        <v>-0.358529113876003</v>
       </c>
       <c r="F4" s="7" t="n">
         <f aca="false">C4-N$2</f>
-        <v>0</v>
+        <v>1.33442477995487</v>
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">360-F4</f>
-        <v>360</v>
-      </c>
-      <c r="H4" s="14" t="n">
+        <v>358.665575220045</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f aca="false">IF(ABS(D4)&lt;10,ABS(D4),"")</f>
-        <v>0.479953779245989</v>
+        <v/>
       </c>
       <c r="I4" s="7" t="n">
         <f aca="false">IF(ABS(E4)&lt;10,ABS(E4),"")</f>
-        <v>0.044565613564103</v>
+        <v>0.358529113876003</v>
       </c>
       <c r="J4" s="10" t="n">
         <f aca="false">ABS(MIN(F4:G4))</f>
-        <v>0</v>
+        <v>1.33442477995487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>860.500467306434</v>
+        <v>860.433246497989</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>60.0454618112132</v>
+        <v>59.8545066739563</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0</v>
+        <v>0.433207217114841</v>
       </c>
       <c r="D5" s="7" t="n">
         <f aca="false">A5-L$2</f>
-        <v>0.500467306433961</v>
+        <v>0.433246497988989</v>
       </c>
       <c r="E5" s="7" t="n">
         <f aca="false">B5-M$2</f>
-        <v>0.045461811213201</v>
+        <v>-0.145493326043699</v>
       </c>
       <c r="F5" s="7" t="n">
         <f aca="false">C5-N$2</f>
-        <v>0</v>
+        <v>0.433207217114841</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">360-F5</f>
-        <v>360</v>
+        <v>359.566792782885</v>
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">IF(ABS(D5)&lt;10,ABS(D5),"")</f>
-        <v>0.500467306433961</v>
+        <v>0.433246497988989</v>
       </c>
       <c r="I5" s="7" t="n">
         <f aca="false">IF(ABS(E5)&lt;10,ABS(E5),"")</f>
-        <v>0.045461811213201</v>
+        <v>0.145493326043699</v>
       </c>
       <c r="J5" s="10" t="n">
         <f aca="false">ABS(MIN(F5:G5))</f>
-        <v>0</v>
+        <v>0.433207217114841</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>860.485849806767</v>
+        <v>860.033143271196</v>
       </c>
       <c r="B6" s="12" t="n">
-        <v>59.9500231826014</v>
+        <v>60.3635572254817</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>359.993775287116</v>
+        <v>360</v>
       </c>
       <c r="D6" s="7" t="n">
         <f aca="false">A6-L$2</f>
-        <v>0.485849806766964</v>
+        <v>0.0331432711959678</v>
       </c>
       <c r="E6" s="7" t="n">
         <f aca="false">B6-M$2</f>
-        <v>-0.0499768173986013</v>
+        <v>0.363557225481699</v>
       </c>
       <c r="F6" s="7" t="n">
         <f aca="false">C6-N$2</f>
-        <v>359.993775287116</v>
+        <v>360</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">360-F6</f>
-        <v>0.00622471288397719</v>
+        <v>0</v>
       </c>
       <c r="H6" s="14" t="n">
         <f aca="false">IF(ABS(D6)&lt;10,ABS(D6),"")</f>
-        <v>0.485849806766964</v>
+        <v>0.0331432711959678</v>
       </c>
       <c r="I6" s="7" t="n">
         <f aca="false">IF(ABS(E6)&lt;10,ABS(E6),"")</f>
-        <v>0.0499768173986013</v>
+        <v>0.363557225481699</v>
       </c>
       <c r="J6" s="10" t="n">
         <f aca="false">ABS(MIN(F6:G6))</f>
-        <v>0.00622471288397719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>860.505399567993</v>
+        <v>860.243172814297</v>
       </c>
       <c r="B7" s="12" t="n">
-        <v>59.9416317081617</v>
+        <v>60.8549356370929</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D7" s="7" t="n">
         <f aca="false">A7-L$2</f>
-        <v>0.505399567992981</v>
+        <v>0.243172814297054</v>
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">B7-M$2</f>
-        <v>-0.0583682918382991</v>
+        <v>0.8549356370929</v>
       </c>
       <c r="F7" s="7" t="n">
         <f aca="false">C7-N$2</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">360-F7</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H7" s="14" t="n">
         <f aca="false">IF(ABS(D7)&lt;10,ABS(D7),"")</f>
-        <v>0.505399567992981</v>
+        <v>0.243172814297054</v>
       </c>
       <c r="I7" s="7" t="n">
         <f aca="false">IF(ABS(E7)&lt;10,ABS(E7),"")</f>
-        <v>0.0583682918382991</v>
+        <v>0.8549356370929</v>
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">ABS(MIN(F7:G7))</f>
@@ -11403,21 +11403,21 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>860.435677353332</v>
+        <v>860.054610029418</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>60.0174053094532</v>
+        <v>60.8521121295558</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>360</v>
       </c>
       <c r="D8" s="7" t="n">
         <f aca="false">A8-L$2</f>
-        <v>0.435677353332039</v>
+        <v>0.0546100294179723</v>
       </c>
       <c r="E8" s="7" t="n">
         <f aca="false">B8-M$2</f>
-        <v>0.0174053094532027</v>
+        <v>0.852112129555799</v>
       </c>
       <c r="F8" s="7" t="n">
         <f aca="false">C8-N$2</f>
@@ -11429,11 +11429,11 @@
       </c>
       <c r="H8" s="14" t="n">
         <f aca="false">IF(ABS(D8)&lt;10,ABS(D8),"")</f>
-        <v>0.435677353332039</v>
+        <v>0.0546100294179723</v>
       </c>
       <c r="I8" s="7" t="n">
         <f aca="false">IF(ABS(E8)&lt;10,ABS(E8),"")</f>
-        <v>0.0174053094532027</v>
+        <v>0.852112129555799</v>
       </c>
       <c r="J8" s="10" t="n">
         <f aca="false">ABS(MIN(F8:G8))</f>
@@ -11442,232 +11442,232 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>860.24604850651</v>
+        <v>860.45121399762</v>
       </c>
       <c r="B9" s="12" t="n">
-        <v>60.4628426111265</v>
+        <v>60.2541016460351</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>359.739556664407</v>
+        <v>0.967630019559547</v>
       </c>
       <c r="D9" s="7" t="n">
         <f aca="false">A9-L$2</f>
-        <v>0.246048506509965</v>
+        <v>0.451213997620016</v>
       </c>
       <c r="E9" s="7" t="n">
         <f aca="false">B9-M$2</f>
-        <v>0.462842611126497</v>
+        <v>0.254101646035103</v>
       </c>
       <c r="F9" s="7" t="n">
         <f aca="false">C9-N$2</f>
-        <v>359.739556664407</v>
+        <v>0.967630019559547</v>
       </c>
       <c r="G9" s="7" t="n">
         <f aca="false">360-F9</f>
-        <v>0.260443335592981</v>
+        <v>359.03236998044</v>
       </c>
       <c r="H9" s="14" t="n">
         <f aca="false">IF(ABS(D9)&lt;10,ABS(D9),"")</f>
-        <v>0.246048506509965</v>
+        <v>0.451213997620016</v>
       </c>
       <c r="I9" s="7" t="n">
         <f aca="false">IF(ABS(E9)&lt;10,ABS(E9),"")</f>
-        <v>0.462842611126497</v>
+        <v>0.254101646035103</v>
       </c>
       <c r="J9" s="10" t="n">
         <f aca="false">ABS(MIN(F9:G9))</f>
-        <v>0.260443335592981</v>
+        <v>0.967630019559547</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>860.500118479474</v>
+        <v>860.19161388197</v>
       </c>
       <c r="B10" s="12" t="n">
-        <v>60.0312772728742</v>
+        <v>60.2691770696457</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>360</v>
+        <v>0.197041992877575</v>
       </c>
       <c r="D10" s="7" t="n">
         <f aca="false">A10-L$2</f>
-        <v>0.500118479474054</v>
+        <v>0.191613881970056</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">B10-M$2</f>
-        <v>0.031277272874199</v>
+        <v>0.2691770696457</v>
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">C10-N$2</f>
-        <v>360</v>
+        <v>0.197041992877575</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">360-F10</f>
-        <v>0</v>
+        <v>359.802958007122</v>
       </c>
       <c r="H10" s="14" t="n">
         <f aca="false">IF(ABS(D10)&lt;10,ABS(D10),"")</f>
-        <v>0.500118479474054</v>
+        <v>0.191613881970056</v>
       </c>
       <c r="I10" s="7" t="n">
         <f aca="false">IF(ABS(E10)&lt;10,ABS(E10),"")</f>
-        <v>0.031277272874199</v>
+        <v>0.2691770696457</v>
       </c>
       <c r="J10" s="10" t="n">
         <f aca="false">ABS(MIN(F10:G10))</f>
-        <v>0</v>
+        <v>0.197041992877575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>860.505006712702</v>
+        <v>860.736551153596</v>
       </c>
       <c r="B11" s="12" t="n">
-        <v>60.0491532665777</v>
+        <v>59.7568602810228</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>360</v>
+        <v>1.1540902717581</v>
       </c>
       <c r="D11" s="7" t="n">
         <f aca="false">A11-L$2</f>
-        <v>0.50500671270197</v>
+        <v>0.736551153595997</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">B11-M$2</f>
-        <v>0.0491532665776973</v>
+        <v>-0.243139718977197</v>
       </c>
       <c r="F11" s="7" t="n">
         <f aca="false">C11-N$2</f>
-        <v>360</v>
+        <v>1.1540902717581</v>
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">360-F11</f>
-        <v>0</v>
+        <v>358.845909728242</v>
       </c>
       <c r="H11" s="14" t="n">
         <f aca="false">IF(ABS(D11)&lt;10,ABS(D11),"")</f>
-        <v>0.50500671270197</v>
+        <v>0.736551153595997</v>
       </c>
       <c r="I11" s="7" t="n">
         <f aca="false">IF(ABS(E11)&lt;10,ABS(E11),"")</f>
-        <v>0.0491532665776973</v>
+        <v>0.243139718977197</v>
       </c>
       <c r="J11" s="10" t="n">
         <f aca="false">ABS(MIN(F11:G11))</f>
-        <v>0</v>
+        <v>1.1540902717581</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>860.502352065216</v>
+        <v>54.1923338904757</v>
       </c>
       <c r="B12" s="12" t="n">
-        <v>60.0445491591665</v>
+        <v>59.8862533313521</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>360</v>
+        <v>0.388315311256656</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">A12-L$2</f>
-        <v>0.502352065215973</v>
+        <v>-805.807666109524</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">B12-M$2</f>
-        <v>0.0445491591665004</v>
+        <v>-0.113746668647899</v>
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">C12-N$2</f>
-        <v>360</v>
+        <v>0.388315311256656</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">360-F12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="n">
+        <v>359.611684688743</v>
+      </c>
+      <c r="H12" s="14" t="str">
         <f aca="false">IF(ABS(D12)&lt;10,ABS(D12),"")</f>
-        <v>0.502352065215973</v>
+        <v/>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">IF(ABS(E12)&lt;10,ABS(E12),"")</f>
-        <v>0.0445491591665004</v>
+        <v>0.113746668647899</v>
       </c>
       <c r="J12" s="10" t="n">
         <f aca="false">ABS(MIN(F12:G12))</f>
-        <v>0</v>
+        <v>0.388315311256656</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>860.549658772627</v>
+        <v>54.4692887065344</v>
       </c>
       <c r="B13" s="12" t="n">
-        <v>59.9677771228795</v>
+        <v>60.2371078070945</v>
       </c>
       <c r="C13" s="13" t="n">
-        <v>1.01415957855252</v>
+        <v>0.958449958128783</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">A13-L$2</f>
-        <v>0.549658772627026</v>
+        <v>-805.530711293466</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">B13-M$2</f>
-        <v>-0.0322228771205033</v>
+        <v>0.237107807094503</v>
       </c>
       <c r="F13" s="7" t="n">
         <f aca="false">C13-N$2</f>
-        <v>1.01415957855252</v>
+        <v>0.958449958128783</v>
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">360-F13</f>
-        <v>358.985840421448</v>
-      </c>
-      <c r="H13" s="14" t="n">
+        <v>359.041550041871</v>
+      </c>
+      <c r="H13" s="14" t="str">
         <f aca="false">IF(ABS(D13)&lt;10,ABS(D13),"")</f>
-        <v>0.549658772627026</v>
+        <v/>
       </c>
       <c r="I13" s="7" t="n">
         <f aca="false">IF(ABS(E13)&lt;10,ABS(E13),"")</f>
-        <v>0.0322228771205033</v>
+        <v>0.237107807094503</v>
       </c>
       <c r="J13" s="10" t="n">
         <f aca="false">ABS(MIN(F13:G13))</f>
-        <v>1.01415957855252</v>
+        <v>0.958449958128783</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>860.501537382727</v>
+        <v>859.985645572303</v>
       </c>
       <c r="B14" s="12" t="n">
-        <v>59.9483487936</v>
+        <v>60.838933285323</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">A14-L$2</f>
-        <v>0.501537382726951</v>
+        <v>-0.0143544276969578</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">B14-M$2</f>
-        <v>-0.0516512064000025</v>
+        <v>0.838933285323002</v>
       </c>
       <c r="F14" s="7" t="n">
         <f aca="false">C14-N$2</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">360-F14</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H14" s="14" t="n">
         <f aca="false">IF(ABS(D14)&lt;10,ABS(D14),"")</f>
-        <v>0.501537382726951</v>
+        <v>0.0143544276969578</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">IF(ABS(E14)&lt;10,ABS(E14),"")</f>
-        <v>0.0516512064000025</v>
+        <v>0.838933285323002</v>
       </c>
       <c r="J14" s="10" t="n">
         <f aca="false">ABS(MIN(F14:G14))</f>
@@ -11676,76 +11676,76 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>860.504414768283</v>
+        <v>860.086671715937</v>
       </c>
       <c r="B15" s="12" t="n">
-        <v>59.9455385548766</v>
+        <v>60.5182544962903</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>360</v>
+        <v>359.182805913222</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">A15-L$2</f>
-        <v>0.504414768283027</v>
+        <v>0.0866717159369728</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">B15-M$2</f>
-        <v>-0.0544614451234011</v>
+        <v>0.518254496290297</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">C15-N$2</f>
-        <v>360</v>
+        <v>359.182805913222</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">360-F15</f>
-        <v>0</v>
+        <v>0.817194086777988</v>
       </c>
       <c r="H15" s="14" t="n">
         <f aca="false">IF(ABS(D15)&lt;10,ABS(D15),"")</f>
-        <v>0.504414768283027</v>
+        <v>0.0866717159369728</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">IF(ABS(E15)&lt;10,ABS(E15),"")</f>
-        <v>0.0544614451234011</v>
+        <v>0.518254496290297</v>
       </c>
       <c r="J15" s="10" t="n">
         <f aca="false">ABS(MIN(F15:G15))</f>
-        <v>0</v>
+        <v>0.817194086777988</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>860.446033973591</v>
+        <v>860.010256267824</v>
       </c>
       <c r="B16" s="12" t="n">
-        <v>59.9126084828278</v>
+        <v>60.8227287988521</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">A16-L$2</f>
-        <v>0.446033973591057</v>
+        <v>0.0102562678240474</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">B16-M$2</f>
-        <v>-0.0873915171722004</v>
+        <v>0.822728798852097</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">C16-N$2</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">360-F16</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H16" s="14" t="n">
         <f aca="false">IF(ABS(D16)&lt;10,ABS(D16),"")</f>
-        <v>0.446033973591057</v>
+        <v>0.0102562678240474</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">IF(ABS(E16)&lt;10,ABS(E16),"")</f>
-        <v>0.0873915171722004</v>
+        <v>0.822728798852097</v>
       </c>
       <c r="J16" s="10" t="n">
         <f aca="false">ABS(MIN(F16:G16))</f>
@@ -11754,37 +11754,37 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>860.500245544154</v>
+        <v>860.263426861606</v>
       </c>
       <c r="B17" s="12" t="n">
-        <v>59.9108561613927</v>
+        <v>60.4943232406166</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>360</v>
+        <v>0.484302342054298</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">A17-L$2</f>
-        <v>0.500245544154041</v>
+        <v>0.263426861606035</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">B17-M$2</f>
-        <v>-0.0891438386072991</v>
+        <v>0.494323240616602</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">C17-N$2</f>
-        <v>360</v>
+        <v>0.484302342054298</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">360-F17</f>
-        <v>0</v>
+        <v>359.515697657946</v>
       </c>
       <c r="H17" s="14" t="n">
         <f aca="false">IF(ABS(D17)&lt;10,ABS(D17),"")</f>
-        <v>0.500245544154041</v>
+        <v>0.263426861606035</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">IF(ABS(E17)&lt;10,ABS(E17),"")</f>
-        <v>0.0891438386072991</v>
+        <v>0.494323240616602</v>
       </c>
       <c r="J17" s="10" t="n">
         <v>0</v>
@@ -11792,37 +11792,37 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>860.505569954643</v>
+        <v>54.7264158909584</v>
       </c>
       <c r="B18" s="12" t="n">
-        <v>60.0432753283799</v>
+        <v>60.5033548689227</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>360</v>
+        <v>0.906057409468258</v>
       </c>
       <c r="D18" s="7" t="n">
         <f aca="false">A18-L$2</f>
-        <v>0.505569954642965</v>
+        <v>-805.273584109042</v>
       </c>
       <c r="E18" s="7" t="n">
         <f aca="false">B18-M$2</f>
-        <v>0.0432753283798988</v>
+        <v>0.503354868922699</v>
       </c>
       <c r="F18" s="7" t="n">
         <f aca="false">C18-N$2</f>
-        <v>360</v>
+        <v>0.906057409468258</v>
       </c>
       <c r="G18" s="7" t="n">
         <f aca="false">360-F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
+        <v>359.093942590532</v>
+      </c>
+      <c r="H18" s="14" t="str">
         <f aca="false">IF(ABS(D18)&lt;10,ABS(D18),"")</f>
-        <v>0.505569954642965</v>
+        <v/>
       </c>
       <c r="I18" s="7" t="n">
         <f aca="false">IF(ABS(E18)&lt;10,ABS(E18),"")</f>
-        <v>0.0432753283798988</v>
+        <v>0.503354868922699</v>
       </c>
       <c r="J18" s="10" t="n">
         <v>0</v>
@@ -11830,119 +11830,119 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>860.50314799917</v>
+        <v>860.137824148588</v>
       </c>
       <c r="B19" s="12" t="n">
-        <v>60.0430354502535</v>
+        <v>60.7701728258053</v>
       </c>
       <c r="C19" s="13" t="n">
-        <v>360</v>
+        <v>359.890396531158</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">A19-L$2</f>
-        <v>0.503147999169983</v>
+        <v>0.137824148588038</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">B19-M$2</f>
-        <v>0.0430354502534982</v>
+        <v>0.770172825805297</v>
       </c>
       <c r="F19" s="7" t="n">
         <f aca="false">C19-N$2</f>
-        <v>360</v>
+        <v>359.890396531158</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">360-F19</f>
-        <v>0</v>
+        <v>0.10960346884201</v>
       </c>
       <c r="H19" s="14" t="n">
         <f aca="false">IF(ABS(D19)&lt;10,ABS(D19),"")</f>
-        <v>0.503147999169983</v>
+        <v>0.137824148588038</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">IF(ABS(E19)&lt;10,ABS(E19),"")</f>
-        <v>0.0430354502534982</v>
+        <v>0.770172825805297</v>
       </c>
       <c r="J19" s="10" t="n">
         <f aca="false">ABS(MIN(F19:G19))</f>
-        <v>0</v>
+        <v>0.10960346884201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>860.505012520683</v>
+        <v>54.8678509559902</v>
       </c>
       <c r="B20" s="12" t="n">
-        <v>59.9445362577913</v>
+        <v>59.6380057898909</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>360</v>
+        <v>1.2557243167883</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">A20-L$2</f>
-        <v>0.505012520682953</v>
+        <v>-805.13214904401</v>
       </c>
       <c r="E20" s="7" t="n">
         <f aca="false">B20-M$2</f>
-        <v>-0.0554637422087012</v>
+        <v>-0.361994210109103</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">C20-N$2</f>
-        <v>360</v>
+        <v>1.2557243167883</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">360-F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
+        <v>358.744275683212</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f aca="false">IF(ABS(D20)&lt;10,ABS(D20),"")</f>
-        <v>0.505012520682953</v>
+        <v/>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">IF(ABS(E20)&lt;10,ABS(E20),"")</f>
-        <v>0.0554637422087012</v>
+        <v>0.361994210109103</v>
       </c>
       <c r="J20" s="10" t="n">
         <f aca="false">ABS(MIN(F20:G20))</f>
-        <v>0</v>
+        <v>1.2557243167883</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>860.505310749114</v>
+        <v>860.302225844756</v>
       </c>
       <c r="B21" s="12" t="n">
-        <v>60.0446029658027</v>
+        <v>60.2330169571339</v>
       </c>
       <c r="C21" s="13" t="n">
-        <v>360</v>
+        <v>359.950710719256</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">A21-L$2</f>
-        <v>0.50531074911396</v>
+        <v>0.302225844755981</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">B21-M$2</f>
-        <v>0.044602965802703</v>
+        <v>0.233016957133898</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">C21-N$2</f>
-        <v>360</v>
+        <v>359.950710719256</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">360-F21</f>
-        <v>0</v>
+        <v>0.0492892807440057</v>
       </c>
       <c r="H21" s="14" t="n">
         <f aca="false">IF(ABS(D21)&lt;10,ABS(D21),"")</f>
-        <v>0.50531074911396</v>
+        <v>0.302225844755981</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">IF(ABS(E21)&lt;10,ABS(E21),"")</f>
-        <v>0.044602965802703</v>
+        <v>0.233016957133898</v>
       </c>
       <c r="J21" s="10" t="n">
         <f aca="false">ABS(MIN(F21:G21))</f>
-        <v>0</v>
+        <v>0.0492892807440057</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12259,15 +12259,15 @@
       </c>
       <c r="H52" s="22" t="n">
         <f aca="false">AVERAGEIF(H2:H51,"&lt;10")</f>
-        <v>0.459694728691642</v>
+        <v>0.22756237788416</v>
       </c>
       <c r="I52" s="22" t="n">
         <f aca="false">AVERAGEIF(I2:I21,"&lt;10")</f>
-        <v>0.0683154844480505</v>
+        <v>0.428141138316795</v>
       </c>
       <c r="J52" s="22" t="n">
         <f aca="false">AVERAGEIF(J2:J21,"&lt;10")</f>
-        <v>0.0765031493159019</v>
+        <v>0.492709472857183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12277,15 +12277,15 @@
       </c>
       <c r="H53" s="24" t="n">
         <f aca="false">STDEV(H2:H21)</f>
-        <v>0.117468967532143</v>
+        <v>0.213714463017609</v>
       </c>
       <c r="I53" s="24" t="n">
         <f aca="false">STDEV(I2:I21)</f>
-        <v>0.0946274126834402</v>
+        <v>0.264190747801959</v>
       </c>
       <c r="J53" s="24" t="n">
         <f aca="false">STDEV(J2:J21)</f>
-        <v>0.234122410187692</v>
+        <v>0.520632226854793</v>
       </c>
     </row>
   </sheetData>
@@ -12315,10 +12315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.01395348837209"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.38604651162791"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19860,10 +19860,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.01395348837209"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.38604651162791"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27266,10 +27266,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.01395348837209"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.38604651162791"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34678,10 +34678,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.01395348837209"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.55348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.38604651162791"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42075,13 +42075,13 @@
   </sheetPr>
   <dimension ref="A2:R89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O48" activeCellId="0" sqref="O48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -43812,32 +43812,46 @@
       <c r="D48" s="52" t="n">
         <v>300</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="51" t="n">
+        <v>0.274173780369015</v>
+      </c>
       <c r="F48" s="51" t="n">
         <f aca="false">E48*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+        <v>3.31750274246509</v>
+      </c>
+      <c r="G48" s="51" t="n">
+        <v>0.219834930253259</v>
+      </c>
+      <c r="H48" s="51" t="n">
+        <v>0.459131167125105</v>
+      </c>
       <c r="I48" s="51" t="n">
         <f aca="false">H48*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="51"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="85"/>
+        <v>5.55548712221377</v>
+      </c>
+      <c r="J48" s="51" t="n">
+        <v>0.319917940359069</v>
+      </c>
+      <c r="K48" s="84" t="n">
+        <v>0.591405600939069</v>
+      </c>
+      <c r="L48" s="85" t="n">
+        <v>0.535092611329929</v>
+      </c>
       <c r="M48" s="63" t="n">
         <f aca="false">SQRT(F48^2+I48^2)</f>
-        <v>0</v>
+        <v>6.47064615099191</v>
       </c>
       <c r="N48" s="64" t="n">
         <f aca="false">SQRT(G48^2+J48^2)*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="86"/>
+        <v>4.69684041999139</v>
+      </c>
+      <c r="O48" s="86" t="n">
+        <v>6</v>
+      </c>
       <c r="P48" s="83" t="n">
         <f aca="false">(20-O48)/20*100</f>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43853,32 +43867,46 @@
       <c r="D49" s="52" t="n">
         <v>300</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="51" t="n">
+        <v>0.22756237788416</v>
+      </c>
       <c r="F49" s="51" t="n">
         <f aca="false">E49*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
+        <v>2.75350477239834</v>
+      </c>
+      <c r="G49" s="51" t="n">
+        <v>0.213714463017609</v>
+      </c>
+      <c r="H49" s="51" t="n">
+        <v>0.428141138316795</v>
+      </c>
       <c r="I49" s="51" t="n">
         <f aca="false">H49*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="51"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="88"/>
+        <v>5.18050777363322</v>
+      </c>
+      <c r="J49" s="51" t="n">
+        <v>0.264190747801959</v>
+      </c>
+      <c r="K49" s="87" t="n">
+        <v>0.492709472857183</v>
+      </c>
+      <c r="L49" s="88" t="n">
+        <v>0.520632226854793</v>
+      </c>
       <c r="M49" s="69" t="n">
         <f aca="false">SQRT(F49^2+I49^2)</f>
-        <v>0</v>
+        <v>5.86680912628787</v>
       </c>
       <c r="N49" s="70" t="n">
         <f aca="false">SQRT(G49^2+J49^2)*121/10</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="89"/>
+        <v>4.111697204653</v>
+      </c>
+      <c r="O49" s="89" t="n">
+        <v>7</v>
+      </c>
       <c r="P49" s="90" t="n">
         <f aca="false">(20-O49)/20*100</f>
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45374,19 +45402,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
